--- a/Fieldroid_Gantt.xlsx
+++ b/Fieldroid_Gantt.xlsx
@@ -580,9 +580,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -616,9 +613,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -633,6 +627,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2285,7 +2285,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="2"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="14"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2572,10 +2572,10 @@
   </sheetPr>
   <dimension ref="A1:DE33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2595,51 +2595,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:109" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:109" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="32">
-        <v>2</v>
+      <c r="O2" s="30">
+        <v>14</v>
       </c>
       <c r="P2" s="7"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="12"/>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="Y2" s="11"/>
-      <c r="Z2" s="34" t="s">
+      <c r="Z2" s="32" t="s">
         <v>39</v>
       </c>
       <c r="AD2" s="13"/>
-      <c r="AE2" s="34" t="s">
+      <c r="AE2" s="32" t="s">
         <v>40</v>
       </c>
       <c r="AH2" s="1"/>
@@ -2647,30 +2647,30 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="10"/>
-      <c r="AM2" s="34" t="s">
+      <c r="AM2" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:109" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:109" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M3" s="15"/>
@@ -2679,7 +2679,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>44</v>
       </c>
       <c r="U3" s="15"/>
@@ -2691,13 +2691,13 @@
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
       <c r="AC3" s="15"/>
-      <c r="AX3" s="20" t="s">
+      <c r="AX3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="CB3" s="20" t="s">
+      <c r="CB3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="CO3" s="20" t="s">
+      <c r="CO3" s="19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2706,19 +2706,19 @@
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -2971,7 +2971,7 @@
       <c r="CM4" s="17">
         <v>12</v>
       </c>
-      <c r="CN4" s="29" t="s">
+      <c r="CN4" s="28" t="s">
         <v>38</v>
       </c>
       <c r="CO4" s="17">
@@ -3029,14 +3029,14 @@
     <row r="5" spans="1:109" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="3">
         <v>1</v>
       </c>
@@ -3339,589 +3339,589 @@
       </c>
     </row>
     <row r="6" spans="1:109" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="26">
+      <c r="C6" s="20"/>
+      <c r="D6" s="25">
         <v>1</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>5</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>1</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>5</v>
       </c>
-      <c r="H6" s="27">
-        <v>0.7</v>
+      <c r="H6" s="26">
+        <v>0.99</v>
       </c>
     </row>
     <row r="7" spans="1:109" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="26">
+      <c r="C7" s="20"/>
+      <c r="D7" s="25">
         <v>1</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>10</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>3</v>
       </c>
-      <c r="G7" s="26">
-        <v>8</v>
-      </c>
-      <c r="H7" s="27">
-        <v>0</v>
+      <c r="G7" s="25">
+        <v>10</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:109" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="26">
+      <c r="C8" s="20"/>
+      <c r="D8" s="25">
         <v>2</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>9</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>4</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>7</v>
       </c>
-      <c r="H8" s="27">
-        <v>0</v>
+      <c r="H8" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:109" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="26">
+      <c r="C9" s="20"/>
+      <c r="D9" s="25">
         <v>3</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>8</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>4</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>7</v>
       </c>
-      <c r="H9" s="27">
-        <v>0</v>
+      <c r="H9" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:109" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="26">
+      <c r="C10" s="20"/>
+      <c r="D10" s="25">
         <v>4</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>7</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>5</v>
       </c>
-      <c r="G10" s="26">
-        <v>6</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0</v>
+      <c r="G10" s="25">
+        <v>11</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:109" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="26">
+      <c r="C11" s="20"/>
+      <c r="D11" s="25">
         <v>3</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>10</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>7</v>
       </c>
-      <c r="G11" s="26">
-        <v>1</v>
-      </c>
-      <c r="H11" s="27">
-        <v>0</v>
+      <c r="G11" s="25">
+        <v>10</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:109" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>9</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>8</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>9</v>
       </c>
-      <c r="G12" s="26">
-        <v>1</v>
-      </c>
-      <c r="H12" s="27">
-        <v>0</v>
+      <c r="G12" s="25">
+        <v>8</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:109" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>15</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>8</v>
       </c>
-      <c r="F13" s="26">
-        <v>15</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="F13" s="25">
+        <v>18</v>
+      </c>
+      <c r="G13" s="25">
         <v>1</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:109" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="26">
-        <v>16</v>
-      </c>
-      <c r="E14" s="26">
-        <v>9</v>
-      </c>
-      <c r="F14" s="26">
-        <v>16</v>
-      </c>
-      <c r="G14" s="26">
-        <v>1</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0</v>
+      <c r="D14" s="25">
+        <v>13</v>
+      </c>
+      <c r="E14" s="25">
+        <v>12</v>
+      </c>
+      <c r="F14" s="25">
+        <v>13</v>
+      </c>
+      <c r="G14" s="25">
+        <v>12</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:109" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="26">
-        <v>24</v>
-      </c>
-      <c r="E15" s="26">
-        <v>8</v>
-      </c>
-      <c r="F15" s="26">
-        <v>24</v>
-      </c>
-      <c r="G15" s="26">
-        <v>1</v>
-      </c>
-      <c r="H15" s="27">
-        <v>0</v>
+      <c r="D15" s="25">
+        <v>13</v>
+      </c>
+      <c r="E15" s="25">
+        <v>18</v>
+      </c>
+      <c r="F15" s="25">
+        <v>13</v>
+      </c>
+      <c r="G15" s="25">
+        <v>12</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:109" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="26">
-        <v>16</v>
-      </c>
-      <c r="E16" s="26">
-        <v>16</v>
-      </c>
-      <c r="F16" s="26">
-        <v>16</v>
-      </c>
-      <c r="G16" s="26">
-        <v>1</v>
-      </c>
-      <c r="H16" s="27">
-        <v>0</v>
+      <c r="D16" s="25">
+        <v>14</v>
+      </c>
+      <c r="E16" s="25">
+        <v>18</v>
+      </c>
+      <c r="F16" s="25">
+        <v>14</v>
+      </c>
+      <c r="G16" s="25">
+        <v>18</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>31</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>3</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>31</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>1</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="26">
+      <c r="D18" s="25">
         <v>31</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="25">
         <v>6</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>31</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <v>1</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>36</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="25">
         <v>5</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <v>36</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <v>1</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>37</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>7</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>37</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <v>1</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>40</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="25">
         <v>8</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="25">
         <v>40</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <v>1</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <v>40</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="25">
         <v>11</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <v>40</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="25">
         <v>1</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>43</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <v>10</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>43</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>1</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>36</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="25">
         <v>19</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="25">
         <v>36</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="25">
         <v>1</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <v>52</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="25">
         <v>6</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="25">
         <v>52</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="25">
         <v>1</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <v>57</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="25">
         <v>8</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>57</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <v>1</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <v>59</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="25">
         <v>10</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="25">
         <v>59</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="25">
         <v>1</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="26">
+      <c r="D28" s="25">
         <v>64</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="25">
         <v>10</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="25">
         <v>64</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="25">
         <v>1</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="26">
+      <c r="D29" s="25">
         <v>71</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="25">
         <v>8</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="25">
         <v>71</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="25">
         <v>1</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="26">
+      <c r="D30" s="25">
         <v>83</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="25">
         <v>10</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="25">
         <v>83</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="25">
         <v>1</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <v>84</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <v>9</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="25">
         <v>84</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="25">
         <v>1</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="26">
+      <c r="D32" s="25">
         <v>84</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="25">
         <v>9</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>84</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <v>1</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="25">
         <v>84</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="25">
         <v>21</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="25">
         <v>84</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="25">
         <v>1</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="26">
         <v>0</v>
       </c>
     </row>

--- a/Fieldroid_Gantt.xlsx
+++ b/Fieldroid_Gantt.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Plan</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>Paint Full Scale Field w/ UI</t>
+  </si>
+  <si>
+    <t>Motion Planning Software</t>
+  </si>
+  <si>
+    <t>PID/Encoder Motor Integration</t>
+  </si>
+  <si>
+    <t>Mount All Parts</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1657,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="43"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="50"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1930,12 +1939,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DT34"/>
+  <dimension ref="A1:DT37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="G28" sqref="G28"/>
+      <selection pane="topRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2000,7 +2009,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="22">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P2" s="7"/>
       <c r="R2" s="8"/>
@@ -3045,7 +3054,7 @@
       </c>
       <c r="I16" s="68"/>
     </row>
-    <row r="17" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="69" t="s">
         <v>44</v>
       </c>
@@ -3067,7 +3076,7 @@
       </c>
       <c r="I17" s="73"/>
     </row>
-    <row r="18" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74" t="s">
         <v>45</v>
       </c>
@@ -3085,11 +3094,11 @@
         <v>20</v>
       </c>
       <c r="H18" s="77">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I18" s="78"/>
     </row>
-    <row r="19" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="74" t="s">
         <v>16</v>
       </c>
@@ -3111,7 +3120,7 @@
       </c>
       <c r="I19" s="78"/>
     </row>
-    <row r="20" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="74" t="s">
         <v>48</v>
       </c>
@@ -3129,11 +3138,11 @@
         <v>32</v>
       </c>
       <c r="H20" s="77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I20" s="78"/>
     </row>
-    <row r="21" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="80" t="s">
         <v>50</v>
       </c>
@@ -3151,11 +3160,11 @@
         <v>34</v>
       </c>
       <c r="H21" s="83">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I21" s="84"/>
     </row>
-    <row r="22" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="85" t="s">
         <v>17</v>
       </c>
@@ -3170,266 +3179,332 @@
         <v>31</v>
       </c>
       <c r="G22" s="87">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H22" s="88">
         <v>0.6</v>
       </c>
       <c r="I22" s="89"/>
     </row>
-    <row r="23" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="90" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C23" s="91"/>
       <c r="D23" s="92">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E23" s="92">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="92">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G23" s="92">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" s="93">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="I23" s="94"/>
     </row>
-    <row r="24" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="91"/>
       <c r="D24" s="92">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="92">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="92">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="92">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H24" s="93">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I24" s="94"/>
     </row>
-    <row r="25" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="91"/>
       <c r="D25" s="92">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E25" s="92">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="92">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" s="92">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="93">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I25" s="94"/>
     </row>
-    <row r="26" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="95" t="s">
+    <row r="26" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92">
+        <v>40</v>
+      </c>
+      <c r="E26" s="92">
+        <v>15</v>
+      </c>
+      <c r="F26" s="92">
+        <v>40</v>
+      </c>
+      <c r="G26" s="92">
+        <v>16</v>
+      </c>
+      <c r="H26" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="94"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="97">
+      <c r="C27" s="96"/>
+      <c r="D27" s="97">
         <v>43</v>
       </c>
-      <c r="E26" s="97">
+      <c r="E27" s="97">
         <v>21</v>
       </c>
-      <c r="F26" s="97">
+      <c r="F27" s="97">
         <v>43</v>
       </c>
-      <c r="G26" s="97">
+      <c r="G27" s="97">
         <v>21</v>
       </c>
-      <c r="H26" s="98">
+      <c r="H27" s="98">
         <v>0.2</v>
       </c>
-      <c r="I26" s="99"/>
+      <c r="I27" s="99"/>
     </row>
-    <row r="27" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104">
-        <v>43</v>
-      </c>
-      <c r="E27" s="104">
-        <v>15</v>
-      </c>
-      <c r="F27" s="104">
-        <v>43</v>
-      </c>
-      <c r="G27" s="104">
-        <v>15</v>
-      </c>
-      <c r="H27" s="105">
-        <v>0</v>
-      </c>
-      <c r="I27" s="106"/>
-    </row>
-    <row r="28" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="102" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C28" s="103"/>
       <c r="D28" s="104">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E28" s="104">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F28" s="104">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G28" s="104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H28" s="105">
         <v>0</v>
       </c>
       <c r="I28" s="106"/>
     </row>
-    <row r="29" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="107" t="s">
+    <row r="29" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="103"/>
+      <c r="D29" s="104">
+        <v>34</v>
+      </c>
+      <c r="E29" s="104">
+        <v>23</v>
+      </c>
+      <c r="F29" s="104">
+        <v>34</v>
+      </c>
+      <c r="G29" s="104">
+        <v>23</v>
+      </c>
+      <c r="H29" s="105">
+        <v>0.7</v>
+      </c>
+      <c r="I29" s="106"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104">
+        <v>43</v>
+      </c>
+      <c r="E30" s="104">
+        <v>15</v>
+      </c>
+      <c r="F30" s="104">
+        <v>43</v>
+      </c>
+      <c r="G30" s="104">
+        <v>15</v>
+      </c>
+      <c r="H30" s="105">
+        <v>0.4</v>
+      </c>
+      <c r="I30" s="106"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="103"/>
+      <c r="D31" s="104">
+        <v>59</v>
+      </c>
+      <c r="E31" s="104">
+        <v>6</v>
+      </c>
+      <c r="F31" s="104">
+        <v>59</v>
+      </c>
+      <c r="G31" s="104">
+        <v>6</v>
+      </c>
+      <c r="H31" s="105">
+        <v>0.4</v>
+      </c>
+      <c r="I31" s="106"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="109">
+      <c r="C32" s="108"/>
+      <c r="D32" s="109">
         <v>83</v>
       </c>
-      <c r="E29" s="109">
+      <c r="E32" s="109">
         <v>10</v>
       </c>
-      <c r="F29" s="109">
+      <c r="F32" s="109">
         <v>83</v>
       </c>
-      <c r="G29" s="109">
+      <c r="G32" s="109">
         <v>1</v>
       </c>
-      <c r="H29" s="110">
+      <c r="H32" s="110">
         <v>0</v>
       </c>
-      <c r="I29" s="111"/>
-    </row>
-    <row r="30" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="112" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="114">
-        <v>84</v>
-      </c>
-      <c r="E30" s="114">
-        <v>18</v>
-      </c>
-      <c r="F30" s="114">
-        <v>84</v>
-      </c>
-      <c r="G30" s="114">
-        <v>1</v>
-      </c>
-      <c r="H30" s="115">
-        <v>0</v>
-      </c>
-      <c r="I30" s="116"/>
-    </row>
-    <row r="31" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="114">
-        <v>84</v>
-      </c>
-      <c r="E31" s="114">
-        <v>9</v>
-      </c>
-      <c r="F31" s="114">
-        <v>84</v>
-      </c>
-      <c r="G31" s="114">
-        <v>1</v>
-      </c>
-      <c r="H31" s="115">
-        <v>0</v>
-      </c>
-      <c r="I31" s="116"/>
-    </row>
-    <row r="32" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="114">
-        <v>84</v>
-      </c>
-      <c r="E32" s="114">
-        <v>18</v>
-      </c>
-      <c r="F32" s="114">
-        <v>84</v>
-      </c>
-      <c r="G32" s="114">
-        <v>1</v>
-      </c>
-      <c r="H32" s="115">
-        <v>0</v>
-      </c>
-      <c r="I32" s="116"/>
-      <c r="DF32" s="100"/>
+      <c r="I32" s="111"/>
     </row>
     <row r="33" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="113"/>
+      <c r="D33" s="114">
+        <v>84</v>
+      </c>
+      <c r="E33" s="114">
+        <v>18</v>
+      </c>
+      <c r="F33" s="114">
+        <v>84</v>
+      </c>
+      <c r="G33" s="114">
+        <v>1</v>
+      </c>
+      <c r="H33" s="115">
+        <v>0</v>
+      </c>
+      <c r="I33" s="116"/>
+    </row>
+    <row r="34" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="112" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="114">
+        <v>84</v>
+      </c>
+      <c r="E34" s="114">
+        <v>9</v>
+      </c>
+      <c r="F34" s="114">
+        <v>84</v>
+      </c>
+      <c r="G34" s="114">
+        <v>1</v>
+      </c>
+      <c r="H34" s="115">
+        <v>0</v>
+      </c>
+      <c r="I34" s="116"/>
+    </row>
+    <row r="35" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="118"/>
+      <c r="D35" s="114">
+        <v>84</v>
+      </c>
+      <c r="E35" s="114">
+        <v>18</v>
+      </c>
+      <c r="F35" s="114">
+        <v>84</v>
+      </c>
+      <c r="G35" s="114">
+        <v>1</v>
+      </c>
+      <c r="H35" s="115">
+        <v>0</v>
+      </c>
+      <c r="I35" s="116"/>
+      <c r="DF35" s="100"/>
+    </row>
+    <row r="36" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121">
+      <c r="C36" s="120"/>
+      <c r="D36" s="121">
         <v>84</v>
       </c>
-      <c r="E33" s="121">
+      <c r="E36" s="121">
         <v>18</v>
       </c>
-      <c r="F33" s="121">
+      <c r="F36" s="121">
         <v>84</v>
       </c>
-      <c r="G33" s="121">
+      <c r="G36" s="121">
         <v>1</v>
       </c>
-      <c r="H33" s="122">
+      <c r="H36" s="122">
         <v>0</v>
       </c>
-      <c r="I33" s="123"/>
-      <c r="DF33" s="100"/>
+      <c r="I36" s="123"/>
+      <c r="DF36" s="100"/>
     </row>
-    <row r="34" spans="2:110" x14ac:dyDescent="0.3">
-      <c r="DF34" s="101"/>
+    <row r="37" spans="2:110" x14ac:dyDescent="0.3">
+      <c r="DF37" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="DP33:DT33 J33:DL33 J6:DT31">
+  <conditionalFormatting sqref="DP36:DT36 J36:DL36 J6:DT34">
     <cfRule type="expression" dxfId="33" priority="172">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3455,7 +3530,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:DE34">
+  <conditionalFormatting sqref="B37:DE37">
     <cfRule type="expression" dxfId="25" priority="173">
       <formula>TRUE</formula>
     </cfRule>
@@ -3465,7 +3540,7 @@
       <formula>J$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DM33:DO33">
+  <conditionalFormatting sqref="DM36:DO36">
     <cfRule type="expression" dxfId="23" priority="26">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3491,7 +3566,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP32:DT32 J32:DL32">
+  <conditionalFormatting sqref="DP35:DT35 J35:DL35">
     <cfRule type="expression" dxfId="15" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3517,7 +3592,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DM32:DO32">
+  <conditionalFormatting sqref="DM35:DO35">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>

--- a/Fieldroid_Gantt.xlsx
+++ b/Fieldroid_Gantt.xlsx
@@ -100,12 +100,6 @@
     <t>IMU Integration</t>
   </si>
   <si>
-    <t>Case Design</t>
-  </si>
-  <si>
-    <t>Case Construction</t>
-  </si>
-  <si>
     <t>User Interface</t>
   </si>
   <si>
@@ -296,6 +290,12 @@
   </si>
   <si>
     <t>Mount All Parts</t>
+  </si>
+  <si>
+    <t>Paint Mini Field</t>
+  </si>
+  <si>
+    <t>Leica Integration</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1657,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="50"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="60"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1942,9 +1942,9 @@
   <dimension ref="A1:DT37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="9" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="I29" sqref="I29"/>
+      <selection pane="topRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1971,16 +1971,16 @@
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="H1" s="33" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>40</v>
       </c>
       <c r="I1" s="27"/>
     </row>
@@ -1989,16 +1989,16 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="21" t="s">
@@ -2009,7 +2009,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="22">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P2" s="7"/>
       <c r="R2" s="8"/>
@@ -2022,11 +2022,11 @@
       </c>
       <c r="Y2" s="10"/>
       <c r="Z2" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD2" s="12"/>
       <c r="AE2" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
@@ -2034,7 +2034,7 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AU2" s="8"/>
       <c r="AV2" s="23" t="s">
@@ -2049,14 +2049,14 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="10"/>
       <c r="BC2" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="12"/>
       <c r="BH2" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2064,7 +2064,7 @@
       <c r="BN2" s="1"/>
       <c r="BO2" s="9"/>
       <c r="BP2" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:124" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -2096,13 +2096,13 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
       <c r="X3" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
@@ -2110,46 +2110,46 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
       <c r="AE3" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL3" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AS3" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AX3" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BG3" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BN3" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BU3" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CB3" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="CI3" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CO3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="CR3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="CV3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="CR3" s="18" t="s">
+      <c r="DA3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="CV3" s="18" t="s">
+      <c r="DE3" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="DA3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="DE3" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:124" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>12</v>
       </c>
       <c r="CN4" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="CO4" s="16">
         <v>12</v>
@@ -2489,7 +2489,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
       <c r="H5" s="124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" s="124"/>
       <c r="J5" s="3">
@@ -2814,7 +2814,7 @@
     </row>
     <row r="6" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="40">
@@ -2968,7 +2968,7 @@
     </row>
     <row r="13" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="58">
@@ -2990,7 +2990,7 @@
     </row>
     <row r="14" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="52">
@@ -3012,7 +3012,7 @@
     </row>
     <row r="15" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="52">
@@ -3056,7 +3056,7 @@
     </row>
     <row r="17" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="70"/>
       <c r="D17" s="71">
@@ -3078,7 +3078,7 @@
     </row>
     <row r="18" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="76">
@@ -3122,7 +3122,7 @@
     </row>
     <row r="20" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="79">
@@ -3144,7 +3144,7 @@
     </row>
     <row r="21" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="82">
@@ -3179,16 +3179,16 @@
         <v>31</v>
       </c>
       <c r="G22" s="87">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H22" s="88">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I22" s="89"/>
     </row>
     <row r="23" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="90" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="91"/>
       <c r="D23" s="92">
@@ -3201,10 +3201,10 @@
         <v>45</v>
       </c>
       <c r="G23" s="92">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H23" s="93">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I23" s="94"/>
     </row>
@@ -3226,7 +3226,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="93">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I24" s="94"/>
     </row>
@@ -3258,25 +3258,25 @@
       </c>
       <c r="C26" s="91"/>
       <c r="D26" s="92">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="E26" s="92">
         <v>15</v>
       </c>
       <c r="F26" s="92">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G26" s="92">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="93">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="94"/>
     </row>
     <row r="27" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="95" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="96"/>
       <c r="D27" s="97">
@@ -3292,13 +3292,13 @@
         <v>21</v>
       </c>
       <c r="H27" s="98">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="99"/>
     </row>
     <row r="28" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="102" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="103"/>
       <c r="D28" s="104">
@@ -3311,16 +3311,16 @@
         <v>51</v>
       </c>
       <c r="G28" s="104">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H28" s="105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="106"/>
     </row>
     <row r="29" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="102" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="103"/>
       <c r="D29" s="104">
@@ -3336,13 +3336,13 @@
         <v>23</v>
       </c>
       <c r="H29" s="105">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I29" s="106"/>
     </row>
     <row r="30" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="102" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C30" s="103"/>
       <c r="D30" s="104">
@@ -3355,16 +3355,16 @@
         <v>43</v>
       </c>
       <c r="G30" s="104">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H30" s="105">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I30" s="106"/>
     </row>
     <row r="31" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="102" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C31" s="103"/>
       <c r="D31" s="104">
@@ -3386,7 +3386,7 @@
     </row>
     <row r="32" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" s="108"/>
       <c r="D32" s="109">
@@ -3408,7 +3408,7 @@
     </row>
     <row r="33" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="112" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" s="113"/>
       <c r="D33" s="114">
@@ -3430,7 +3430,7 @@
     </row>
     <row r="34" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="112" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" s="113"/>
       <c r="D34" s="114">
@@ -3452,7 +3452,7 @@
     </row>
     <row r="35" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="117" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="118"/>
       <c r="D35" s="114">
@@ -3475,7 +3475,7 @@
     </row>
     <row r="36" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="119" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="120"/>
       <c r="D36" s="121">

--- a/Fieldroid_Gantt.xlsx
+++ b/Fieldroid_Gantt.xlsx
@@ -7,19 +7,28 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
-    <sheet name="project" sheetId="1" r:id="rId1"/>
+    <sheet name="Spring" sheetId="3" r:id="rId1"/>
+    <sheet name="Fall" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Actual">(PeriodInActual*(project!$F1&gt;0))*PeriodInPlan</definedName>
-    <definedName name="ActualBeyond">PeriodInActual*(project!$F1&gt;0)</definedName>
+    <definedName name="Actual" localSheetId="0">(Spring!PeriodInActual*(Spring!$F1&gt;0))*Spring!PeriodInPlan</definedName>
+    <definedName name="Actual">(PeriodInActual*(Fall!$E1&gt;0))*PeriodInPlan</definedName>
+    <definedName name="ActualBeyond" localSheetId="0">Spring!PeriodInActual*(Spring!$F1&gt;0)</definedName>
+    <definedName name="ActualBeyond">PeriodInActual*(Fall!$E1&gt;0)</definedName>
+    <definedName name="PercentComplete" localSheetId="0">Spring!PercentCompleteBeyond*Spring!PeriodInPlan</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">(project!A$5=MEDIAN(project!A$5,project!$F1,project!$F1+project!$G1)*(project!$F1&gt;0))*((project!A$5&lt;(INT(project!$F1+project!$G1*project!$H1)))+(project!A$5=project!$F1))*(project!$H1&gt;0)</definedName>
-    <definedName name="period_selected">project!$O$2</definedName>
-    <definedName name="PeriodInActual">project!A$5=MEDIAN(project!A$5,project!$F1,project!$F1+project!$G1-1)</definedName>
-    <definedName name="PeriodInPlan">project!A$5=MEDIAN(project!A$5,project!$D1,project!$D1+project!$E1-1)</definedName>
-    <definedName name="Plan">PeriodInPlan*(project!$D1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond" localSheetId="0">(Spring!A$5=MEDIAN(Spring!A$5,Spring!$F1,Spring!$F1+Spring!$G1)*(Spring!$F1&gt;0))*((Spring!A$5&lt;(INT(Spring!$F1+Spring!$G1*Spring!$H1)))+(Spring!A$5=Spring!$F1))*(Spring!$H1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond">(Fall!A$5=MEDIAN(Fall!A$5,Fall!$E1,Fall!$E1+Fall!$F1)*(Fall!$E1&gt;0))*((Fall!A$5&lt;(INT(Fall!$E1+Fall!$F1*Fall!$G1)))+(Fall!A$5=Fall!$E1))*(Fall!$G1&gt;0)</definedName>
+    <definedName name="period_selected" localSheetId="0">Spring!$O$2</definedName>
+    <definedName name="period_selected">Fall!$M$2</definedName>
+    <definedName name="PeriodInActual" localSheetId="0">Spring!A$5=MEDIAN(Spring!A$5,Spring!$F1,Spring!$F1+Spring!$G1-1)</definedName>
+    <definedName name="PeriodInActual">Fall!A$5=MEDIAN(Fall!A$5,Fall!$E1,Fall!$E1+Fall!$F1-1)</definedName>
+    <definedName name="PeriodInPlan" localSheetId="0">Spring!A$5=MEDIAN(Spring!A$5,Spring!$D1,Spring!$D1+Spring!$E1-1)</definedName>
+    <definedName name="PeriodInPlan">Fall!A$5=MEDIAN(Fall!A$5,Fall!$C1,Fall!$C1+Fall!$D1-1)</definedName>
+    <definedName name="Plan" localSheetId="0">Spring!PeriodInPlan*(Spring!$D1&gt;0)</definedName>
+    <definedName name="Plan">PeriodInPlan*(Fall!$C1&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="117">
   <si>
     <t>Plan</t>
   </si>
@@ -296,6 +305,162 @@
   </si>
   <si>
     <t>Leica Integration</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>PR7</t>
+  </si>
+  <si>
+    <t>PR8</t>
+  </si>
+  <si>
+    <t>PR9</t>
+  </si>
+  <si>
+    <t>PR10</t>
+  </si>
+  <si>
+    <t>FSD</t>
+  </si>
+  <si>
+    <t>PR11</t>
+  </si>
+  <si>
+    <t>SDevR</t>
+  </si>
+  <si>
+    <t>J  a  n  u  a  r  y</t>
+  </si>
+  <si>
+    <t>F  e  b  r  u  a  r  y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M  a  r  c  h </t>
+  </si>
+  <si>
+    <t>A  p  r  i  l</t>
+  </si>
+  <si>
+    <t>Serial Communication w/ Motor Con.</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Paint on Grass</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Order new PCB, parts</t>
+  </si>
+  <si>
+    <t>Test Logistics</t>
+  </si>
+  <si>
+    <t>User App Basic GUI</t>
+  </si>
+  <si>
+    <t>App Bluetooth Comm</t>
+  </si>
+  <si>
+    <t>Consult PID Experts</t>
+  </si>
+  <si>
+    <t>2nd PCB Iteration Working</t>
+  </si>
+  <si>
+    <t>Derivative Control</t>
+  </si>
+  <si>
+    <t>Wobbly Bug Removal</t>
+  </si>
+  <si>
+    <t>Submit Last PCB Design</t>
+  </si>
+  <si>
+    <t>IMU Communication Dem</t>
+  </si>
+  <si>
+    <t>IMU Integration w/ Software System</t>
+  </si>
+  <si>
+    <t>Smooth Velocity</t>
+  </si>
+  <si>
+    <t>Start on Boot with Switch</t>
+  </si>
+  <si>
+    <t>Beagle Bone Controlled with App</t>
+  </si>
+  <si>
+    <t>Wireless E-Stop</t>
+  </si>
+  <si>
+    <t>Integrate Last PCB Design</t>
+  </si>
+  <si>
+    <t>Full Field Outline</t>
+  </si>
+  <si>
+    <t>Outdoors Testing</t>
+  </si>
+  <si>
+    <t>Testing/Validation</t>
+  </si>
+  <si>
+    <t>Cleaner App Interface</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Final Case Design</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Test/Validation</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>FSDE</t>
+  </si>
+  <si>
+    <t>Case Design Iteration 1 and Printed</t>
+  </si>
+  <si>
+    <t>Case Design Iteration 2 and Printed</t>
   </si>
 </sst>
 </file>
@@ -557,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -732,6 +897,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -757,7 +944,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,9 +1062,6 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -887,9 +1071,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,21 +1080,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="8" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,9 +1101,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,9 +1119,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -968,9 +1134,6 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -983,9 +1146,6 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1001,9 +1161,6 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1016,9 +1173,6 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,9 +1185,6 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,9 +1197,6 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1067,9 +1215,6 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1082,9 +1227,6 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1097,30 +1239,18 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="2" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="2" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1133,8 +1263,287 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="7" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="7" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="7" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="4" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="4" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="11" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="11" borderId="4" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="11" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="15" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="15" borderId="4" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="15" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="13" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="13" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="13" borderId="4" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="13" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="12" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="15" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1147,7 +1556,7 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="52">
     <dxf>
       <fill>
         <patternFill>
@@ -1629,6 +2038,261 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor rgb="FFAF1E2D"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor rgb="FFEAAF0F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003082"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00824A"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor rgb="FFAF1E2D"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor rgb="FFEAAF0F"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF003082"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00824A"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1657,6 +2321,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="60"/>
 </file>
 
@@ -1673,6 +2341,58 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Spinner 1" descr="Period Highlight Spin Control" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
@@ -1939,25 +2659,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DT37"/>
+  <dimension ref="A1:DT33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B35" sqref="B35"/>
+      <selection pane="topRight" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.25" style="1" customWidth="1"/>
     <col min="10" max="29" width="2.375" style="1" customWidth="1"/>
     <col min="30" max="92" width="2.375" customWidth="1"/>
     <col min="109" max="109" width="3.5" bestFit="1" customWidth="1"/>
@@ -1965,66 +2685,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="198" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="28" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:124" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="125"/>
+      <c r="B2" s="198"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="30" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>114</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="22">
-        <v>60</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="R2" s="8"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="122">
+        <v>1</v>
+      </c>
+      <c r="P2" s="121"/>
+      <c r="R2" s="123"/>
       <c r="S2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="11"/>
+      <c r="U2" s="124"/>
       <c r="V2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="10"/>
+      <c r="Y2" s="125"/>
       <c r="Z2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="12"/>
+      <c r="AD2" s="132"/>
       <c r="AE2" s="24" t="s">
         <v>27</v>
       </c>
@@ -2032,29 +2752,29 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="9"/>
+      <c r="AL2" s="133"/>
       <c r="AM2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="8"/>
+      <c r="AU2" s="123"/>
       <c r="AV2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="11"/>
+      <c r="AX2" s="124"/>
       <c r="AY2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="10"/>
+      <c r="BB2" s="125"/>
       <c r="BC2" s="24" t="s">
         <v>26</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="12"/>
+      <c r="BG2" s="132"/>
       <c r="BH2" s="24" t="s">
         <v>27</v>
       </c>
@@ -2062,7 +2782,7 @@
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
-      <c r="BO2" s="9"/>
+      <c r="BO2" s="133"/>
       <c r="BP2" s="24" t="s">
         <v>28</v>
       </c>
@@ -2086,70 +2806,280 @@
         <v>6</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14" t="s">
+      <c r="J3" s="166" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AE3" s="18" t="s">
+      <c r="R3" s="168" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="167" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="167" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="168" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="168" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="18" t="s">
+      <c r="Y3" s="168" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="168" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="168" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="169" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="171" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="172"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="172" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK3" s="172" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="AS3" s="18" t="s">
+      <c r="AM3" s="172" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN3" s="172" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO3" s="172" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP3" s="173" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ3" s="174" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR3" s="175" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS3" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="AX3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG3" s="18" t="s">
+      <c r="AT3" s="175" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU3" s="175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV3" s="175" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW3" s="175" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX3" s="175" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY3" s="175" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="BN3" s="18" t="s">
+      <c r="BA3" s="175" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB3" s="175" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC3" s="175" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD3" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE3" s="187"/>
+      <c r="BF3" s="188" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG3" s="188"/>
+      <c r="BH3" s="188"/>
+      <c r="BI3" s="189"/>
+      <c r="BJ3" s="177" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK3" s="178" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL3" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM3" s="178" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN3" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="BU3" s="18" t="s">
+      <c r="BO3" s="178" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP3" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ3" s="178" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR3" s="178" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS3" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT3" s="178" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU3" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="CB3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="CI3" s="18" t="s">
+      <c r="BV3" s="178" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW3" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX3" s="178" t="s">
+        <v>67</v>
+      </c>
+      <c r="BY3" s="179" t="s">
+        <v>68</v>
+      </c>
+      <c r="BZ3" s="180" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA3" s="181" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB3" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="CO3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="CR3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="CV3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="DA3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="DE3" s="18" t="s">
-        <v>54</v>
+      <c r="CC3" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="CD3" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="CE3" s="181" t="s">
+        <v>67</v>
+      </c>
+      <c r="CF3" s="181" t="s">
+        <v>68</v>
+      </c>
+      <c r="CG3" s="181" t="s">
+        <v>69</v>
+      </c>
+      <c r="CH3" s="181" t="s">
+        <v>70</v>
+      </c>
+      <c r="CI3" s="181" t="s">
+        <v>44</v>
+      </c>
+      <c r="CJ3" s="181"/>
+      <c r="CK3" s="181" t="s">
+        <v>81</v>
+      </c>
+      <c r="CL3" s="181"/>
+      <c r="CM3" s="181"/>
+      <c r="CN3" s="181"/>
+      <c r="CO3" s="181" t="s">
+        <v>70</v>
+      </c>
+      <c r="CP3" s="181" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ3" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="CR3" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="CS3" s="181" t="s">
+        <v>67</v>
+      </c>
+      <c r="CT3" s="181" t="s">
+        <v>68</v>
+      </c>
+      <c r="CU3" s="181" t="s">
+        <v>69</v>
+      </c>
+      <c r="CV3" s="181" t="s">
+        <v>70</v>
+      </c>
+      <c r="CW3" s="181" t="s">
+        <v>44</v>
+      </c>
+      <c r="CX3" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="CY3" s="182" t="s">
+        <v>66</v>
+      </c>
+      <c r="CZ3" s="183" t="s">
+        <v>67</v>
+      </c>
+      <c r="DA3" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="DB3" s="184" t="s">
+        <v>69</v>
+      </c>
+      <c r="DC3" s="184" t="s">
+        <v>70</v>
+      </c>
+      <c r="DD3" s="184" t="s">
+        <v>44</v>
+      </c>
+      <c r="DE3" s="184" t="s">
+        <v>65</v>
+      </c>
+      <c r="DF3" s="184" t="s">
+        <v>66</v>
+      </c>
+      <c r="DG3" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="DH3" s="185" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:124" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2157,7 +3087,9 @@
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
@@ -2174,312 +3106,316 @@
         <v>7</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="13">
+      <c r="J4" s="126">
+        <v>12</v>
+      </c>
+      <c r="K4" s="127">
+        <v>13</v>
+      </c>
+      <c r="L4" s="127">
+        <v>14</v>
+      </c>
+      <c r="M4" s="127">
+        <v>15</v>
+      </c>
+      <c r="N4" s="127">
+        <v>16</v>
+      </c>
+      <c r="O4" s="127">
+        <v>17</v>
+      </c>
+      <c r="P4" s="127">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="127">
+        <v>19</v>
+      </c>
+      <c r="R4" s="127">
+        <v>20</v>
+      </c>
+      <c r="S4" s="127">
+        <v>21</v>
+      </c>
+      <c r="T4" s="127">
         <v>22</v>
       </c>
-      <c r="K4" s="13">
+      <c r="U4" s="127">
         <v>23</v>
       </c>
-      <c r="L4" s="14">
+      <c r="V4" s="127">
         <v>24</v>
       </c>
-      <c r="M4" s="15">
+      <c r="W4" s="127">
         <v>25</v>
       </c>
-      <c r="N4" s="15">
+      <c r="X4" s="127">
         <v>26</v>
       </c>
-      <c r="O4" s="15">
+      <c r="Y4" s="127">
         <v>27</v>
       </c>
-      <c r="P4" s="15">
+      <c r="Z4" s="127">
         <v>28</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="AA4" s="127">
         <v>29</v>
       </c>
-      <c r="R4" s="15">
+      <c r="AB4" s="128">
         <v>30</v>
       </c>
-      <c r="S4" s="15">
+      <c r="AC4" s="134">
+        <v>31</v>
+      </c>
+      <c r="AD4" s="135">
         <v>1</v>
       </c>
-      <c r="T4" s="15">
+      <c r="AE4" s="135">
         <v>2</v>
       </c>
-      <c r="U4" s="15">
+      <c r="AF4" s="135">
         <v>3</v>
       </c>
-      <c r="V4" s="15">
+      <c r="AG4" s="135">
         <v>4</v>
       </c>
-      <c r="W4" s="15">
+      <c r="AH4" s="135">
         <v>5</v>
       </c>
-      <c r="X4" s="15">
+      <c r="AI4" s="135">
         <v>6</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="AJ4" s="135">
         <v>7</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="AK4" s="135">
         <v>8</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AL4" s="135">
         <v>9</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AM4" s="135">
         <v>10</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AN4" s="135">
         <v>11</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AO4" s="135">
         <v>12</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AP4" s="136">
         <v>13</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AQ4" s="140">
         <v>14</v>
       </c>
-      <c r="AG4" s="15">
+      <c r="AR4" s="141">
         <v>15</v>
       </c>
-      <c r="AH4" s="15">
+      <c r="AS4" s="141">
         <v>16</v>
       </c>
-      <c r="AI4" s="15">
+      <c r="AT4" s="141">
         <v>17</v>
       </c>
-      <c r="AJ4" s="15">
+      <c r="AU4" s="141">
         <v>18</v>
       </c>
-      <c r="AK4" s="15">
+      <c r="AV4" s="141">
         <v>19</v>
       </c>
-      <c r="AL4" s="15">
+      <c r="AW4" s="141">
         <v>20</v>
       </c>
-      <c r="AM4" s="15">
+      <c r="AX4" s="141">
         <v>21</v>
       </c>
-      <c r="AN4" s="15">
+      <c r="AY4" s="141">
         <v>22</v>
       </c>
-      <c r="AO4" s="15">
+      <c r="AZ4" s="141">
         <v>23</v>
       </c>
-      <c r="AP4" s="15">
+      <c r="BA4" s="141">
         <v>24</v>
       </c>
-      <c r="AQ4" s="15">
+      <c r="BB4" s="141">
         <v>25</v>
       </c>
-      <c r="AR4" s="15">
+      <c r="BC4" s="141">
         <v>26</v>
       </c>
-      <c r="AS4" s="15">
+      <c r="BD4" s="142">
         <v>27</v>
       </c>
-      <c r="AT4" s="15">
+      <c r="BE4" s="190">
         <v>28</v>
       </c>
-      <c r="AU4" s="15">
+      <c r="BF4" s="191">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="191">
+        <v>2</v>
+      </c>
+      <c r="BH4" s="191">
+        <v>3</v>
+      </c>
+      <c r="BI4" s="192">
+        <v>4</v>
+      </c>
+      <c r="BJ4" s="146">
+        <v>5</v>
+      </c>
+      <c r="BK4" s="147">
+        <v>6</v>
+      </c>
+      <c r="BL4" s="147">
+        <v>7</v>
+      </c>
+      <c r="BM4" s="147">
+        <v>8</v>
+      </c>
+      <c r="BN4" s="147">
+        <v>9</v>
+      </c>
+      <c r="BO4" s="147">
+        <v>10</v>
+      </c>
+      <c r="BP4" s="147">
+        <v>11</v>
+      </c>
+      <c r="BQ4" s="147">
+        <v>12</v>
+      </c>
+      <c r="BR4" s="147">
+        <v>13</v>
+      </c>
+      <c r="BS4" s="147">
+        <v>14</v>
+      </c>
+      <c r="BT4" s="147">
+        <v>15</v>
+      </c>
+      <c r="BU4" s="147">
+        <v>16</v>
+      </c>
+      <c r="BV4" s="147">
+        <v>17</v>
+      </c>
+      <c r="BW4" s="147">
+        <v>18</v>
+      </c>
+      <c r="BX4" s="147">
+        <v>19</v>
+      </c>
+      <c r="BY4" s="148">
+        <v>20</v>
+      </c>
+      <c r="BZ4" s="152">
+        <v>21</v>
+      </c>
+      <c r="CA4" s="153">
+        <v>22</v>
+      </c>
+      <c r="CB4" s="153">
+        <v>23</v>
+      </c>
+      <c r="CC4" s="153">
+        <v>24</v>
+      </c>
+      <c r="CD4" s="153">
+        <v>25</v>
+      </c>
+      <c r="CE4" s="153">
+        <v>26</v>
+      </c>
+      <c r="CF4" s="153">
+        <v>27</v>
+      </c>
+      <c r="CG4" s="153">
+        <v>28</v>
+      </c>
+      <c r="CH4" s="153">
         <v>29</v>
       </c>
-      <c r="AV4" s="15">
+      <c r="CI4" s="153">
         <v>30</v>
       </c>
-      <c r="AW4" s="15">
+      <c r="CJ4" s="153">
         <v>31</v>
       </c>
-      <c r="AX4" s="16">
+      <c r="CK4" s="153">
         <v>1</v>
       </c>
-      <c r="AY4" s="16">
+      <c r="CL4" s="153">
         <v>2</v>
       </c>
-      <c r="AZ4" s="16">
+      <c r="CM4" s="153">
         <v>3</v>
       </c>
-      <c r="BA4" s="16">
+      <c r="CN4" s="154">
         <v>4</v>
       </c>
-      <c r="BB4" s="16">
+      <c r="CO4" s="153">
         <v>5</v>
       </c>
-      <c r="BC4" s="16">
+      <c r="CP4" s="153">
         <v>6</v>
       </c>
-      <c r="BD4" s="16">
+      <c r="CQ4" s="153">
         <v>7</v>
       </c>
-      <c r="BE4" s="16">
+      <c r="CR4" s="154">
         <v>8</v>
       </c>
-      <c r="BF4" s="16">
+      <c r="CS4" s="153">
         <v>9</v>
       </c>
-      <c r="BG4" s="16">
+      <c r="CT4" s="153">
         <v>10</v>
       </c>
-      <c r="BH4" s="16">
+      <c r="CU4" s="153">
         <v>11</v>
       </c>
-      <c r="BI4" s="16">
+      <c r="CV4" s="154">
         <v>12</v>
       </c>
-      <c r="BJ4" s="16">
+      <c r="CW4" s="153">
         <v>13</v>
       </c>
-      <c r="BK4" s="16">
+      <c r="CX4" s="153">
         <v>14</v>
       </c>
-      <c r="BL4" s="16">
+      <c r="CY4" s="155">
         <v>15</v>
       </c>
-      <c r="BM4" s="16">
+      <c r="CZ4" s="159">
         <v>16</v>
       </c>
-      <c r="BN4" s="16">
+      <c r="DA4" s="160">
         <v>17</v>
       </c>
-      <c r="BO4" s="16">
+      <c r="DB4" s="160">
         <v>18</v>
       </c>
-      <c r="BP4" s="16">
+      <c r="DC4" s="160">
         <v>19</v>
       </c>
-      <c r="BQ4" s="16">
+      <c r="DD4" s="161">
         <v>20</v>
       </c>
-      <c r="BR4" s="16">
+      <c r="DE4" s="160">
         <v>21</v>
       </c>
-      <c r="BS4" s="16">
+      <c r="DF4" s="160">
         <v>22</v>
       </c>
-      <c r="BT4" s="16">
+      <c r="DG4" s="160">
         <v>23</v>
       </c>
-      <c r="BU4" s="16">
+      <c r="DH4" s="162">
         <v>24</v>
       </c>
-      <c r="BV4" s="16">
-        <v>25</v>
-      </c>
-      <c r="BW4" s="16">
-        <v>26</v>
-      </c>
-      <c r="BX4" s="16">
-        <v>27</v>
-      </c>
-      <c r="BY4" s="16">
-        <v>28</v>
-      </c>
-      <c r="BZ4" s="16">
-        <v>29</v>
-      </c>
-      <c r="CA4" s="16">
-        <v>30</v>
-      </c>
-      <c r="CB4" s="16">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="16">
-        <v>2</v>
-      </c>
-      <c r="CD4" s="16">
-        <v>3</v>
-      </c>
-      <c r="CE4" s="16">
-        <v>4</v>
-      </c>
-      <c r="CF4" s="16">
-        <v>5</v>
-      </c>
-      <c r="CG4" s="16">
-        <v>6</v>
-      </c>
-      <c r="CH4" s="16">
-        <v>7</v>
-      </c>
-      <c r="CI4" s="16">
-        <v>8</v>
-      </c>
-      <c r="CJ4" s="16">
-        <v>9</v>
-      </c>
-      <c r="CK4" s="16">
-        <v>10</v>
-      </c>
-      <c r="CL4" s="16">
-        <v>11</v>
-      </c>
-      <c r="CM4" s="16">
-        <v>12</v>
-      </c>
-      <c r="CN4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="CO4" s="16">
-        <v>12</v>
-      </c>
-      <c r="CP4" s="16">
-        <v>19</v>
-      </c>
-      <c r="CQ4" s="16">
-        <v>26</v>
-      </c>
-      <c r="CR4" s="16">
-        <v>2</v>
-      </c>
-      <c r="CS4" s="16">
-        <v>9</v>
-      </c>
-      <c r="CT4" s="16">
-        <v>16</v>
-      </c>
-      <c r="CU4" s="16">
-        <v>23</v>
-      </c>
-      <c r="CV4" s="16">
-        <v>2</v>
-      </c>
-      <c r="CW4" s="16">
-        <v>9</v>
-      </c>
-      <c r="CX4" s="16">
-        <v>16</v>
-      </c>
-      <c r="CY4" s="16">
-        <v>23</v>
-      </c>
-      <c r="CZ4" s="16">
-        <v>30</v>
-      </c>
-      <c r="DA4" s="16">
-        <v>6</v>
-      </c>
-      <c r="DB4" s="16">
-        <v>13</v>
-      </c>
-      <c r="DC4" s="16">
-        <v>20</v>
-      </c>
-      <c r="DD4" s="16">
-        <v>27</v>
-      </c>
-      <c r="DE4" s="16">
-        <v>4</v>
-      </c>
-      <c r="DF4" s="16">
-        <v>11</v>
-      </c>
-      <c r="DG4" s="16">
-        <v>18</v>
-      </c>
+      <c r="DL4" s="20"/>
     </row>
     <row r="5" spans="1:124" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="34"/>
@@ -2488,317 +3424,319 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="124"/>
-      <c r="J5" s="3">
+      <c r="I5" s="199"/>
+      <c r="J5" s="129">
         <v>1</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="130">
         <v>2</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="130">
         <v>3</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="130">
         <v>4</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="130">
         <v>5</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="130">
         <v>6</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="130">
         <v>7</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="130">
         <v>8</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="130">
         <v>9</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="130">
         <v>10</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="130">
         <v>11</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="130">
         <v>12</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="130">
         <v>13</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="130">
         <v>14</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="130">
         <v>15</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="130">
         <v>16</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="130">
         <v>17</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="130">
         <v>18</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="131">
         <v>19</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="137">
         <v>20</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="138">
         <v>21</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AE5" s="138">
         <v>22</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AF5" s="138">
         <v>23</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AG5" s="138">
         <v>24</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AH5" s="138">
         <v>25</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="138">
         <v>26</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AJ5" s="138">
         <v>27</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AK5" s="138">
         <v>28</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AL5" s="138">
         <v>29</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AM5" s="138">
         <v>30</v>
       </c>
-      <c r="AN5" s="3">
+      <c r="AN5" s="138">
         <v>31</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="138">
         <v>32</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AP5" s="139">
         <v>33</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ5" s="143">
         <v>34</v>
       </c>
-      <c r="AR5" s="3">
+      <c r="AR5" s="144">
         <v>35</v>
       </c>
-      <c r="AS5" s="3">
+      <c r="AS5" s="144">
         <v>36</v>
       </c>
-      <c r="AT5" s="3">
+      <c r="AT5" s="144">
         <v>37</v>
       </c>
-      <c r="AU5" s="3">
+      <c r="AU5" s="144">
         <v>38</v>
       </c>
-      <c r="AV5" s="3">
+      <c r="AV5" s="144">
         <v>39</v>
       </c>
-      <c r="AW5" s="3">
+      <c r="AW5" s="144">
         <v>40</v>
       </c>
-      <c r="AX5" s="3">
+      <c r="AX5" s="144">
         <v>41</v>
       </c>
-      <c r="AY5" s="3">
+      <c r="AY5" s="144">
         <v>42</v>
       </c>
-      <c r="AZ5" s="3">
+      <c r="AZ5" s="144">
         <v>43</v>
       </c>
-      <c r="BA5" s="3">
+      <c r="BA5" s="144">
         <v>44</v>
       </c>
-      <c r="BB5" s="3">
+      <c r="BB5" s="144">
         <v>45</v>
       </c>
-      <c r="BC5" s="3">
+      <c r="BC5" s="144">
         <v>46</v>
       </c>
-      <c r="BD5" s="3">
+      <c r="BD5" s="145">
         <v>47</v>
       </c>
-      <c r="BE5" s="3">
+      <c r="BE5" s="193">
         <v>48</v>
       </c>
-      <c r="BF5" s="3">
+      <c r="BF5" s="194">
         <v>49</v>
       </c>
-      <c r="BG5" s="3">
+      <c r="BG5" s="194">
         <v>50</v>
       </c>
-      <c r="BH5" s="3">
+      <c r="BH5" s="194">
         <v>51</v>
       </c>
-      <c r="BI5" s="3">
+      <c r="BI5" s="195">
         <v>52</v>
       </c>
-      <c r="BJ5" s="3">
+      <c r="BJ5" s="149">
         <v>53</v>
       </c>
-      <c r="BK5" s="3">
+      <c r="BK5" s="150">
         <v>54</v>
       </c>
-      <c r="BL5" s="3">
+      <c r="BL5" s="150">
         <v>55</v>
       </c>
-      <c r="BM5" s="3">
+      <c r="BM5" s="150">
         <v>56</v>
       </c>
-      <c r="BN5" s="3">
+      <c r="BN5" s="150">
         <v>57</v>
       </c>
-      <c r="BO5" s="3">
+      <c r="BO5" s="150">
         <v>58</v>
       </c>
-      <c r="BP5" s="3">
+      <c r="BP5" s="150">
         <v>59</v>
       </c>
-      <c r="BQ5" s="3">
+      <c r="BQ5" s="150">
         <v>60</v>
       </c>
-      <c r="BR5" s="3">
+      <c r="BR5" s="150">
         <v>61</v>
       </c>
-      <c r="BS5" s="3">
+      <c r="BS5" s="150">
         <v>62</v>
       </c>
-      <c r="BT5" s="3">
+      <c r="BT5" s="150">
         <v>63</v>
       </c>
-      <c r="BU5" s="3">
+      <c r="BU5" s="150">
         <v>64</v>
       </c>
-      <c r="BV5" s="3">
+      <c r="BV5" s="150">
         <v>65</v>
       </c>
-      <c r="BW5" s="3">
+      <c r="BW5" s="150">
         <v>66</v>
       </c>
-      <c r="BX5" s="3">
+      <c r="BX5" s="150">
         <v>67</v>
       </c>
-      <c r="BY5" s="3">
+      <c r="BY5" s="151">
         <v>68</v>
       </c>
-      <c r="BZ5" s="3">
+      <c r="BZ5" s="156">
         <v>69</v>
       </c>
-      <c r="CA5" s="3">
+      <c r="CA5" s="157">
         <v>70</v>
       </c>
-      <c r="CB5" s="3">
+      <c r="CB5" s="157">
         <v>71</v>
       </c>
-      <c r="CC5" s="3">
+      <c r="CC5" s="157">
         <v>72</v>
       </c>
-      <c r="CD5" s="3">
+      <c r="CD5" s="157">
         <v>73</v>
       </c>
-      <c r="CE5" s="3">
+      <c r="CE5" s="157">
         <v>74</v>
       </c>
-      <c r="CF5" s="3">
+      <c r="CF5" s="157">
         <v>75</v>
       </c>
-      <c r="CG5" s="3">
+      <c r="CG5" s="157">
         <v>76</v>
       </c>
-      <c r="CH5" s="3">
+      <c r="CH5" s="157">
         <v>77</v>
       </c>
-      <c r="CI5" s="3">
+      <c r="CI5" s="157">
         <v>78</v>
       </c>
-      <c r="CJ5" s="3">
+      <c r="CJ5" s="157">
         <v>79</v>
       </c>
-      <c r="CK5" s="3">
+      <c r="CK5" s="157">
         <v>80</v>
       </c>
-      <c r="CL5" s="3">
+      <c r="CL5" s="157">
         <v>81</v>
       </c>
-      <c r="CM5" s="3">
+      <c r="CM5" s="157">
         <v>82</v>
       </c>
-      <c r="CN5" s="3">
+      <c r="CN5" s="157">
         <v>83</v>
       </c>
-      <c r="CO5" s="3">
+      <c r="CO5" s="157">
         <v>84</v>
       </c>
-      <c r="CP5" s="3">
+      <c r="CP5" s="157">
         <v>85</v>
       </c>
-      <c r="CQ5" s="3">
+      <c r="CQ5" s="157">
         <v>86</v>
       </c>
-      <c r="CR5" s="3">
+      <c r="CR5" s="157">
         <v>87</v>
       </c>
-      <c r="CS5" s="3">
+      <c r="CS5" s="157">
         <v>88</v>
       </c>
-      <c r="CT5" s="3">
+      <c r="CT5" s="157">
         <v>89</v>
       </c>
-      <c r="CU5" s="3">
+      <c r="CU5" s="157">
         <v>90</v>
       </c>
-      <c r="CV5" s="3">
+      <c r="CV5" s="157">
         <v>91</v>
       </c>
-      <c r="CW5" s="3">
+      <c r="CW5" s="157">
         <v>92</v>
       </c>
-      <c r="CX5" s="3">
+      <c r="CX5" s="157">
         <v>93</v>
       </c>
-      <c r="CY5" s="3">
+      <c r="CY5" s="158">
         <v>94</v>
       </c>
-      <c r="CZ5" s="3">
+      <c r="CZ5" s="163">
         <v>95</v>
       </c>
-      <c r="DA5" s="3">
+      <c r="DA5" s="164">
         <v>96</v>
       </c>
-      <c r="DB5" s="3">
+      <c r="DB5" s="164">
         <v>97</v>
       </c>
-      <c r="DC5" s="3">
+      <c r="DC5" s="164">
         <v>98</v>
       </c>
-      <c r="DD5" s="3">
+      <c r="DD5" s="164">
         <v>99</v>
       </c>
-      <c r="DE5" s="3">
+      <c r="DE5" s="164">
         <v>100</v>
       </c>
-      <c r="DF5" s="3">
+      <c r="DF5" s="164">
         <v>101</v>
       </c>
-      <c r="DG5" s="3">
+      <c r="DG5" s="164">
         <v>102</v>
       </c>
-      <c r="DH5" s="3"/>
+      <c r="DH5" s="165">
+        <v>103</v>
+      </c>
       <c r="DI5" s="3"/>
       <c r="DJ5" s="3"/>
       <c r="DK5" s="3"/>
@@ -2814,697 +3752,2251 @@
     </row>
     <row r="6" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40">
+        <v>82</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="39">
         <v>1</v>
       </c>
-      <c r="E6" s="40">
-        <v>5</v>
-      </c>
-      <c r="F6" s="40">
+      <c r="E6" s="39">
+        <v>12</v>
+      </c>
+      <c r="F6" s="39">
         <v>1</v>
       </c>
-      <c r="G6" s="40">
-        <v>5</v>
-      </c>
-      <c r="H6" s="41">
-        <v>1</v>
-      </c>
-      <c r="I6" s="42"/>
+      <c r="G6" s="39">
+        <v>12</v>
+      </c>
+      <c r="H6" s="40">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44">
+        <v>89</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="42">
         <v>1</v>
       </c>
-      <c r="E7" s="44">
-        <v>10</v>
-      </c>
-      <c r="F7" s="44">
-        <v>3</v>
-      </c>
-      <c r="G7" s="44">
-        <v>10</v>
-      </c>
-      <c r="H7" s="45">
+      <c r="E7" s="42">
+        <v>8</v>
+      </c>
+      <c r="F7" s="42">
         <v>1</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="G7" s="42">
+        <v>8</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0</v>
+      </c>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44">
-        <v>2</v>
-      </c>
-      <c r="E8" s="44">
-        <v>9</v>
-      </c>
-      <c r="F8" s="44">
-        <v>4</v>
-      </c>
-      <c r="G8" s="44">
-        <v>7</v>
-      </c>
-      <c r="H8" s="45">
+        <v>98</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="42">
         <v>1</v>
       </c>
-      <c r="I8" s="46"/>
+      <c r="E8" s="42">
+        <v>19</v>
+      </c>
+      <c r="F8" s="42">
+        <v>1</v>
+      </c>
+      <c r="G8" s="42">
+        <v>19</v>
+      </c>
+      <c r="H8" s="43">
+        <v>0</v>
+      </c>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="42">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42">
+        <v>10</v>
+      </c>
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42">
+        <v>10</v>
+      </c>
+      <c r="H9" s="43">
+        <v>0</v>
+      </c>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="1:124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="42">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42">
+        <v>10</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42">
+        <v>10</v>
+      </c>
+      <c r="H10" s="43">
+        <v>0</v>
+      </c>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="42">
+        <v>1</v>
+      </c>
+      <c r="E11" s="42">
+        <v>15</v>
+      </c>
+      <c r="F11" s="42">
+        <v>1</v>
+      </c>
+      <c r="G11" s="42">
+        <v>15</v>
+      </c>
+      <c r="H11" s="43">
+        <v>0</v>
+      </c>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="52">
+        <v>11</v>
+      </c>
+      <c r="E12" s="52">
+        <v>23</v>
+      </c>
+      <c r="F12" s="52">
+        <v>11</v>
+      </c>
+      <c r="G12" s="52">
+        <v>23</v>
+      </c>
+      <c r="H12" s="53">
+        <v>0</v>
+      </c>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="47">
+        <v>11</v>
+      </c>
+      <c r="E13" s="47">
+        <v>15</v>
+      </c>
+      <c r="F13" s="47">
+        <v>11</v>
+      </c>
+      <c r="G13" s="47">
+        <v>15</v>
+      </c>
+      <c r="H13" s="48">
+        <v>0</v>
+      </c>
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="47">
+        <v>16</v>
+      </c>
+      <c r="E14" s="47">
+        <v>14</v>
+      </c>
+      <c r="F14" s="47">
+        <v>16</v>
+      </c>
+      <c r="G14" s="47">
+        <v>14</v>
+      </c>
+      <c r="H14" s="48">
+        <v>0</v>
+      </c>
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="47">
+        <v>15</v>
+      </c>
+      <c r="E15" s="47">
+        <v>19</v>
+      </c>
+      <c r="F15" s="47">
+        <v>15</v>
+      </c>
+      <c r="G15" s="47">
+        <v>19</v>
+      </c>
+      <c r="H15" s="48">
+        <v>0</v>
+      </c>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="16" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="47">
+        <v>25</v>
+      </c>
+      <c r="E16" s="47">
+        <v>9</v>
+      </c>
+      <c r="F16" s="47">
+        <v>25</v>
+      </c>
+      <c r="G16" s="47">
+        <v>9</v>
+      </c>
+      <c r="H16" s="48">
+        <v>0</v>
+      </c>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="47">
+        <v>20</v>
+      </c>
+      <c r="E17" s="47">
+        <v>9</v>
+      </c>
+      <c r="F17" s="47">
+        <v>20</v>
+      </c>
+      <c r="G17" s="47">
+        <v>9</v>
+      </c>
+      <c r="H17" s="48">
+        <v>0</v>
+      </c>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="58">
+        <v>11</v>
+      </c>
+      <c r="E18" s="59">
+        <v>23</v>
+      </c>
+      <c r="F18" s="59">
+        <v>11</v>
+      </c>
+      <c r="G18" s="59">
+        <v>23</v>
+      </c>
+      <c r="H18" s="60">
+        <v>0</v>
+      </c>
+      <c r="I18" s="61"/>
+    </row>
+    <row r="19" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="63">
+        <v>5</v>
+      </c>
+      <c r="E19" s="63">
+        <v>43</v>
+      </c>
+      <c r="F19" s="63">
+        <v>5</v>
+      </c>
+      <c r="G19" s="63">
+        <v>43</v>
+      </c>
+      <c r="H19" s="68">
+        <v>0</v>
+      </c>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="67">
+        <v>30</v>
+      </c>
+      <c r="E20" s="67">
+        <v>18</v>
+      </c>
+      <c r="F20" s="67">
+        <v>30</v>
+      </c>
+      <c r="G20" s="67">
+        <v>18</v>
+      </c>
+      <c r="H20" s="68">
+        <v>0</v>
+      </c>
+      <c r="I20" s="69"/>
+    </row>
+    <row r="21" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="67">
+        <v>26</v>
+      </c>
+      <c r="E21" s="67">
+        <v>22</v>
+      </c>
+      <c r="F21" s="67">
+        <v>26</v>
+      </c>
+      <c r="G21" s="67">
+        <v>22</v>
+      </c>
+      <c r="H21" s="68">
+        <v>0</v>
+      </c>
+      <c r="I21" s="69"/>
+    </row>
+    <row r="22" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="67">
+        <v>26</v>
+      </c>
+      <c r="E22" s="67">
+        <v>22</v>
+      </c>
+      <c r="F22" s="67">
+        <v>26</v>
+      </c>
+      <c r="G22" s="67">
+        <v>22</v>
+      </c>
+      <c r="H22" s="68">
+        <v>0</v>
+      </c>
+      <c r="I22" s="69"/>
+    </row>
+    <row r="23" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="70">
+        <v>10</v>
+      </c>
+      <c r="E23" s="67">
+        <v>33</v>
+      </c>
+      <c r="F23" s="67">
+        <v>10</v>
+      </c>
+      <c r="G23" s="67">
+        <v>33</v>
+      </c>
+      <c r="H23" s="68">
+        <v>0</v>
+      </c>
+      <c r="I23" s="69"/>
+    </row>
+    <row r="24" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="72">
+        <v>8</v>
+      </c>
+      <c r="E24" s="72">
+        <v>35</v>
+      </c>
+      <c r="F24" s="72">
+        <v>8</v>
+      </c>
+      <c r="G24" s="72">
+        <v>35</v>
+      </c>
+      <c r="H24" s="73">
+        <v>0</v>
+      </c>
+      <c r="I24" s="74"/>
+    </row>
+    <row r="25" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="76">
+        <v>34</v>
+      </c>
+      <c r="E25" s="76">
+        <v>19</v>
+      </c>
+      <c r="F25" s="76">
+        <v>34</v>
+      </c>
+      <c r="G25" s="76">
+        <v>19</v>
+      </c>
+      <c r="H25" s="77">
+        <v>0</v>
+      </c>
+      <c r="I25" s="78"/>
+    </row>
+    <row r="26" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="80">
+        <v>40</v>
+      </c>
+      <c r="E26" s="80">
+        <v>14</v>
+      </c>
+      <c r="F26" s="80">
+        <v>40</v>
+      </c>
+      <c r="G26" s="80">
+        <v>14</v>
+      </c>
+      <c r="H26" s="81">
+        <v>0</v>
+      </c>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="80">
+        <v>40</v>
+      </c>
+      <c r="E27" s="80">
+        <v>14</v>
+      </c>
+      <c r="F27" s="80">
+        <v>40</v>
+      </c>
+      <c r="G27" s="80">
+        <v>14</v>
+      </c>
+      <c r="H27" s="186">
+        <v>0</v>
+      </c>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="84">
+        <v>40</v>
+      </c>
+      <c r="E28" s="84">
+        <v>29</v>
+      </c>
+      <c r="F28" s="84">
+        <v>40</v>
+      </c>
+      <c r="G28" s="84">
+        <v>29</v>
+      </c>
+      <c r="H28" s="85">
+        <v>0</v>
+      </c>
+      <c r="I28" s="86"/>
+    </row>
+    <row r="29" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="90">
+        <v>48</v>
+      </c>
+      <c r="E29" s="90">
+        <v>21</v>
+      </c>
+      <c r="F29" s="90">
+        <v>48</v>
+      </c>
+      <c r="G29" s="90">
+        <v>21</v>
+      </c>
+      <c r="H29" s="91">
+        <v>0</v>
+      </c>
+      <c r="I29" s="92"/>
+    </row>
+    <row r="30" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="90">
+        <v>54</v>
+      </c>
+      <c r="E30" s="90">
+        <v>12</v>
+      </c>
+      <c r="F30" s="90">
+        <v>54</v>
+      </c>
+      <c r="G30" s="90">
+        <v>12</v>
+      </c>
+      <c r="H30" s="196">
+        <v>0</v>
+      </c>
+      <c r="I30" s="92"/>
+    </row>
+    <row r="31" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="94">
+        <v>69</v>
+      </c>
+      <c r="E31" s="94">
+        <v>26</v>
+      </c>
+      <c r="F31" s="94">
+        <v>69</v>
+      </c>
+      <c r="G31" s="94">
+        <v>26</v>
+      </c>
+      <c r="H31" s="197">
+        <v>0</v>
+      </c>
+      <c r="I31" s="96"/>
+    </row>
+    <row r="32" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="102">
+        <v>95</v>
+      </c>
+      <c r="E32" s="102">
+        <v>9</v>
+      </c>
+      <c r="F32" s="102">
+        <v>95</v>
+      </c>
+      <c r="G32" s="102">
+        <v>9</v>
+      </c>
+      <c r="H32" s="103">
+        <v>0</v>
+      </c>
+      <c r="I32" s="104"/>
+      <c r="DF32" s="87"/>
+    </row>
+    <row r="33" spans="110:110" x14ac:dyDescent="0.3">
+      <c r="DF33" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="DP32:DT32 J32:DL32 J6:DT31">
+    <cfRule type="expression" dxfId="51" priority="25">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="27">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="28">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="29">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="30">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="31">
+      <formula>J$5=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="33">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="34">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:DE33">
+    <cfRule type="expression" dxfId="43" priority="26">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:DT5">
+    <cfRule type="expression" dxfId="42" priority="32">
+      <formula>J$5=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DM32:DO32">
+    <cfRule type="expression" dxfId="41" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="22">
+      <formula>DM$5=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="200" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="Spinner 1">
+              <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>15</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DR37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="2.375" style="1" customWidth="1"/>
+    <col min="28" max="90" width="2.375" customWidth="1"/>
+    <col min="107" max="107" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="108" max="137" width="3.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:122" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="198" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:122" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="198"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="22">
+        <v>60</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="10"/>
+      <c r="X2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="9"/>
+      <c r="BN2" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:122" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3"/>
+      <c r="C3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AC3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="CG3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="CM3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="CP3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="CT3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="CY3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="DC3" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:122" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="13">
+        <v>22</v>
+      </c>
+      <c r="I4" s="13">
+        <v>23</v>
+      </c>
+      <c r="J4" s="14">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15">
+        <v>25</v>
+      </c>
+      <c r="L4" s="15">
+        <v>26</v>
+      </c>
+      <c r="M4" s="15">
+        <v>27</v>
+      </c>
+      <c r="N4" s="15">
+        <v>28</v>
+      </c>
+      <c r="O4" s="15">
+        <v>29</v>
+      </c>
+      <c r="P4" s="15">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>1</v>
+      </c>
+      <c r="R4" s="15">
+        <v>2</v>
+      </c>
+      <c r="S4" s="15">
+        <v>3</v>
+      </c>
+      <c r="T4" s="15">
+        <v>4</v>
+      </c>
+      <c r="U4" s="15">
+        <v>5</v>
+      </c>
+      <c r="V4" s="15">
+        <v>6</v>
+      </c>
+      <c r="W4" s="15">
+        <v>7</v>
+      </c>
+      <c r="X4" s="15">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="15">
         <v>13</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44">
+      <c r="AD4" s="15">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="15">
+        <v>16</v>
+      </c>
+      <c r="AG4" s="15">
+        <v>17</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>18</v>
+      </c>
+      <c r="AI4" s="15">
+        <v>19</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>20</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>21</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>22</v>
+      </c>
+      <c r="AM4" s="15">
+        <v>23</v>
+      </c>
+      <c r="AN4" s="15">
+        <v>24</v>
+      </c>
+      <c r="AO4" s="15">
+        <v>25</v>
+      </c>
+      <c r="AP4" s="15">
+        <v>26</v>
+      </c>
+      <c r="AQ4" s="15">
+        <v>27</v>
+      </c>
+      <c r="AR4" s="15">
+        <v>28</v>
+      </c>
+      <c r="AS4" s="15">
+        <v>29</v>
+      </c>
+      <c r="AT4" s="15">
+        <v>30</v>
+      </c>
+      <c r="AU4" s="15">
+        <v>31</v>
+      </c>
+      <c r="AV4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="16">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="16">
         <v>3</v>
       </c>
-      <c r="E9" s="44">
+      <c r="AY4" s="16">
+        <v>4</v>
+      </c>
+      <c r="AZ4" s="16">
+        <v>5</v>
+      </c>
+      <c r="BA4" s="16">
+        <v>6</v>
+      </c>
+      <c r="BB4" s="16">
+        <v>7</v>
+      </c>
+      <c r="BC4" s="16">
         <v>8</v>
       </c>
-      <c r="F9" s="44">
+      <c r="BD4" s="16">
+        <v>9</v>
+      </c>
+      <c r="BE4" s="16">
+        <v>10</v>
+      </c>
+      <c r="BF4" s="16">
+        <v>11</v>
+      </c>
+      <c r="BG4" s="16">
+        <v>12</v>
+      </c>
+      <c r="BH4" s="16">
+        <v>13</v>
+      </c>
+      <c r="BI4" s="16">
+        <v>14</v>
+      </c>
+      <c r="BJ4" s="16">
+        <v>15</v>
+      </c>
+      <c r="BK4" s="16">
+        <v>16</v>
+      </c>
+      <c r="BL4" s="16">
+        <v>17</v>
+      </c>
+      <c r="BM4" s="16">
+        <v>18</v>
+      </c>
+      <c r="BN4" s="16">
+        <v>19</v>
+      </c>
+      <c r="BO4" s="16">
+        <v>20</v>
+      </c>
+      <c r="BP4" s="16">
+        <v>21</v>
+      </c>
+      <c r="BQ4" s="16">
+        <v>22</v>
+      </c>
+      <c r="BR4" s="16">
+        <v>23</v>
+      </c>
+      <c r="BS4" s="16">
+        <v>24</v>
+      </c>
+      <c r="BT4" s="16">
+        <v>25</v>
+      </c>
+      <c r="BU4" s="16">
+        <v>26</v>
+      </c>
+      <c r="BV4" s="16">
+        <v>27</v>
+      </c>
+      <c r="BW4" s="16">
+        <v>28</v>
+      </c>
+      <c r="BX4" s="16">
+        <v>29</v>
+      </c>
+      <c r="BY4" s="16">
+        <v>30</v>
+      </c>
+      <c r="BZ4" s="16">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="16">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="16">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="16">
         <v>4</v>
       </c>
-      <c r="G9" s="44">
+      <c r="CD4" s="16">
+        <v>5</v>
+      </c>
+      <c r="CE4" s="16">
+        <v>6</v>
+      </c>
+      <c r="CF4" s="16">
         <v>7</v>
       </c>
-      <c r="H9" s="45">
+      <c r="CG4" s="16">
+        <v>8</v>
+      </c>
+      <c r="CH4" s="16">
+        <v>9</v>
+      </c>
+      <c r="CI4" s="16">
+        <v>10</v>
+      </c>
+      <c r="CJ4" s="16">
+        <v>11</v>
+      </c>
+      <c r="CK4" s="16">
+        <v>12</v>
+      </c>
+      <c r="CL4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="CM4" s="16">
+        <v>12</v>
+      </c>
+      <c r="CN4" s="16">
+        <v>19</v>
+      </c>
+      <c r="CO4" s="16">
+        <v>26</v>
+      </c>
+      <c r="CP4" s="16">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="16">
+        <v>9</v>
+      </c>
+      <c r="CR4" s="16">
+        <v>16</v>
+      </c>
+      <c r="CS4" s="16">
+        <v>23</v>
+      </c>
+      <c r="CT4" s="16">
+        <v>2</v>
+      </c>
+      <c r="CU4" s="16">
+        <v>9</v>
+      </c>
+      <c r="CV4" s="16">
+        <v>16</v>
+      </c>
+      <c r="CW4" s="16">
+        <v>23</v>
+      </c>
+      <c r="CX4" s="16">
+        <v>30</v>
+      </c>
+      <c r="CY4" s="16">
+        <v>6</v>
+      </c>
+      <c r="CZ4" s="16">
+        <v>13</v>
+      </c>
+      <c r="DA4" s="16">
+        <v>20</v>
+      </c>
+      <c r="DB4" s="16">
+        <v>27</v>
+      </c>
+      <c r="DC4" s="16">
+        <v>4</v>
+      </c>
+      <c r="DD4" s="16">
+        <v>11</v>
+      </c>
+      <c r="DE4" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:122" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3">
+        <v>7</v>
+      </c>
+      <c r="O5" s="3">
+        <v>8</v>
+      </c>
+      <c r="P5" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>10</v>
+      </c>
+      <c r="R5" s="3">
+        <v>11</v>
+      </c>
+      <c r="S5" s="3">
+        <v>12</v>
+      </c>
+      <c r="T5" s="3">
+        <v>13</v>
+      </c>
+      <c r="U5" s="3">
+        <v>14</v>
+      </c>
+      <c r="V5" s="3">
+        <v>15</v>
+      </c>
+      <c r="W5" s="3">
+        <v>16</v>
+      </c>
+      <c r="X5" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>18</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>21</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>26</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>27</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>29</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>31</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>32</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>33</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>34</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>35</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>36</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>37</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>38</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>39</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>40</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>41</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>42</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>43</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>44</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>45</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>46</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>47</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>48</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>49</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>50</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>51</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>52</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>53</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>54</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>55</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>56</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>57</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>58</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>59</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>60</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>61</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>62</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>63</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>64</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>65</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>66</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>67</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>68</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>69</v>
+      </c>
+      <c r="BY5" s="3">
+        <v>70</v>
+      </c>
+      <c r="BZ5" s="3">
+        <v>71</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>72</v>
+      </c>
+      <c r="CB5" s="3">
+        <v>73</v>
+      </c>
+      <c r="CC5" s="3">
+        <v>74</v>
+      </c>
+      <c r="CD5" s="3">
+        <v>75</v>
+      </c>
+      <c r="CE5" s="3">
+        <v>76</v>
+      </c>
+      <c r="CF5" s="3">
+        <v>77</v>
+      </c>
+      <c r="CG5" s="3">
+        <v>78</v>
+      </c>
+      <c r="CH5" s="3">
+        <v>79</v>
+      </c>
+      <c r="CI5" s="3">
+        <v>80</v>
+      </c>
+      <c r="CJ5" s="3">
+        <v>81</v>
+      </c>
+      <c r="CK5" s="3">
+        <v>82</v>
+      </c>
+      <c r="CL5" s="3">
+        <v>83</v>
+      </c>
+      <c r="CM5" s="3">
+        <v>84</v>
+      </c>
+      <c r="CN5" s="3">
+        <v>85</v>
+      </c>
+      <c r="CO5" s="3">
+        <v>86</v>
+      </c>
+      <c r="CP5" s="3">
+        <v>87</v>
+      </c>
+      <c r="CQ5" s="3">
+        <v>88</v>
+      </c>
+      <c r="CR5" s="3">
+        <v>89</v>
+      </c>
+      <c r="CS5" s="3">
+        <v>90</v>
+      </c>
+      <c r="CT5" s="3">
+        <v>91</v>
+      </c>
+      <c r="CU5" s="3">
+        <v>92</v>
+      </c>
+      <c r="CV5" s="3">
+        <v>93</v>
+      </c>
+      <c r="CW5" s="3">
+        <v>94</v>
+      </c>
+      <c r="CX5" s="3">
+        <v>95</v>
+      </c>
+      <c r="CY5" s="3">
+        <v>96</v>
+      </c>
+      <c r="CZ5" s="3">
+        <v>97</v>
+      </c>
+      <c r="DA5" s="3">
+        <v>98</v>
+      </c>
+      <c r="DB5" s="3">
+        <v>99</v>
+      </c>
+      <c r="DC5" s="3">
+        <v>100</v>
+      </c>
+      <c r="DD5" s="3">
+        <v>101</v>
+      </c>
+      <c r="DE5" s="3">
+        <v>102</v>
+      </c>
+      <c r="DF5" s="3"/>
+      <c r="DG5" s="3"/>
+      <c r="DH5" s="3"/>
+      <c r="DI5" s="3"/>
+      <c r="DJ5" s="3"/>
+      <c r="DK5" s="3"/>
+      <c r="DL5" s="3"/>
+      <c r="DM5" s="3"/>
+      <c r="DN5" s="3"/>
+      <c r="DO5" s="3"/>
+      <c r="DP5" s="3"/>
+      <c r="DQ5" s="3"/>
+      <c r="DR5" s="3"/>
+    </row>
+    <row r="6" spans="1:122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1</v>
+      </c>
+      <c r="D6" s="39">
+        <v>5</v>
+      </c>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39">
+        <v>5</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="42">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42">
+        <v>10</v>
+      </c>
+      <c r="E7" s="42">
+        <v>3</v>
+      </c>
+      <c r="F7" s="42">
+        <v>10</v>
+      </c>
+      <c r="G7" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="42">
+        <v>2</v>
+      </c>
+      <c r="D8" s="42">
+        <v>9</v>
+      </c>
+      <c r="E8" s="42">
+        <v>4</v>
+      </c>
+      <c r="F8" s="42">
+        <v>7</v>
+      </c>
+      <c r="G8" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="42">
+        <v>3</v>
+      </c>
+      <c r="D9" s="42">
+        <v>8</v>
+      </c>
+      <c r="E9" s="42">
+        <v>4</v>
+      </c>
+      <c r="F9" s="42">
+        <v>7</v>
+      </c>
+      <c r="G9" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44">
+      <c r="C10" s="42">
         <v>4</v>
       </c>
-      <c r="E10" s="44">
+      <c r="D10" s="42">
         <v>7</v>
       </c>
-      <c r="F10" s="44">
+      <c r="E10" s="42">
         <v>5</v>
       </c>
-      <c r="G10" s="44">
+      <c r="F10" s="42">
         <v>11</v>
       </c>
-      <c r="H10" s="45">
+      <c r="G10" s="43">
         <v>1</v>
       </c>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44">
+      <c r="C11" s="42">
         <v>3</v>
       </c>
-      <c r="E11" s="44">
+      <c r="D11" s="42">
         <v>10</v>
       </c>
-      <c r="F11" s="44">
+      <c r="E11" s="42">
         <v>7</v>
       </c>
-      <c r="G11" s="44">
+      <c r="F11" s="42">
         <v>10</v>
       </c>
-      <c r="H11" s="45">
+      <c r="G11" s="43">
         <v>1</v>
       </c>
-      <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48">
+      <c r="C12" s="45">
         <v>9</v>
       </c>
-      <c r="E12" s="48">
+      <c r="D12" s="45">
         <v>8</v>
       </c>
-      <c r="F12" s="48">
+      <c r="E12" s="45">
         <v>9</v>
       </c>
-      <c r="G12" s="48">
+      <c r="F12" s="45">
         <v>10</v>
       </c>
-      <c r="H12" s="49">
+      <c r="G12" s="46">
         <v>1</v>
       </c>
-      <c r="I12" s="50"/>
-    </row>
-    <row r="13" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56" t="s">
+    </row>
+    <row r="13" spans="1:122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58">
+      <c r="C13" s="52">
         <v>11</v>
       </c>
-      <c r="E13" s="58">
+      <c r="D13" s="52">
         <v>6</v>
       </c>
-      <c r="F13" s="58">
+      <c r="E13" s="52">
         <v>11</v>
       </c>
-      <c r="G13" s="58">
+      <c r="F13" s="52">
         <v>6</v>
       </c>
-      <c r="H13" s="59">
+      <c r="G13" s="53">
         <v>1</v>
       </c>
-      <c r="I13" s="60"/>
-    </row>
-    <row r="14" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="61" t="s">
+    </row>
+    <row r="14" spans="1:122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52">
+      <c r="C14" s="47">
         <v>15</v>
       </c>
-      <c r="E14" s="52">
+      <c r="D14" s="47">
         <v>7</v>
       </c>
-      <c r="F14" s="52">
+      <c r="E14" s="47">
         <v>18</v>
       </c>
-      <c r="G14" s="52">
+      <c r="F14" s="47">
         <v>5</v>
       </c>
-      <c r="H14" s="53">
+      <c r="G14" s="48">
         <v>1</v>
       </c>
-      <c r="I14" s="62"/>
-    </row>
-    <row r="15" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="61" t="s">
+    </row>
+    <row r="15" spans="1:122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52">
+      <c r="C15" s="47">
         <v>14</v>
       </c>
-      <c r="E15" s="52">
+      <c r="D15" s="47">
         <v>18</v>
       </c>
-      <c r="F15" s="52">
+      <c r="E15" s="47">
         <v>14</v>
       </c>
-      <c r="G15" s="52">
+      <c r="F15" s="47">
         <v>18</v>
       </c>
-      <c r="H15" s="53">
+      <c r="G15" s="48">
         <v>1</v>
       </c>
-      <c r="I15" s="62"/>
-    </row>
-    <row r="16" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="63" t="s">
+    </row>
+    <row r="16" spans="1:122" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65">
+      <c r="C16" s="58">
         <v>29</v>
       </c>
-      <c r="E16" s="66">
+      <c r="D16" s="59">
         <v>5</v>
       </c>
-      <c r="F16" s="66">
+      <c r="E16" s="59">
         <v>29</v>
       </c>
-      <c r="G16" s="66">
+      <c r="F16" s="59">
         <v>5</v>
       </c>
-      <c r="H16" s="67">
+      <c r="G16" s="60">
         <v>1</v>
       </c>
-      <c r="I16" s="68"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="69" t="s">
+    </row>
+    <row r="17" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71">
+      <c r="C17" s="63">
         <v>23</v>
       </c>
-      <c r="E17" s="71">
+      <c r="D17" s="63">
         <v>10</v>
       </c>
-      <c r="F17" s="71">
+      <c r="E17" s="63">
         <v>23</v>
       </c>
-      <c r="G17" s="71">
+      <c r="F17" s="63">
         <v>10</v>
       </c>
-      <c r="H17" s="72">
+      <c r="G17" s="64">
         <v>1</v>
       </c>
-      <c r="I17" s="73"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="74" t="s">
+    </row>
+    <row r="18" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76">
+      <c r="C18" s="67">
         <v>18</v>
       </c>
-      <c r="E18" s="76">
+      <c r="D18" s="67">
         <v>20</v>
       </c>
-      <c r="F18" s="76">
+      <c r="E18" s="67">
         <v>18</v>
       </c>
-      <c r="G18" s="76">
+      <c r="F18" s="67">
         <v>20</v>
       </c>
-      <c r="H18" s="77">
+      <c r="G18" s="68">
         <v>1</v>
       </c>
-      <c r="I18" s="78"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="74" t="s">
+    </row>
+    <row r="19" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76">
+      <c r="C19" s="67">
         <v>13</v>
       </c>
-      <c r="E19" s="76">
+      <c r="D19" s="67">
         <v>12</v>
       </c>
-      <c r="F19" s="76">
+      <c r="E19" s="67">
         <v>20</v>
       </c>
-      <c r="G19" s="76">
+      <c r="F19" s="67">
         <v>16</v>
       </c>
-      <c r="H19" s="77">
+      <c r="G19" s="68">
         <v>1</v>
       </c>
-      <c r="I19" s="78"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="74" t="s">
+    </row>
+    <row r="20" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="79">
+      <c r="C20" s="70">
         <v>14</v>
       </c>
-      <c r="E20" s="76">
+      <c r="D20" s="67">
         <v>32</v>
       </c>
-      <c r="F20" s="76">
+      <c r="E20" s="67">
         <v>14</v>
       </c>
-      <c r="G20" s="76">
+      <c r="F20" s="67">
         <v>32</v>
       </c>
-      <c r="H20" s="77">
+      <c r="G20" s="68">
         <v>1</v>
       </c>
-      <c r="I20" s="78"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="80" t="s">
+    </row>
+    <row r="21" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82">
+      <c r="C21" s="72">
         <v>10</v>
       </c>
-      <c r="E21" s="82">
+      <c r="D21" s="72">
         <v>36</v>
       </c>
-      <c r="F21" s="82">
+      <c r="E21" s="72">
         <v>12</v>
       </c>
-      <c r="G21" s="82">
+      <c r="F21" s="72">
         <v>34</v>
       </c>
-      <c r="H21" s="83">
+      <c r="G21" s="73">
         <v>1</v>
       </c>
-      <c r="I21" s="84"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="85" t="s">
+    </row>
+    <row r="22" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87">
+      <c r="C22" s="76">
         <v>31</v>
       </c>
-      <c r="E22" s="87">
+      <c r="D22" s="76">
         <v>15</v>
       </c>
-      <c r="F22" s="87">
+      <c r="E22" s="76">
         <v>31</v>
       </c>
-      <c r="G22" s="87">
+      <c r="F22" s="76">
         <v>22</v>
       </c>
-      <c r="H22" s="88">
+      <c r="G22" s="77">
         <v>1</v>
       </c>
-      <c r="I22" s="89"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="90" t="s">
+    </row>
+    <row r="23" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92">
+      <c r="C23" s="80">
         <v>41</v>
       </c>
-      <c r="E23" s="92">
+      <c r="D23" s="80">
         <v>14</v>
       </c>
-      <c r="F23" s="92">
+      <c r="E23" s="80">
         <v>45</v>
       </c>
-      <c r="G23" s="92">
+      <c r="F23" s="80">
         <v>15</v>
       </c>
-      <c r="H23" s="93">
+      <c r="G23" s="81">
         <v>1</v>
       </c>
-      <c r="I23" s="94"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="90" t="s">
+    </row>
+    <row r="24" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92">
+      <c r="C24" s="80">
         <v>36</v>
       </c>
-      <c r="E24" s="92">
+      <c r="D24" s="80">
         <v>15</v>
       </c>
-      <c r="F24" s="92">
+      <c r="E24" s="80">
         <v>36</v>
       </c>
-      <c r="G24" s="92">
+      <c r="F24" s="80">
         <v>20</v>
       </c>
-      <c r="H24" s="93">
+      <c r="G24" s="81">
         <v>1</v>
       </c>
-      <c r="I24" s="94"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="90" t="s">
+    </row>
+    <row r="25" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92">
+      <c r="C25" s="80">
         <v>37</v>
       </c>
-      <c r="E25" s="92">
+      <c r="D25" s="80">
         <v>14</v>
       </c>
-      <c r="F25" s="92">
+      <c r="E25" s="80">
         <v>37</v>
       </c>
-      <c r="G25" s="92">
+      <c r="F25" s="80">
         <v>14</v>
       </c>
-      <c r="H25" s="93">
+      <c r="G25" s="81">
         <v>1</v>
       </c>
-      <c r="I25" s="94"/>
-    </row>
-    <row r="26" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="90" t="s">
+    </row>
+    <row r="26" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92">
+      <c r="C26" s="80">
         <v>83</v>
       </c>
-      <c r="E26" s="92">
+      <c r="D26" s="80">
         <v>15</v>
       </c>
-      <c r="F26" s="92">
+      <c r="E26" s="80">
         <v>83</v>
       </c>
-      <c r="G26" s="92">
+      <c r="F26" s="80">
         <v>15</v>
       </c>
-      <c r="H26" s="93">
+      <c r="G26" s="81">
         <v>0</v>
       </c>
-      <c r="I26" s="94"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="95" t="s">
+    </row>
+    <row r="27" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="97">
+      <c r="C27" s="84">
         <v>43</v>
       </c>
-      <c r="E27" s="97">
+      <c r="D27" s="84">
         <v>21</v>
       </c>
-      <c r="F27" s="97">
+      <c r="E27" s="84">
         <v>43</v>
       </c>
-      <c r="G27" s="97">
+      <c r="F27" s="84">
         <v>21</v>
       </c>
-      <c r="H27" s="98">
+      <c r="G27" s="85">
         <v>1</v>
       </c>
-      <c r="I27" s="99"/>
-    </row>
-    <row r="28" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="102" t="s">
+    </row>
+    <row r="28" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104">
+      <c r="C28" s="90">
         <v>46</v>
       </c>
-      <c r="E28" s="104">
+      <c r="D28" s="90">
         <v>12</v>
       </c>
-      <c r="F28" s="104">
+      <c r="E28" s="90">
         <v>51</v>
       </c>
-      <c r="G28" s="104">
+      <c r="F28" s="90">
         <v>13</v>
       </c>
-      <c r="H28" s="105">
-        <v>0.8</v>
-      </c>
-      <c r="I28" s="106"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="102" t="s">
+      <c r="G28" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104">
+      <c r="C29" s="90">
         <v>34</v>
       </c>
-      <c r="E29" s="104">
+      <c r="D29" s="90">
         <v>23</v>
       </c>
-      <c r="F29" s="104">
+      <c r="E29" s="90">
         <v>34</v>
       </c>
-      <c r="G29" s="104">
+      <c r="F29" s="90">
         <v>23</v>
       </c>
-      <c r="H29" s="105">
+      <c r="G29" s="91">
         <v>1</v>
       </c>
-      <c r="I29" s="106"/>
-    </row>
-    <row r="30" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="102" t="s">
+    </row>
+    <row r="30" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104">
+      <c r="C30" s="90">
         <v>43</v>
       </c>
-      <c r="E30" s="104">
+      <c r="D30" s="90">
         <v>15</v>
       </c>
-      <c r="F30" s="104">
+      <c r="E30" s="90">
         <v>43</v>
       </c>
-      <c r="G30" s="104">
-        <v>21</v>
-      </c>
-      <c r="H30" s="105">
-        <v>0.6</v>
-      </c>
-      <c r="I30" s="106"/>
-    </row>
-    <row r="31" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="102" t="s">
+      <c r="F30" s="90">
+        <v>29</v>
+      </c>
+      <c r="G30" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104">
+      <c r="C31" s="90">
         <v>59</v>
       </c>
-      <c r="E31" s="104">
+      <c r="D31" s="90">
         <v>6</v>
       </c>
-      <c r="F31" s="104">
+      <c r="E31" s="90">
         <v>59</v>
       </c>
-      <c r="G31" s="104">
-        <v>6</v>
-      </c>
-      <c r="H31" s="105">
-        <v>0.4</v>
-      </c>
-      <c r="I31" s="106"/>
-    </row>
-    <row r="32" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="107" t="s">
+      <c r="F31" s="90">
+        <v>9</v>
+      </c>
+      <c r="G31" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109">
+      <c r="C32" s="94">
         <v>83</v>
       </c>
-      <c r="E32" s="109">
+      <c r="D32" s="94">
         <v>10</v>
       </c>
-      <c r="F32" s="109">
+      <c r="E32" s="94">
         <v>83</v>
       </c>
-      <c r="G32" s="109">
+      <c r="F32" s="94">
         <v>1</v>
       </c>
-      <c r="H32" s="110">
+      <c r="G32" s="95">
         <v>0</v>
       </c>
-      <c r="I32" s="111"/>
-    </row>
-    <row r="33" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="112" t="s">
+    </row>
+    <row r="33" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="D33" s="114">
+      <c r="C33" s="98">
         <v>84</v>
       </c>
-      <c r="E33" s="114">
+      <c r="D33" s="98">
         <v>18</v>
       </c>
-      <c r="F33" s="114">
+      <c r="E33" s="98">
         <v>84</v>
       </c>
-      <c r="G33" s="114">
+      <c r="F33" s="98">
         <v>1</v>
       </c>
-      <c r="H33" s="115">
+      <c r="G33" s="99">
         <v>0</v>
       </c>
-      <c r="I33" s="116"/>
-    </row>
-    <row r="34" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="112" t="s">
+    </row>
+    <row r="34" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="114">
+      <c r="C34" s="98">
         <v>84</v>
       </c>
-      <c r="E34" s="114">
+      <c r="D34" s="98">
         <v>9</v>
       </c>
-      <c r="F34" s="114">
+      <c r="E34" s="98">
         <v>84</v>
       </c>
-      <c r="G34" s="114">
+      <c r="F34" s="98">
         <v>1</v>
       </c>
-      <c r="H34" s="115">
+      <c r="G34" s="99">
         <v>0</v>
       </c>
-      <c r="I34" s="116"/>
-    </row>
-    <row r="35" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="117" t="s">
+    </row>
+    <row r="35" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="114">
+      <c r="C35" s="98">
         <v>84</v>
       </c>
-      <c r="E35" s="114">
+      <c r="D35" s="98">
         <v>18</v>
       </c>
-      <c r="F35" s="114">
+      <c r="E35" s="98">
         <v>84</v>
       </c>
-      <c r="G35" s="114">
+      <c r="F35" s="98">
         <v>1</v>
       </c>
-      <c r="H35" s="115">
+      <c r="G35" s="99">
         <v>0</v>
       </c>
-      <c r="I35" s="116"/>
-      <c r="DF35" s="100"/>
-    </row>
-    <row r="36" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="119" t="s">
+      <c r="DD35" s="87"/>
+    </row>
+    <row r="36" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="120"/>
-      <c r="D36" s="121">
+      <c r="C36" s="102">
         <v>84</v>
       </c>
-      <c r="E36" s="121">
+      <c r="D36" s="102">
         <v>18</v>
       </c>
-      <c r="F36" s="121">
+      <c r="E36" s="102">
         <v>84</v>
       </c>
-      <c r="G36" s="121">
+      <c r="F36" s="102">
         <v>1</v>
       </c>
-      <c r="H36" s="122">
+      <c r="G36" s="103">
         <v>0</v>
       </c>
-      <c r="I36" s="123"/>
-      <c r="DF36" s="100"/>
-    </row>
-    <row r="37" spans="2:110" x14ac:dyDescent="0.3">
-      <c r="DF37" s="101"/>
+      <c r="DD36" s="87"/>
+    </row>
+    <row r="37" spans="2:108" x14ac:dyDescent="0.3">
+      <c r="DD37" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H5:I5"/>
+  <mergeCells count="1">
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="DP36:DT36 J36:DL36 J6:DT34">
+  <conditionalFormatting sqref="DN36:DR36 H36:DJ36 H6:DR34">
     <cfRule type="expression" dxfId="33" priority="172">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3521,7 +6013,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="178">
-      <formula>J$5=period_selected</formula>
+      <formula>H$5=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="182">
       <formula>MOD(COLUMN(),2)</formula>
@@ -3530,17 +6022,17 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:DE37">
+  <conditionalFormatting sqref="B37:DC37">
     <cfRule type="expression" dxfId="25" priority="173">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:DT5">
+  <conditionalFormatting sqref="H5:DR5">
     <cfRule type="expression" dxfId="24" priority="179">
-      <formula>J$5=period_selected</formula>
+      <formula>H$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DM36:DO36">
+  <conditionalFormatting sqref="DK36:DM36">
     <cfRule type="expression" dxfId="23" priority="26">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3557,7 +6049,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="31">
-      <formula>DM$5=period_selected</formula>
+      <formula>DK$5=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="33">
       <formula>MOD(COLUMN(),2)</formula>
@@ -3566,7 +6058,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP35:DT35 J35:DL35">
+  <conditionalFormatting sqref="DN35:DR35 H35:DJ35">
     <cfRule type="expression" dxfId="15" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3583,7 +6075,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="14">
-      <formula>J$5=period_selected</formula>
+      <formula>H$5=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
@@ -3592,7 +6084,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DM35:DO35">
+  <conditionalFormatting sqref="DK35:DM35">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3609,7 +6101,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>DM$5=period_selected</formula>
+      <formula>DK$5=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
@@ -3631,13 +6123,13 @@
               <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>15</xdr:col>
+                    <xdr:col>13</xdr:col>
                     <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>16</xdr:col>
+                    <xdr:col>14</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>

--- a/Fieldroid_Gantt.xlsx
+++ b/Fieldroid_Gantt.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
   <si>
     <t>Plan</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Derivative Control</t>
   </si>
   <si>
-    <t>Wobbly Bug Removal</t>
-  </si>
-  <si>
     <t>Submit Last PCB Design</t>
   </si>
   <si>
@@ -461,6 +458,36 @@
   </si>
   <si>
     <t>Case Design Iteration 2 and Printed</t>
+  </si>
+  <si>
+    <t>Meet with Nathan</t>
+  </si>
+  <si>
+    <t>Serial Comm w/ Code</t>
+  </si>
+  <si>
+    <t>Fix Motor Controller</t>
+  </si>
+  <si>
+    <t>Closed Loop on Blocks</t>
+  </si>
+  <si>
+    <t>MJT - Straight Line</t>
+  </si>
+  <si>
+    <t>MJT - Curves</t>
+  </si>
+  <si>
+    <t>Cleaning Code</t>
+  </si>
+  <si>
+    <t>Connected Points - Quadratic Progr.</t>
+  </si>
+  <si>
+    <t>Localization Kinematic Transformation</t>
+  </si>
+  <si>
+    <t>Code Integration (new control)</t>
   </si>
 </sst>
 </file>
@@ -2321,7 +2348,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="11"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2659,18 +2686,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DT33"/>
+  <dimension ref="A1:DT42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="9" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="AB19" sqref="AB19"/>
+      <selection pane="topRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
@@ -2718,7 +2745,7 @@
         <v>75</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="120" t="s">
@@ -2729,7 +2756,7 @@
       <c r="M2" s="121"/>
       <c r="N2" s="121"/>
       <c r="O2" s="122">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P2" s="121"/>
       <c r="R2" s="123"/>
@@ -3770,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="40">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I6" s="41"/>
     </row>
@@ -3794,13 +3821,13 @@
         <v>8</v>
       </c>
       <c r="H7" s="43">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>84</v>
@@ -3818,7 +3845,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="43">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I8" s="44"/>
     </row>
@@ -3842,7 +3869,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="44"/>
     </row>
@@ -3866,7 +3893,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="44"/>
     </row>
@@ -3890,7 +3917,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="44"/>
     </row>
@@ -3944,470 +3971,686 @@
     </row>
     <row r="14" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="55" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C14" s="109" t="s">
         <v>88</v>
       </c>
       <c r="D14" s="47">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E14" s="47">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F14" s="47">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G14" s="47">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H14" s="48">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I14" s="56"/>
     </row>
     <row r="15" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="55" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" s="47">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" s="47">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F15" s="47">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G15" s="47">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H15" s="48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="55" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C16" s="109" t="s">
         <v>85</v>
       </c>
       <c r="D16" s="47">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E16" s="47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F16" s="47">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G16" s="47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H16" s="48">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I16" s="56"/>
     </row>
-    <row r="17" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="55" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="47">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E17" s="47">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F17" s="47">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G17" s="47">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H17" s="48">
         <v>0</v>
       </c>
       <c r="I17" s="56"/>
     </row>
-    <row r="18" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="57" t="s">
+    <row r="18" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="47">
+        <v>25</v>
+      </c>
+      <c r="E18" s="47">
+        <v>9</v>
+      </c>
+      <c r="F18" s="47">
+        <v>25</v>
+      </c>
+      <c r="G18" s="47">
+        <v>9</v>
+      </c>
+      <c r="H18" s="48">
+        <v>0</v>
+      </c>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="47">
+        <v>17</v>
+      </c>
+      <c r="E19" s="47">
+        <v>7</v>
+      </c>
+      <c r="F19" s="47">
+        <v>17</v>
+      </c>
+      <c r="G19" s="47">
+        <v>7</v>
+      </c>
+      <c r="H19" s="48">
+        <v>0</v>
+      </c>
+      <c r="I19" s="56"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="47">
+        <v>11</v>
+      </c>
+      <c r="E20" s="47">
+        <v>16</v>
+      </c>
+      <c r="F20" s="47">
+        <v>11</v>
+      </c>
+      <c r="G20" s="47">
+        <v>16</v>
+      </c>
+      <c r="H20" s="48">
+        <v>0</v>
+      </c>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="47">
+        <v>20</v>
+      </c>
+      <c r="E21" s="47">
+        <v>14</v>
+      </c>
+      <c r="F21" s="47">
+        <v>20</v>
+      </c>
+      <c r="G21" s="47">
+        <v>14</v>
+      </c>
+      <c r="H21" s="48">
+        <v>0</v>
+      </c>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="47">
+        <v>11</v>
+      </c>
+      <c r="E22" s="47">
+        <v>23</v>
+      </c>
+      <c r="F22" s="47">
+        <v>11</v>
+      </c>
+      <c r="G22" s="47">
+        <v>23</v>
+      </c>
+      <c r="H22" s="48">
+        <v>0</v>
+      </c>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="47">
+        <v>20</v>
+      </c>
+      <c r="E23" s="47">
+        <v>9</v>
+      </c>
+      <c r="F23" s="47">
+        <v>20</v>
+      </c>
+      <c r="G23" s="47">
+        <v>9</v>
+      </c>
+      <c r="H23" s="48">
+        <v>0</v>
+      </c>
+      <c r="I23" s="56"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C24" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D24" s="58">
         <v>11</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E24" s="59">
         <v>23</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F24" s="59">
         <v>11</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G24" s="59">
         <v>23</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H24" s="60">
         <v>0</v>
       </c>
-      <c r="I18" s="61"/>
-    </row>
-    <row r="19" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="62" t="s">
+      <c r="I24" s="61"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="63">
+        <v>5</v>
+      </c>
+      <c r="E25" s="63">
+        <v>43</v>
+      </c>
+      <c r="F25" s="63">
+        <v>5</v>
+      </c>
+      <c r="G25" s="63">
+        <v>43</v>
+      </c>
+      <c r="H25" s="68">
+        <v>0</v>
+      </c>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="67">
+        <v>30</v>
+      </c>
+      <c r="E26" s="67">
+        <v>18</v>
+      </c>
+      <c r="F26" s="67">
+        <v>30</v>
+      </c>
+      <c r="G26" s="67">
+        <v>18</v>
+      </c>
+      <c r="H26" s="68">
+        <v>0</v>
+      </c>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="67">
+        <v>26</v>
+      </c>
+      <c r="E27" s="67">
+        <v>22</v>
+      </c>
+      <c r="F27" s="67">
+        <v>26</v>
+      </c>
+      <c r="G27" s="67">
+        <v>22</v>
+      </c>
+      <c r="H27" s="68">
+        <v>0</v>
+      </c>
+      <c r="I27" s="69"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="67">
+        <v>26</v>
+      </c>
+      <c r="E28" s="67">
+        <v>22</v>
+      </c>
+      <c r="F28" s="67">
+        <v>26</v>
+      </c>
+      <c r="G28" s="67">
+        <v>22</v>
+      </c>
+      <c r="H28" s="68">
+        <v>0</v>
+      </c>
+      <c r="I28" s="69"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="67">
+        <v>34</v>
+      </c>
+      <c r="E29" s="67">
+        <v>14</v>
+      </c>
+      <c r="F29" s="67">
+        <v>34</v>
+      </c>
+      <c r="G29" s="67">
+        <v>14</v>
+      </c>
+      <c r="H29" s="68">
+        <v>0</v>
+      </c>
+      <c r="I29" s="69"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="67">
+        <v>34</v>
+      </c>
+      <c r="E30" s="67">
+        <v>14</v>
+      </c>
+      <c r="F30" s="67">
+        <v>34</v>
+      </c>
+      <c r="G30" s="67">
+        <v>14</v>
+      </c>
+      <c r="H30" s="68">
+        <v>0</v>
+      </c>
+      <c r="I30" s="69"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="70">
+        <v>10</v>
+      </c>
+      <c r="E31" s="67">
+        <v>33</v>
+      </c>
+      <c r="F31" s="67">
+        <v>10</v>
+      </c>
+      <c r="G31" s="67">
+        <v>33</v>
+      </c>
+      <c r="H31" s="68">
+        <v>0</v>
+      </c>
+      <c r="I31" s="69"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="72">
+        <v>8</v>
+      </c>
+      <c r="E32" s="72">
+        <v>35</v>
+      </c>
+      <c r="F32" s="72">
+        <v>8</v>
+      </c>
+      <c r="G32" s="72">
+        <v>35</v>
+      </c>
+      <c r="H32" s="73">
+        <v>0</v>
+      </c>
+      <c r="I32" s="74"/>
+    </row>
+    <row r="33" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="76">
+        <v>34</v>
+      </c>
+      <c r="E33" s="76">
+        <v>19</v>
+      </c>
+      <c r="F33" s="76">
+        <v>34</v>
+      </c>
+      <c r="G33" s="76">
+        <v>19</v>
+      </c>
+      <c r="H33" s="77">
+        <v>0</v>
+      </c>
+      <c r="I33" s="78"/>
+    </row>
+    <row r="34" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C34" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="63">
-        <v>5</v>
-      </c>
-      <c r="E19" s="63">
-        <v>43</v>
-      </c>
-      <c r="F19" s="63">
-        <v>5</v>
-      </c>
-      <c r="G19" s="63">
-        <v>43</v>
-      </c>
-      <c r="H19" s="68">
+      <c r="D34" s="80">
+        <v>40</v>
+      </c>
+      <c r="E34" s="80">
+        <v>14</v>
+      </c>
+      <c r="F34" s="80">
+        <v>40</v>
+      </c>
+      <c r="G34" s="80">
+        <v>14</v>
+      </c>
+      <c r="H34" s="81">
         <v>0</v>
       </c>
-      <c r="I19" s="65"/>
-    </row>
-    <row r="20" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="66" t="s">
+      <c r="I34" s="82"/>
+    </row>
+    <row r="35" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="80">
+        <v>34</v>
+      </c>
+      <c r="E35" s="80">
+        <v>16</v>
+      </c>
+      <c r="F35" s="80">
+        <v>34</v>
+      </c>
+      <c r="G35" s="80">
+        <v>16</v>
+      </c>
+      <c r="H35" s="81">
+        <v>0</v>
+      </c>
+      <c r="I35" s="82"/>
+    </row>
+    <row r="36" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="80">
+        <v>40</v>
+      </c>
+      <c r="E36" s="80">
+        <v>14</v>
+      </c>
+      <c r="F36" s="80">
+        <v>40</v>
+      </c>
+      <c r="G36" s="80">
+        <v>14</v>
+      </c>
+      <c r="H36" s="186">
+        <v>0</v>
+      </c>
+      <c r="I36" s="82"/>
+    </row>
+    <row r="37" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="67">
-        <v>30</v>
-      </c>
-      <c r="E20" s="67">
-        <v>18</v>
-      </c>
-      <c r="F20" s="67">
-        <v>30</v>
-      </c>
-      <c r="G20" s="67">
-        <v>18</v>
-      </c>
-      <c r="H20" s="68">
+      <c r="C37" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="84">
+        <v>40</v>
+      </c>
+      <c r="E37" s="84">
+        <v>29</v>
+      </c>
+      <c r="F37" s="84">
+        <v>40</v>
+      </c>
+      <c r="G37" s="84">
+        <v>29</v>
+      </c>
+      <c r="H37" s="85">
         <v>0</v>
       </c>
-      <c r="I20" s="69"/>
-    </row>
-    <row r="21" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="67">
+      <c r="I37" s="86"/>
+    </row>
+    <row r="38" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="90">
+        <v>48</v>
+      </c>
+      <c r="E38" s="90">
+        <v>21</v>
+      </c>
+      <c r="F38" s="90">
+        <v>48</v>
+      </c>
+      <c r="G38" s="90">
+        <v>21</v>
+      </c>
+      <c r="H38" s="91">
+        <v>0</v>
+      </c>
+      <c r="I38" s="92"/>
+    </row>
+    <row r="39" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="90">
+        <v>54</v>
+      </c>
+      <c r="E39" s="90">
+        <v>12</v>
+      </c>
+      <c r="F39" s="90">
+        <v>54</v>
+      </c>
+      <c r="G39" s="90">
+        <v>12</v>
+      </c>
+      <c r="H39" s="196">
+        <v>0</v>
+      </c>
+      <c r="I39" s="92"/>
+    </row>
+    <row r="40" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="94">
+        <v>69</v>
+      </c>
+      <c r="E40" s="94">
         <v>26</v>
       </c>
-      <c r="E21" s="67">
-        <v>22</v>
-      </c>
-      <c r="F21" s="67">
+      <c r="F40" s="94">
+        <v>69</v>
+      </c>
+      <c r="G40" s="94">
         <v>26</v>
       </c>
-      <c r="G21" s="67">
-        <v>22</v>
-      </c>
-      <c r="H21" s="68">
+      <c r="H40" s="197">
         <v>0</v>
       </c>
-      <c r="I21" s="69"/>
-    </row>
-    <row r="22" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="67">
-        <v>26</v>
-      </c>
-      <c r="E22" s="67">
-        <v>22</v>
-      </c>
-      <c r="F22" s="67">
-        <v>26</v>
-      </c>
-      <c r="G22" s="67">
-        <v>22</v>
-      </c>
-      <c r="H22" s="68">
+      <c r="I40" s="96"/>
+    </row>
+    <row r="41" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="102">
+        <v>95</v>
+      </c>
+      <c r="E41" s="102">
+        <v>9</v>
+      </c>
+      <c r="F41" s="102">
+        <v>95</v>
+      </c>
+      <c r="G41" s="102">
+        <v>9</v>
+      </c>
+      <c r="H41" s="103">
         <v>0</v>
       </c>
-      <c r="I22" s="69"/>
-    </row>
-    <row r="23" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="70">
-        <v>10</v>
-      </c>
-      <c r="E23" s="67">
-        <v>33</v>
-      </c>
-      <c r="F23" s="67">
-        <v>10</v>
-      </c>
-      <c r="G23" s="67">
-        <v>33</v>
-      </c>
-      <c r="H23" s="68">
-        <v>0</v>
-      </c>
-      <c r="I23" s="69"/>
-    </row>
-    <row r="24" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="72">
-        <v>8</v>
-      </c>
-      <c r="E24" s="72">
-        <v>35</v>
-      </c>
-      <c r="F24" s="72">
-        <v>8</v>
-      </c>
-      <c r="G24" s="72">
-        <v>35</v>
-      </c>
-      <c r="H24" s="73">
-        <v>0</v>
-      </c>
-      <c r="I24" s="74"/>
-    </row>
-    <row r="25" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="114" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="76">
-        <v>34</v>
-      </c>
-      <c r="E25" s="76">
-        <v>19</v>
-      </c>
-      <c r="F25" s="76">
-        <v>34</v>
-      </c>
-      <c r="G25" s="76">
-        <v>19</v>
-      </c>
-      <c r="H25" s="77">
-        <v>0</v>
-      </c>
-      <c r="I25" s="78"/>
-    </row>
-    <row r="26" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="80">
-        <v>40</v>
-      </c>
-      <c r="E26" s="80">
-        <v>14</v>
-      </c>
-      <c r="F26" s="80">
-        <v>40</v>
-      </c>
-      <c r="G26" s="80">
-        <v>14</v>
-      </c>
-      <c r="H26" s="81">
-        <v>0</v>
-      </c>
-      <c r="I26" s="82"/>
-    </row>
-    <row r="27" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="80">
-        <v>40</v>
-      </c>
-      <c r="E27" s="80">
-        <v>14</v>
-      </c>
-      <c r="F27" s="80">
-        <v>40</v>
-      </c>
-      <c r="G27" s="80">
-        <v>14</v>
-      </c>
-      <c r="H27" s="186">
-        <v>0</v>
-      </c>
-      <c r="I27" s="82"/>
-    </row>
-    <row r="28" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="84">
-        <v>40</v>
-      </c>
-      <c r="E28" s="84">
-        <v>29</v>
-      </c>
-      <c r="F28" s="84">
-        <v>40</v>
-      </c>
-      <c r="G28" s="84">
-        <v>29</v>
-      </c>
-      <c r="H28" s="85">
-        <v>0</v>
-      </c>
-      <c r="I28" s="86"/>
-    </row>
-    <row r="29" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="117" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="90">
-        <v>48</v>
-      </c>
-      <c r="E29" s="90">
-        <v>21</v>
-      </c>
-      <c r="F29" s="90">
-        <v>48</v>
-      </c>
-      <c r="G29" s="90">
-        <v>21</v>
-      </c>
-      <c r="H29" s="91">
-        <v>0</v>
-      </c>
-      <c r="I29" s="92"/>
-    </row>
-    <row r="30" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="90">
-        <v>54</v>
-      </c>
-      <c r="E30" s="90">
-        <v>12</v>
-      </c>
-      <c r="F30" s="90">
-        <v>54</v>
-      </c>
-      <c r="G30" s="90">
-        <v>12</v>
-      </c>
-      <c r="H30" s="196">
-        <v>0</v>
-      </c>
-      <c r="I30" s="92"/>
-    </row>
-    <row r="31" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="94">
-        <v>69</v>
-      </c>
-      <c r="E31" s="94">
-        <v>26</v>
-      </c>
-      <c r="F31" s="94">
-        <v>69</v>
-      </c>
-      <c r="G31" s="94">
-        <v>26</v>
-      </c>
-      <c r="H31" s="197">
-        <v>0</v>
-      </c>
-      <c r="I31" s="96"/>
-    </row>
-    <row r="32" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="102">
-        <v>95</v>
-      </c>
-      <c r="E32" s="102">
-        <v>9</v>
-      </c>
-      <c r="F32" s="102">
-        <v>95</v>
-      </c>
-      <c r="G32" s="102">
-        <v>9</v>
-      </c>
-      <c r="H32" s="103">
-        <v>0</v>
-      </c>
-      <c r="I32" s="104"/>
-      <c r="DF32" s="87"/>
-    </row>
-    <row r="33" spans="110:110" x14ac:dyDescent="0.3">
-      <c r="DF33" s="88"/>
+      <c r="I41" s="104"/>
+      <c r="DF41" s="87"/>
+    </row>
+    <row r="42" spans="2:110" x14ac:dyDescent="0.3">
+      <c r="DF42" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <conditionalFormatting sqref="DP32:DT32 J32:DL32 J6:DT31">
+  <conditionalFormatting sqref="DP41:DT41 J41:DL41 J6:DT40">
     <cfRule type="expression" dxfId="51" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -4433,7 +4676,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:DE33">
+  <conditionalFormatting sqref="B42:DE42">
     <cfRule type="expression" dxfId="43" priority="26">
       <formula>TRUE</formula>
     </cfRule>
@@ -4443,7 +4686,7 @@
       <formula>J$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DM32:DO32">
+  <conditionalFormatting sqref="DM41:DO41">
     <cfRule type="expression" dxfId="41" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>

--- a/Fieldroid_Gantt.xlsx
+++ b/Fieldroid_Gantt.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="122">
   <si>
     <t>Plan</t>
   </si>
@@ -397,21 +397,12 @@
     <t>2nd PCB Iteration Working</t>
   </si>
   <si>
-    <t>Derivative Control</t>
-  </si>
-  <si>
-    <t>Submit Last PCB Design</t>
-  </si>
-  <si>
     <t>IMU Communication Dem</t>
   </si>
   <si>
     <t>IMU Integration w/ Software System</t>
   </si>
   <si>
-    <t>Smooth Velocity</t>
-  </si>
-  <si>
     <t>Start on Boot with Switch</t>
   </si>
   <si>
@@ -472,22 +463,19 @@
     <t>Closed Loop on Blocks</t>
   </si>
   <si>
-    <t>MJT - Straight Line</t>
-  </si>
-  <si>
-    <t>MJT - Curves</t>
-  </si>
-  <si>
     <t>Cleaning Code</t>
   </si>
   <si>
     <t>Connected Points - Quadratic Progr.</t>
   </si>
   <si>
-    <t>Localization Kinematic Transformation</t>
-  </si>
-  <si>
     <t>Code Integration (new control)</t>
+  </si>
+  <si>
+    <t>MPC - Straight Lines/Curves</t>
+  </si>
+  <si>
+    <t>Kalman Filter</t>
   </si>
 </sst>
 </file>
@@ -971,7 +959,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,9 +1143,6 @@
     <xf numFmtId="9" fontId="15" fillId="10" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1300,9 +1285,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2348,7 +2330,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="11"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="32"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2686,12 +2668,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DT42"/>
+  <dimension ref="A1:DT38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B36" sqref="B36"/>
+      <selection pane="topRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2712,7 +2694,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="196" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="26"/>
@@ -2732,7 +2714,7 @@
       <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:124" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="198"/>
+      <c r="B2" s="196"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="30" t="s">
@@ -2745,33 +2727,33 @@
         <v>75</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="122">
-        <v>11</v>
-      </c>
-      <c r="P2" s="121"/>
-      <c r="R2" s="123"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="120">
+        <v>32</v>
+      </c>
+      <c r="P2" s="119"/>
+      <c r="R2" s="121"/>
       <c r="S2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="124"/>
+      <c r="U2" s="122"/>
       <c r="V2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="125"/>
+      <c r="Y2" s="123"/>
       <c r="Z2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="132"/>
+      <c r="AD2" s="130"/>
       <c r="AE2" s="24" t="s">
         <v>27</v>
       </c>
@@ -2779,29 +2761,29 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="133"/>
+      <c r="AL2" s="131"/>
       <c r="AM2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="123"/>
+      <c r="AU2" s="121"/>
       <c r="AV2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="124"/>
+      <c r="AX2" s="122"/>
       <c r="AY2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="125"/>
+      <c r="BB2" s="123"/>
       <c r="BC2" s="24" t="s">
         <v>26</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="132"/>
+      <c r="BG2" s="130"/>
       <c r="BH2" s="24" t="s">
         <v>27</v>
       </c>
@@ -2809,7 +2791,7 @@
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
-      <c r="BO2" s="133"/>
+      <c r="BO2" s="131"/>
       <c r="BP2" s="24" t="s">
         <v>28</v>
       </c>
@@ -2833,279 +2815,279 @@
         <v>6</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="166" t="s">
+      <c r="J3" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168" t="s">
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="168" t="s">
+      <c r="P3" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="168" t="s">
+      <c r="Q3" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="168" t="s">
+      <c r="R3" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="167" t="s">
+      <c r="S3" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="167" t="s">
+      <c r="T3" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="168" t="s">
+      <c r="U3" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="168" t="s">
+      <c r="V3" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="168" t="s">
+      <c r="W3" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="X3" s="168" t="s">
+      <c r="X3" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="168" t="s">
+      <c r="Y3" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="168" t="s">
+      <c r="Z3" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="168" t="s">
+      <c r="AA3" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="169" t="s">
+      <c r="AB3" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="171" t="s">
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="169" t="s">
         <v>79</v>
       </c>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="172" t="s">
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="AJ3" s="172" t="s">
+      <c r="AJ3" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="AK3" s="172" t="s">
+      <c r="AK3" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="AL3" s="172" t="s">
+      <c r="AL3" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="AM3" s="172" t="s">
+      <c r="AM3" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="AN3" s="172" t="s">
+      <c r="AN3" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="AO3" s="172" t="s">
+      <c r="AO3" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="AP3" s="173" t="s">
+      <c r="AP3" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="AQ3" s="174" t="s">
+      <c r="AQ3" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="AR3" s="175" t="s">
+      <c r="AR3" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="AS3" s="175" t="s">
+      <c r="AS3" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" s="175" t="s">
+      <c r="AT3" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="AU3" s="175" t="s">
+      <c r="AU3" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="AV3" s="175" t="s">
+      <c r="AV3" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="AW3" s="175" t="s">
+      <c r="AW3" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="AX3" s="175" t="s">
+      <c r="AX3" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="AY3" s="175" t="s">
+      <c r="AY3" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="AZ3" s="175" t="s">
+      <c r="AZ3" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="BA3" s="175" t="s">
+      <c r="BA3" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="BB3" s="175" t="s">
+      <c r="BB3" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BC3" s="175" t="s">
+      <c r="BC3" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="BD3" s="176" t="s">
+      <c r="BD3" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="BE3" s="187"/>
-      <c r="BF3" s="188" t="s">
+      <c r="BE3" s="185"/>
+      <c r="BF3" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="BG3" s="188"/>
-      <c r="BH3" s="188"/>
-      <c r="BI3" s="189"/>
-      <c r="BJ3" s="177" t="s">
+      <c r="BG3" s="186"/>
+      <c r="BH3" s="186"/>
+      <c r="BI3" s="187"/>
+      <c r="BJ3" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="BK3" s="178" t="s">
+      <c r="BK3" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="BL3" s="178" t="s">
+      <c r="BL3" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="BM3" s="178" t="s">
+      <c r="BM3" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="BN3" s="178" t="s">
+      <c r="BN3" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BO3" s="178" t="s">
+      <c r="BO3" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="BP3" s="178" t="s">
+      <c r="BP3" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="BQ3" s="178" t="s">
+      <c r="BQ3" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="BR3" s="178" t="s">
+      <c r="BR3" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="BS3" s="178" t="s">
+      <c r="BS3" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="BT3" s="178" t="s">
+      <c r="BT3" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="BU3" s="178" t="s">
+      <c r="BU3" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BV3" s="178" t="s">
+      <c r="BV3" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="BW3" s="178" t="s">
+      <c r="BW3" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="BX3" s="178" t="s">
+      <c r="BX3" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="BY3" s="179" t="s">
+      <c r="BY3" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="BZ3" s="180" t="s">
+      <c r="BZ3" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="CA3" s="181" t="s">
+      <c r="CA3" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="CB3" s="181" t="s">
+      <c r="CB3" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="CC3" s="181" t="s">
+      <c r="CC3" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="CD3" s="181" t="s">
+      <c r="CD3" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="CE3" s="181" t="s">
+      <c r="CE3" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="CF3" s="181" t="s">
+      <c r="CF3" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="CG3" s="181" t="s">
+      <c r="CG3" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="CH3" s="181" t="s">
+      <c r="CH3" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="CI3" s="181" t="s">
+      <c r="CI3" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="CJ3" s="181"/>
-      <c r="CK3" s="181" t="s">
+      <c r="CJ3" s="179"/>
+      <c r="CK3" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="CL3" s="181"/>
-      <c r="CM3" s="181"/>
-      <c r="CN3" s="181"/>
-      <c r="CO3" s="181" t="s">
+      <c r="CL3" s="179"/>
+      <c r="CM3" s="179"/>
+      <c r="CN3" s="179"/>
+      <c r="CO3" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="CP3" s="181" t="s">
+      <c r="CP3" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="CQ3" s="181" t="s">
+      <c r="CQ3" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="CR3" s="181" t="s">
+      <c r="CR3" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="CS3" s="181" t="s">
+      <c r="CS3" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="CT3" s="181" t="s">
+      <c r="CT3" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="CU3" s="181" t="s">
+      <c r="CU3" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="CV3" s="181" t="s">
+      <c r="CV3" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="CW3" s="181" t="s">
+      <c r="CW3" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="CX3" s="181" t="s">
+      <c r="CX3" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="CY3" s="182" t="s">
+      <c r="CY3" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="CZ3" s="183" t="s">
+      <c r="CZ3" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="DA3" s="184" t="s">
+      <c r="DA3" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="DB3" s="184" t="s">
+      <c r="DB3" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="DC3" s="184" t="s">
+      <c r="DC3" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="DD3" s="184" t="s">
+      <c r="DD3" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="DE3" s="184" t="s">
+      <c r="DE3" s="182" t="s">
         <v>65</v>
       </c>
-      <c r="DF3" s="184" t="s">
+      <c r="DF3" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="DG3" s="184" t="s">
+      <c r="DG3" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="DH3" s="185" t="s">
+      <c r="DH3" s="183" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3133,313 +3115,313 @@
         <v>7</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="126">
+      <c r="J4" s="124">
         <v>12</v>
       </c>
-      <c r="K4" s="127">
+      <c r="K4" s="125">
         <v>13</v>
       </c>
-      <c r="L4" s="127">
+      <c r="L4" s="125">
         <v>14</v>
       </c>
-      <c r="M4" s="127">
+      <c r="M4" s="125">
         <v>15</v>
       </c>
-      <c r="N4" s="127">
+      <c r="N4" s="125">
         <v>16</v>
       </c>
-      <c r="O4" s="127">
+      <c r="O4" s="125">
         <v>17</v>
       </c>
-      <c r="P4" s="127">
+      <c r="P4" s="125">
         <v>18</v>
       </c>
-      <c r="Q4" s="127">
+      <c r="Q4" s="125">
         <v>19</v>
       </c>
-      <c r="R4" s="127">
+      <c r="R4" s="125">
         <v>20</v>
       </c>
-      <c r="S4" s="127">
+      <c r="S4" s="125">
         <v>21</v>
       </c>
-      <c r="T4" s="127">
+      <c r="T4" s="125">
         <v>22</v>
       </c>
-      <c r="U4" s="127">
+      <c r="U4" s="125">
         <v>23</v>
       </c>
-      <c r="V4" s="127">
+      <c r="V4" s="125">
         <v>24</v>
       </c>
-      <c r="W4" s="127">
+      <c r="W4" s="125">
         <v>25</v>
       </c>
-      <c r="X4" s="127">
+      <c r="X4" s="125">
         <v>26</v>
       </c>
-      <c r="Y4" s="127">
+      <c r="Y4" s="125">
         <v>27</v>
       </c>
-      <c r="Z4" s="127">
+      <c r="Z4" s="125">
         <v>28</v>
       </c>
-      <c r="AA4" s="127">
+      <c r="AA4" s="125">
         <v>29</v>
       </c>
-      <c r="AB4" s="128">
+      <c r="AB4" s="126">
         <v>30</v>
       </c>
-      <c r="AC4" s="134">
+      <c r="AC4" s="132">
         <v>31</v>
       </c>
-      <c r="AD4" s="135">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="135">
+      <c r="AD4" s="133">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="133">
         <v>2</v>
       </c>
-      <c r="AF4" s="135">
+      <c r="AF4" s="133">
         <v>3</v>
       </c>
-      <c r="AG4" s="135">
+      <c r="AG4" s="133">
         <v>4</v>
       </c>
-      <c r="AH4" s="135">
+      <c r="AH4" s="133">
         <v>5</v>
       </c>
-      <c r="AI4" s="135">
+      <c r="AI4" s="133">
         <v>6</v>
       </c>
-      <c r="AJ4" s="135">
+      <c r="AJ4" s="133">
         <v>7</v>
       </c>
-      <c r="AK4" s="135">
+      <c r="AK4" s="133">
         <v>8</v>
       </c>
-      <c r="AL4" s="135">
+      <c r="AL4" s="133">
         <v>9</v>
       </c>
-      <c r="AM4" s="135">
+      <c r="AM4" s="133">
         <v>10</v>
       </c>
-      <c r="AN4" s="135">
+      <c r="AN4" s="133">
         <v>11</v>
       </c>
-      <c r="AO4" s="135">
+      <c r="AO4" s="133">
         <v>12</v>
       </c>
-      <c r="AP4" s="136">
+      <c r="AP4" s="134">
         <v>13</v>
       </c>
-      <c r="AQ4" s="140">
+      <c r="AQ4" s="138">
         <v>14</v>
       </c>
-      <c r="AR4" s="141">
+      <c r="AR4" s="139">
         <v>15</v>
       </c>
-      <c r="AS4" s="141">
+      <c r="AS4" s="139">
         <v>16</v>
       </c>
-      <c r="AT4" s="141">
+      <c r="AT4" s="139">
         <v>17</v>
       </c>
-      <c r="AU4" s="141">
+      <c r="AU4" s="139">
         <v>18</v>
       </c>
-      <c r="AV4" s="141">
+      <c r="AV4" s="139">
         <v>19</v>
       </c>
-      <c r="AW4" s="141">
+      <c r="AW4" s="139">
         <v>20</v>
       </c>
-      <c r="AX4" s="141">
+      <c r="AX4" s="139">
         <v>21</v>
       </c>
-      <c r="AY4" s="141">
+      <c r="AY4" s="139">
         <v>22</v>
       </c>
-      <c r="AZ4" s="141">
+      <c r="AZ4" s="139">
         <v>23</v>
       </c>
-      <c r="BA4" s="141">
+      <c r="BA4" s="139">
         <v>24</v>
       </c>
-      <c r="BB4" s="141">
+      <c r="BB4" s="139">
         <v>25</v>
       </c>
-      <c r="BC4" s="141">
+      <c r="BC4" s="139">
         <v>26</v>
       </c>
-      <c r="BD4" s="142">
+      <c r="BD4" s="140">
         <v>27</v>
       </c>
-      <c r="BE4" s="190">
+      <c r="BE4" s="188">
         <v>28</v>
       </c>
-      <c r="BF4" s="191">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="191">
+      <c r="BF4" s="189">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="189">
         <v>2</v>
       </c>
-      <c r="BH4" s="191">
+      <c r="BH4" s="189">
         <v>3</v>
       </c>
-      <c r="BI4" s="192">
+      <c r="BI4" s="190">
         <v>4</v>
       </c>
-      <c r="BJ4" s="146">
+      <c r="BJ4" s="144">
         <v>5</v>
       </c>
-      <c r="BK4" s="147">
+      <c r="BK4" s="145">
         <v>6</v>
       </c>
-      <c r="BL4" s="147">
+      <c r="BL4" s="145">
         <v>7</v>
       </c>
-      <c r="BM4" s="147">
+      <c r="BM4" s="145">
         <v>8</v>
       </c>
-      <c r="BN4" s="147">
+      <c r="BN4" s="145">
         <v>9</v>
       </c>
-      <c r="BO4" s="147">
+      <c r="BO4" s="145">
         <v>10</v>
       </c>
-      <c r="BP4" s="147">
+      <c r="BP4" s="145">
         <v>11</v>
       </c>
-      <c r="BQ4" s="147">
+      <c r="BQ4" s="145">
         <v>12</v>
       </c>
-      <c r="BR4" s="147">
+      <c r="BR4" s="145">
         <v>13</v>
       </c>
-      <c r="BS4" s="147">
+      <c r="BS4" s="145">
         <v>14</v>
       </c>
-      <c r="BT4" s="147">
+      <c r="BT4" s="145">
         <v>15</v>
       </c>
-      <c r="BU4" s="147">
+      <c r="BU4" s="145">
         <v>16</v>
       </c>
-      <c r="BV4" s="147">
+      <c r="BV4" s="145">
         <v>17</v>
       </c>
-      <c r="BW4" s="147">
+      <c r="BW4" s="145">
         <v>18</v>
       </c>
-      <c r="BX4" s="147">
+      <c r="BX4" s="145">
         <v>19</v>
       </c>
-      <c r="BY4" s="148">
+      <c r="BY4" s="146">
         <v>20</v>
       </c>
-      <c r="BZ4" s="152">
+      <c r="BZ4" s="150">
         <v>21</v>
       </c>
-      <c r="CA4" s="153">
+      <c r="CA4" s="151">
         <v>22</v>
       </c>
-      <c r="CB4" s="153">
+      <c r="CB4" s="151">
         <v>23</v>
       </c>
-      <c r="CC4" s="153">
+      <c r="CC4" s="151">
         <v>24</v>
       </c>
-      <c r="CD4" s="153">
+      <c r="CD4" s="151">
         <v>25</v>
       </c>
-      <c r="CE4" s="153">
+      <c r="CE4" s="151">
         <v>26</v>
       </c>
-      <c r="CF4" s="153">
+      <c r="CF4" s="151">
         <v>27</v>
       </c>
-      <c r="CG4" s="153">
+      <c r="CG4" s="151">
         <v>28</v>
       </c>
-      <c r="CH4" s="153">
+      <c r="CH4" s="151">
         <v>29</v>
       </c>
-      <c r="CI4" s="153">
+      <c r="CI4" s="151">
         <v>30</v>
       </c>
-      <c r="CJ4" s="153">
+      <c r="CJ4" s="151">
         <v>31</v>
       </c>
-      <c r="CK4" s="153">
-        <v>1</v>
-      </c>
-      <c r="CL4" s="153">
+      <c r="CK4" s="151">
+        <v>1</v>
+      </c>
+      <c r="CL4" s="151">
         <v>2</v>
       </c>
-      <c r="CM4" s="153">
+      <c r="CM4" s="151">
         <v>3</v>
       </c>
-      <c r="CN4" s="154">
+      <c r="CN4" s="152">
         <v>4</v>
       </c>
-      <c r="CO4" s="153">
+      <c r="CO4" s="151">
         <v>5</v>
       </c>
-      <c r="CP4" s="153">
+      <c r="CP4" s="151">
         <v>6</v>
       </c>
-      <c r="CQ4" s="153">
+      <c r="CQ4" s="151">
         <v>7</v>
       </c>
-      <c r="CR4" s="154">
+      <c r="CR4" s="152">
         <v>8</v>
       </c>
-      <c r="CS4" s="153">
+      <c r="CS4" s="151">
         <v>9</v>
       </c>
-      <c r="CT4" s="153">
+      <c r="CT4" s="151">
         <v>10</v>
       </c>
-      <c r="CU4" s="153">
+      <c r="CU4" s="151">
         <v>11</v>
       </c>
-      <c r="CV4" s="154">
+      <c r="CV4" s="152">
         <v>12</v>
       </c>
-      <c r="CW4" s="153">
+      <c r="CW4" s="151">
         <v>13</v>
       </c>
-      <c r="CX4" s="153">
+      <c r="CX4" s="151">
         <v>14</v>
       </c>
-      <c r="CY4" s="155">
+      <c r="CY4" s="153">
         <v>15</v>
       </c>
-      <c r="CZ4" s="159">
+      <c r="CZ4" s="157">
         <v>16</v>
       </c>
-      <c r="DA4" s="160">
+      <c r="DA4" s="158">
         <v>17</v>
       </c>
-      <c r="DB4" s="160">
+      <c r="DB4" s="158">
         <v>18</v>
       </c>
-      <c r="DC4" s="160">
+      <c r="DC4" s="158">
         <v>19</v>
       </c>
-      <c r="DD4" s="161">
+      <c r="DD4" s="159">
         <v>20</v>
       </c>
-      <c r="DE4" s="160">
+      <c r="DE4" s="158">
         <v>21</v>
       </c>
-      <c r="DF4" s="160">
+      <c r="DF4" s="158">
         <v>22</v>
       </c>
-      <c r="DG4" s="160">
+      <c r="DG4" s="158">
         <v>23</v>
       </c>
-      <c r="DH4" s="162">
+      <c r="DH4" s="160">
         <v>24</v>
       </c>
       <c r="DL4" s="20"/>
@@ -3451,317 +3433,317 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="199" t="s">
+      <c r="H5" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="199"/>
-      <c r="J5" s="129">
-        <v>1</v>
-      </c>
-      <c r="K5" s="130">
+      <c r="I5" s="197"/>
+      <c r="J5" s="127">
+        <v>1</v>
+      </c>
+      <c r="K5" s="128">
         <v>2</v>
       </c>
-      <c r="L5" s="130">
+      <c r="L5" s="128">
         <v>3</v>
       </c>
-      <c r="M5" s="130">
+      <c r="M5" s="128">
         <v>4</v>
       </c>
-      <c r="N5" s="130">
+      <c r="N5" s="128">
         <v>5</v>
       </c>
-      <c r="O5" s="130">
+      <c r="O5" s="128">
         <v>6</v>
       </c>
-      <c r="P5" s="130">
+      <c r="P5" s="128">
         <v>7</v>
       </c>
-      <c r="Q5" s="130">
+      <c r="Q5" s="128">
         <v>8</v>
       </c>
-      <c r="R5" s="130">
+      <c r="R5" s="128">
         <v>9</v>
       </c>
-      <c r="S5" s="130">
+      <c r="S5" s="128">
         <v>10</v>
       </c>
-      <c r="T5" s="130">
+      <c r="T5" s="128">
         <v>11</v>
       </c>
-      <c r="U5" s="130">
+      <c r="U5" s="128">
         <v>12</v>
       </c>
-      <c r="V5" s="130">
+      <c r="V5" s="128">
         <v>13</v>
       </c>
-      <c r="W5" s="130">
+      <c r="W5" s="128">
         <v>14</v>
       </c>
-      <c r="X5" s="130">
+      <c r="X5" s="128">
         <v>15</v>
       </c>
-      <c r="Y5" s="130">
+      <c r="Y5" s="128">
         <v>16</v>
       </c>
-      <c r="Z5" s="130">
+      <c r="Z5" s="128">
         <v>17</v>
       </c>
-      <c r="AA5" s="130">
+      <c r="AA5" s="128">
         <v>18</v>
       </c>
-      <c r="AB5" s="131">
+      <c r="AB5" s="129">
         <v>19</v>
       </c>
-      <c r="AC5" s="137">
+      <c r="AC5" s="135">
         <v>20</v>
       </c>
-      <c r="AD5" s="138">
+      <c r="AD5" s="136">
         <v>21</v>
       </c>
-      <c r="AE5" s="138">
+      <c r="AE5" s="136">
         <v>22</v>
       </c>
-      <c r="AF5" s="138">
+      <c r="AF5" s="136">
         <v>23</v>
       </c>
-      <c r="AG5" s="138">
+      <c r="AG5" s="136">
         <v>24</v>
       </c>
-      <c r="AH5" s="138">
+      <c r="AH5" s="136">
         <v>25</v>
       </c>
-      <c r="AI5" s="138">
+      <c r="AI5" s="136">
         <v>26</v>
       </c>
-      <c r="AJ5" s="138">
+      <c r="AJ5" s="136">
         <v>27</v>
       </c>
-      <c r="AK5" s="138">
+      <c r="AK5" s="136">
         <v>28</v>
       </c>
-      <c r="AL5" s="138">
+      <c r="AL5" s="136">
         <v>29</v>
       </c>
-      <c r="AM5" s="138">
+      <c r="AM5" s="136">
         <v>30</v>
       </c>
-      <c r="AN5" s="138">
+      <c r="AN5" s="136">
         <v>31</v>
       </c>
-      <c r="AO5" s="138">
+      <c r="AO5" s="136">
         <v>32</v>
       </c>
-      <c r="AP5" s="139">
+      <c r="AP5" s="137">
         <v>33</v>
       </c>
-      <c r="AQ5" s="143">
+      <c r="AQ5" s="141">
         <v>34</v>
       </c>
-      <c r="AR5" s="144">
+      <c r="AR5" s="142">
         <v>35</v>
       </c>
-      <c r="AS5" s="144">
+      <c r="AS5" s="142">
         <v>36</v>
       </c>
-      <c r="AT5" s="144">
+      <c r="AT5" s="142">
         <v>37</v>
       </c>
-      <c r="AU5" s="144">
+      <c r="AU5" s="142">
         <v>38</v>
       </c>
-      <c r="AV5" s="144">
+      <c r="AV5" s="142">
         <v>39</v>
       </c>
-      <c r="AW5" s="144">
+      <c r="AW5" s="142">
         <v>40</v>
       </c>
-      <c r="AX5" s="144">
+      <c r="AX5" s="142">
         <v>41</v>
       </c>
-      <c r="AY5" s="144">
+      <c r="AY5" s="142">
         <v>42</v>
       </c>
-      <c r="AZ5" s="144">
+      <c r="AZ5" s="142">
         <v>43</v>
       </c>
-      <c r="BA5" s="144">
+      <c r="BA5" s="142">
         <v>44</v>
       </c>
-      <c r="BB5" s="144">
+      <c r="BB5" s="142">
         <v>45</v>
       </c>
-      <c r="BC5" s="144">
+      <c r="BC5" s="142">
         <v>46</v>
       </c>
-      <c r="BD5" s="145">
+      <c r="BD5" s="143">
         <v>47</v>
       </c>
-      <c r="BE5" s="193">
+      <c r="BE5" s="191">
         <v>48</v>
       </c>
-      <c r="BF5" s="194">
+      <c r="BF5" s="192">
         <v>49</v>
       </c>
-      <c r="BG5" s="194">
+      <c r="BG5" s="192">
         <v>50</v>
       </c>
-      <c r="BH5" s="194">
+      <c r="BH5" s="192">
         <v>51</v>
       </c>
-      <c r="BI5" s="195">
+      <c r="BI5" s="193">
         <v>52</v>
       </c>
-      <c r="BJ5" s="149">
+      <c r="BJ5" s="147">
         <v>53</v>
       </c>
-      <c r="BK5" s="150">
+      <c r="BK5" s="148">
         <v>54</v>
       </c>
-      <c r="BL5" s="150">
+      <c r="BL5" s="148">
         <v>55</v>
       </c>
-      <c r="BM5" s="150">
+      <c r="BM5" s="148">
         <v>56</v>
       </c>
-      <c r="BN5" s="150">
+      <c r="BN5" s="148">
         <v>57</v>
       </c>
-      <c r="BO5" s="150">
+      <c r="BO5" s="148">
         <v>58</v>
       </c>
-      <c r="BP5" s="150">
+      <c r="BP5" s="148">
         <v>59</v>
       </c>
-      <c r="BQ5" s="150">
+      <c r="BQ5" s="148">
         <v>60</v>
       </c>
-      <c r="BR5" s="150">
+      <c r="BR5" s="148">
         <v>61</v>
       </c>
-      <c r="BS5" s="150">
+      <c r="BS5" s="148">
         <v>62</v>
       </c>
-      <c r="BT5" s="150">
+      <c r="BT5" s="148">
         <v>63</v>
       </c>
-      <c r="BU5" s="150">
+      <c r="BU5" s="148">
         <v>64</v>
       </c>
-      <c r="BV5" s="150">
+      <c r="BV5" s="148">
         <v>65</v>
       </c>
-      <c r="BW5" s="150">
+      <c r="BW5" s="148">
         <v>66</v>
       </c>
-      <c r="BX5" s="150">
+      <c r="BX5" s="148">
         <v>67</v>
       </c>
-      <c r="BY5" s="151">
+      <c r="BY5" s="149">
         <v>68</v>
       </c>
-      <c r="BZ5" s="156">
+      <c r="BZ5" s="154">
         <v>69</v>
       </c>
-      <c r="CA5" s="157">
+      <c r="CA5" s="155">
         <v>70</v>
       </c>
-      <c r="CB5" s="157">
+      <c r="CB5" s="155">
         <v>71</v>
       </c>
-      <c r="CC5" s="157">
+      <c r="CC5" s="155">
         <v>72</v>
       </c>
-      <c r="CD5" s="157">
+      <c r="CD5" s="155">
         <v>73</v>
       </c>
-      <c r="CE5" s="157">
+      <c r="CE5" s="155">
         <v>74</v>
       </c>
-      <c r="CF5" s="157">
+      <c r="CF5" s="155">
         <v>75</v>
       </c>
-      <c r="CG5" s="157">
+      <c r="CG5" s="155">
         <v>76</v>
       </c>
-      <c r="CH5" s="157">
+      <c r="CH5" s="155">
         <v>77</v>
       </c>
-      <c r="CI5" s="157">
+      <c r="CI5" s="155">
         <v>78</v>
       </c>
-      <c r="CJ5" s="157">
+      <c r="CJ5" s="155">
         <v>79</v>
       </c>
-      <c r="CK5" s="157">
+      <c r="CK5" s="155">
         <v>80</v>
       </c>
-      <c r="CL5" s="157">
+      <c r="CL5" s="155">
         <v>81</v>
       </c>
-      <c r="CM5" s="157">
+      <c r="CM5" s="155">
         <v>82</v>
       </c>
-      <c r="CN5" s="157">
+      <c r="CN5" s="155">
         <v>83</v>
       </c>
-      <c r="CO5" s="157">
+      <c r="CO5" s="155">
         <v>84</v>
       </c>
-      <c r="CP5" s="157">
+      <c r="CP5" s="155">
         <v>85</v>
       </c>
-      <c r="CQ5" s="157">
+      <c r="CQ5" s="155">
         <v>86</v>
       </c>
-      <c r="CR5" s="157">
+      <c r="CR5" s="155">
         <v>87</v>
       </c>
-      <c r="CS5" s="157">
+      <c r="CS5" s="155">
         <v>88</v>
       </c>
-      <c r="CT5" s="157">
+      <c r="CT5" s="155">
         <v>89</v>
       </c>
-      <c r="CU5" s="157">
+      <c r="CU5" s="155">
         <v>90</v>
       </c>
-      <c r="CV5" s="157">
+      <c r="CV5" s="155">
         <v>91</v>
       </c>
-      <c r="CW5" s="157">
+      <c r="CW5" s="155">
         <v>92</v>
       </c>
-      <c r="CX5" s="157">
+      <c r="CX5" s="155">
         <v>93</v>
       </c>
-      <c r="CY5" s="158">
+      <c r="CY5" s="156">
         <v>94</v>
       </c>
-      <c r="CZ5" s="163">
+      <c r="CZ5" s="161">
         <v>95</v>
       </c>
-      <c r="DA5" s="164">
+      <c r="DA5" s="162">
         <v>96</v>
       </c>
-      <c r="DB5" s="164">
+      <c r="DB5" s="162">
         <v>97</v>
       </c>
-      <c r="DC5" s="164">
+      <c r="DC5" s="162">
         <v>98</v>
       </c>
-      <c r="DD5" s="164">
+      <c r="DD5" s="162">
         <v>99</v>
       </c>
-      <c r="DE5" s="164">
+      <c r="DE5" s="162">
         <v>100</v>
       </c>
-      <c r="DF5" s="164">
+      <c r="DF5" s="162">
         <v>101</v>
       </c>
-      <c r="DG5" s="164">
+      <c r="DG5" s="162">
         <v>102</v>
       </c>
-      <c r="DH5" s="165">
+      <c r="DH5" s="163">
         <v>103</v>
       </c>
       <c r="DI5" s="3"/>
@@ -3781,7 +3763,7 @@
       <c r="B6" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="105" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="39">
@@ -3794,10 +3776,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="39">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H6" s="40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I6" s="41"/>
     </row>
@@ -3805,7 +3787,7 @@
       <c r="B7" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="106" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="42">
@@ -3818,18 +3800,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="42">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H7" s="43">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="106" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="42">
@@ -3842,10 +3824,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="42">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H8" s="43">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="44"/>
     </row>
@@ -3853,7 +3835,7 @@
       <c r="B9" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="106" t="s">
         <v>88</v>
       </c>
       <c r="D9" s="42">
@@ -3877,7 +3859,7 @@
       <c r="B10" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="42">
@@ -3901,7 +3883,7 @@
       <c r="B11" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="106" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="42">
@@ -3925,7 +3907,7 @@
       <c r="B12" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="107" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="52">
@@ -3941,7 +3923,7 @@
         <v>23</v>
       </c>
       <c r="H12" s="53">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I12" s="54"/>
     </row>
@@ -3949,7 +3931,7 @@
       <c r="B13" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="108" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="47">
@@ -3962,18 +3944,18 @@
         <v>11</v>
       </c>
       <c r="G13" s="47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H13" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="108" t="s">
         <v>88</v>
       </c>
       <c r="D14" s="47">
@@ -3989,15 +3971,15 @@
         <v>6</v>
       </c>
       <c r="H14" s="48">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I14" s="56"/>
     </row>
     <row r="15" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="108" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="47">
@@ -4010,18 +3992,18 @@
         <v>10</v>
       </c>
       <c r="G15" s="47">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H15" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="108" t="s">
         <v>85</v>
       </c>
       <c r="D16" s="47">
@@ -4034,18 +4016,18 @@
         <v>8</v>
       </c>
       <c r="G16" s="47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H16" s="48">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I16" s="56"/>
     </row>
     <row r="17" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="108" t="s">
         <v>84</v>
       </c>
       <c r="D17" s="47">
@@ -4058,599 +4040,503 @@
         <v>15</v>
       </c>
       <c r="G17" s="47">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H17" s="48">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I17" s="56"/>
     </row>
     <row r="18" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="109" t="s">
-        <v>85</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>86</v>
       </c>
       <c r="D18" s="47">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E18" s="47">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" s="47">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G18" s="47">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H18" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="56"/>
     </row>
     <row r="19" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="109" t="s">
-        <v>86</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>88</v>
       </c>
       <c r="D19" s="47">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19" s="47">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F19" s="47">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G19" s="47">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H19" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="56"/>
     </row>
     <row r="20" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="108" t="s">
         <v>88</v>
       </c>
       <c r="D20" s="47">
         <v>11</v>
       </c>
       <c r="E20" s="47">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F20" s="47">
         <v>11</v>
       </c>
       <c r="G20" s="47">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H20" s="48">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I20" s="56"/>
     </row>
     <row r="21" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="109" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="C21" s="108" t="s">
+        <v>85</v>
       </c>
       <c r="D21" s="47">
         <v>20</v>
       </c>
       <c r="E21" s="47">
+        <v>9</v>
+      </c>
+      <c r="F21" s="47">
+        <v>23</v>
+      </c>
+      <c r="G21" s="47">
+        <v>9</v>
+      </c>
+      <c r="H21" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="62">
+        <v>5</v>
+      </c>
+      <c r="E22" s="62">
+        <v>43</v>
+      </c>
+      <c r="F22" s="62">
+        <v>34</v>
+      </c>
+      <c r="G22" s="62">
+        <v>17</v>
+      </c>
+      <c r="H22" s="67">
+        <v>0</v>
+      </c>
+      <c r="I22" s="64"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="66">
+        <v>30</v>
+      </c>
+      <c r="E23" s="66">
+        <v>18</v>
+      </c>
+      <c r="F23" s="66">
+        <v>32</v>
+      </c>
+      <c r="G23" s="66">
+        <v>18</v>
+      </c>
+      <c r="H23" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="68"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="66">
+        <v>26</v>
+      </c>
+      <c r="E24" s="66">
+        <v>22</v>
+      </c>
+      <c r="F24" s="66">
+        <v>26</v>
+      </c>
+      <c r="G24" s="66">
+        <v>22</v>
+      </c>
+      <c r="H24" s="67">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="68"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="66">
+        <v>34</v>
+      </c>
+      <c r="E25" s="66">
         <v>14</v>
       </c>
-      <c r="F21" s="47">
-        <v>20</v>
-      </c>
-      <c r="G21" s="47">
+      <c r="F25" s="66">
+        <v>34</v>
+      </c>
+      <c r="G25" s="66">
         <v>14</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H25" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="68"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="66">
+        <v>32</v>
+      </c>
+      <c r="E26" s="66">
+        <v>12</v>
+      </c>
+      <c r="F26" s="66">
+        <v>32</v>
+      </c>
+      <c r="G26" s="66">
+        <v>12</v>
+      </c>
+      <c r="H26" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="68"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="69">
+        <v>10</v>
+      </c>
+      <c r="E27" s="66">
+        <v>33</v>
+      </c>
+      <c r="F27" s="66">
+        <v>33</v>
+      </c>
+      <c r="G27" s="66">
+        <v>18</v>
+      </c>
+      <c r="H27" s="67">
         <v>0</v>
       </c>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="109" t="s">
+      <c r="I27" s="68"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="71">
+        <v>8</v>
+      </c>
+      <c r="E28" s="71">
+        <v>35</v>
+      </c>
+      <c r="F28" s="71">
+        <v>28</v>
+      </c>
+      <c r="G28" s="71">
+        <v>16</v>
+      </c>
+      <c r="H28" s="72">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="73"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="75">
+        <v>34</v>
+      </c>
+      <c r="E29" s="75">
+        <v>19</v>
+      </c>
+      <c r="F29" s="75">
+        <v>34</v>
+      </c>
+      <c r="G29" s="75">
+        <v>19</v>
+      </c>
+      <c r="H29" s="76">
+        <v>0</v>
+      </c>
+      <c r="I29" s="77"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="79">
+        <v>40</v>
+      </c>
+      <c r="E30" s="79">
+        <v>14</v>
+      </c>
+      <c r="F30" s="79">
+        <v>40</v>
+      </c>
+      <c r="G30" s="79">
+        <v>14</v>
+      </c>
+      <c r="H30" s="80">
+        <v>0</v>
+      </c>
+      <c r="I30" s="81"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="47">
-        <v>11</v>
-      </c>
-      <c r="E22" s="47">
-        <v>23</v>
-      </c>
-      <c r="F22" s="47">
-        <v>11</v>
-      </c>
-      <c r="G22" s="47">
-        <v>23</v>
-      </c>
-      <c r="H22" s="48">
+      <c r="D31" s="79">
+        <v>34</v>
+      </c>
+      <c r="E31" s="79">
+        <v>16</v>
+      </c>
+      <c r="F31" s="79">
+        <v>34</v>
+      </c>
+      <c r="G31" s="79">
+        <v>16</v>
+      </c>
+      <c r="H31" s="80">
         <v>0</v>
       </c>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="47">
-        <v>20</v>
-      </c>
-      <c r="E23" s="47">
+      <c r="I31" s="81"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="79">
+        <v>40</v>
+      </c>
+      <c r="E32" s="79">
+        <v>14</v>
+      </c>
+      <c r="F32" s="79">
+        <v>40</v>
+      </c>
+      <c r="G32" s="79">
+        <v>14</v>
+      </c>
+      <c r="H32" s="184">
+        <v>0</v>
+      </c>
+      <c r="I32" s="81"/>
+    </row>
+    <row r="33" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="83">
+        <v>40</v>
+      </c>
+      <c r="E33" s="83">
+        <v>29</v>
+      </c>
+      <c r="F33" s="83">
+        <v>40</v>
+      </c>
+      <c r="G33" s="83">
+        <v>29</v>
+      </c>
+      <c r="H33" s="84">
+        <v>0</v>
+      </c>
+      <c r="I33" s="85"/>
+    </row>
+    <row r="34" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="89">
+        <v>48</v>
+      </c>
+      <c r="E34" s="89">
+        <v>21</v>
+      </c>
+      <c r="F34" s="89">
+        <v>48</v>
+      </c>
+      <c r="G34" s="89">
+        <v>21</v>
+      </c>
+      <c r="H34" s="90">
+        <v>0</v>
+      </c>
+      <c r="I34" s="91"/>
+    </row>
+    <row r="35" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="89">
+        <v>54</v>
+      </c>
+      <c r="E35" s="89">
+        <v>12</v>
+      </c>
+      <c r="F35" s="89">
+        <v>54</v>
+      </c>
+      <c r="G35" s="89">
+        <v>12</v>
+      </c>
+      <c r="H35" s="194">
+        <v>0</v>
+      </c>
+      <c r="I35" s="91"/>
+    </row>
+    <row r="36" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="93">
+        <v>69</v>
+      </c>
+      <c r="E36" s="93">
+        <v>26</v>
+      </c>
+      <c r="F36" s="93">
+        <v>69</v>
+      </c>
+      <c r="G36" s="93">
+        <v>26</v>
+      </c>
+      <c r="H36" s="195">
+        <v>0</v>
+      </c>
+      <c r="I36" s="95"/>
+    </row>
+    <row r="37" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="117" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="101">
+        <v>95</v>
+      </c>
+      <c r="E37" s="101">
         <v>9</v>
       </c>
-      <c r="F23" s="47">
-        <v>20</v>
-      </c>
-      <c r="G23" s="47">
+      <c r="F37" s="101">
+        <v>95</v>
+      </c>
+      <c r="G37" s="101">
         <v>9</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H37" s="102">
         <v>0</v>
       </c>
-      <c r="I23" s="56"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="58">
-        <v>11</v>
-      </c>
-      <c r="E24" s="59">
-        <v>23</v>
-      </c>
-      <c r="F24" s="59">
-        <v>11</v>
-      </c>
-      <c r="G24" s="59">
-        <v>23</v>
-      </c>
-      <c r="H24" s="60">
-        <v>0</v>
-      </c>
-      <c r="I24" s="61"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="63">
-        <v>5</v>
-      </c>
-      <c r="E25" s="63">
-        <v>43</v>
-      </c>
-      <c r="F25" s="63">
-        <v>5</v>
-      </c>
-      <c r="G25" s="63">
-        <v>43</v>
-      </c>
-      <c r="H25" s="68">
-        <v>0</v>
-      </c>
-      <c r="I25" s="65"/>
-    </row>
-    <row r="26" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="67">
-        <v>30</v>
-      </c>
-      <c r="E26" s="67">
-        <v>18</v>
-      </c>
-      <c r="F26" s="67">
-        <v>30</v>
-      </c>
-      <c r="G26" s="67">
-        <v>18</v>
-      </c>
-      <c r="H26" s="68">
-        <v>0</v>
-      </c>
-      <c r="I26" s="69"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="67">
-        <v>26</v>
-      </c>
-      <c r="E27" s="67">
-        <v>22</v>
-      </c>
-      <c r="F27" s="67">
-        <v>26</v>
-      </c>
-      <c r="G27" s="67">
-        <v>22</v>
-      </c>
-      <c r="H27" s="68">
-        <v>0</v>
-      </c>
-      <c r="I27" s="69"/>
-    </row>
-    <row r="28" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="67">
-        <v>26</v>
-      </c>
-      <c r="E28" s="67">
-        <v>22</v>
-      </c>
-      <c r="F28" s="67">
-        <v>26</v>
-      </c>
-      <c r="G28" s="67">
-        <v>22</v>
-      </c>
-      <c r="H28" s="68">
-        <v>0</v>
-      </c>
-      <c r="I28" s="69"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="67">
-        <v>34</v>
-      </c>
-      <c r="E29" s="67">
-        <v>14</v>
-      </c>
-      <c r="F29" s="67">
-        <v>34</v>
-      </c>
-      <c r="G29" s="67">
-        <v>14</v>
-      </c>
-      <c r="H29" s="68">
-        <v>0</v>
-      </c>
-      <c r="I29" s="69"/>
-    </row>
-    <row r="30" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="67">
-        <v>34</v>
-      </c>
-      <c r="E30" s="67">
-        <v>14</v>
-      </c>
-      <c r="F30" s="67">
-        <v>34</v>
-      </c>
-      <c r="G30" s="67">
-        <v>14</v>
-      </c>
-      <c r="H30" s="68">
-        <v>0</v>
-      </c>
-      <c r="I30" s="69"/>
-    </row>
-    <row r="31" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="70">
-        <v>10</v>
-      </c>
-      <c r="E31" s="67">
-        <v>33</v>
-      </c>
-      <c r="F31" s="67">
-        <v>10</v>
-      </c>
-      <c r="G31" s="67">
-        <v>33</v>
-      </c>
-      <c r="H31" s="68">
-        <v>0</v>
-      </c>
-      <c r="I31" s="69"/>
-    </row>
-    <row r="32" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="72">
-        <v>8</v>
-      </c>
-      <c r="E32" s="72">
-        <v>35</v>
-      </c>
-      <c r="F32" s="72">
-        <v>8</v>
-      </c>
-      <c r="G32" s="72">
-        <v>35</v>
-      </c>
-      <c r="H32" s="73">
-        <v>0</v>
-      </c>
-      <c r="I32" s="74"/>
-    </row>
-    <row r="33" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="114" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="76">
-        <v>34</v>
-      </c>
-      <c r="E33" s="76">
-        <v>19</v>
-      </c>
-      <c r="F33" s="76">
-        <v>34</v>
-      </c>
-      <c r="G33" s="76">
-        <v>19</v>
-      </c>
-      <c r="H33" s="77">
-        <v>0</v>
-      </c>
-      <c r="I33" s="78"/>
-    </row>
-    <row r="34" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="80">
-        <v>40</v>
-      </c>
-      <c r="E34" s="80">
-        <v>14</v>
-      </c>
-      <c r="F34" s="80">
-        <v>40</v>
-      </c>
-      <c r="G34" s="80">
-        <v>14</v>
-      </c>
-      <c r="H34" s="81">
-        <v>0</v>
-      </c>
-      <c r="I34" s="82"/>
-    </row>
-    <row r="35" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="115" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="80">
-        <v>34</v>
-      </c>
-      <c r="E35" s="80">
-        <v>16</v>
-      </c>
-      <c r="F35" s="80">
-        <v>34</v>
-      </c>
-      <c r="G35" s="80">
-        <v>16</v>
-      </c>
-      <c r="H35" s="81">
-        <v>0</v>
-      </c>
-      <c r="I35" s="82"/>
-    </row>
-    <row r="36" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="80">
-        <v>40</v>
-      </c>
-      <c r="E36" s="80">
-        <v>14</v>
-      </c>
-      <c r="F36" s="80">
-        <v>40</v>
-      </c>
-      <c r="G36" s="80">
-        <v>14</v>
-      </c>
-      <c r="H36" s="186">
-        <v>0</v>
-      </c>
-      <c r="I36" s="82"/>
-    </row>
-    <row r="37" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="84">
-        <v>40</v>
-      </c>
-      <c r="E37" s="84">
-        <v>29</v>
-      </c>
-      <c r="F37" s="84">
-        <v>40</v>
-      </c>
-      <c r="G37" s="84">
-        <v>29</v>
-      </c>
-      <c r="H37" s="85">
-        <v>0</v>
-      </c>
-      <c r="I37" s="86"/>
-    </row>
-    <row r="38" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="117" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="90">
-        <v>48</v>
-      </c>
-      <c r="E38" s="90">
-        <v>21</v>
-      </c>
-      <c r="F38" s="90">
-        <v>48</v>
-      </c>
-      <c r="G38" s="90">
-        <v>21</v>
-      </c>
-      <c r="H38" s="91">
-        <v>0</v>
-      </c>
-      <c r="I38" s="92"/>
-    </row>
-    <row r="39" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="90">
-        <v>54</v>
-      </c>
-      <c r="E39" s="90">
-        <v>12</v>
-      </c>
-      <c r="F39" s="90">
-        <v>54</v>
-      </c>
-      <c r="G39" s="90">
-        <v>12</v>
-      </c>
-      <c r="H39" s="196">
-        <v>0</v>
-      </c>
-      <c r="I39" s="92"/>
-    </row>
-    <row r="40" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="94">
-        <v>69</v>
-      </c>
-      <c r="E40" s="94">
-        <v>26</v>
-      </c>
-      <c r="F40" s="94">
-        <v>69</v>
-      </c>
-      <c r="G40" s="94">
-        <v>26</v>
-      </c>
-      <c r="H40" s="197">
-        <v>0</v>
-      </c>
-      <c r="I40" s="96"/>
-    </row>
-    <row r="41" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="102">
-        <v>95</v>
-      </c>
-      <c r="E41" s="102">
-        <v>9</v>
-      </c>
-      <c r="F41" s="102">
-        <v>95</v>
-      </c>
-      <c r="G41" s="102">
-        <v>9</v>
-      </c>
-      <c r="H41" s="103">
-        <v>0</v>
-      </c>
-      <c r="I41" s="104"/>
-      <c r="DF41" s="87"/>
-    </row>
-    <row r="42" spans="2:110" x14ac:dyDescent="0.3">
-      <c r="DF42" s="88"/>
+      <c r="I37" s="103"/>
+      <c r="DF37" s="86"/>
+    </row>
+    <row r="38" spans="2:110" x14ac:dyDescent="0.3">
+      <c r="DF38" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <conditionalFormatting sqref="DP41:DT41 J41:DL41 J6:DT40">
+  <conditionalFormatting sqref="DP37:DT37 J37:DL37 J6:DT36">
     <cfRule type="expression" dxfId="51" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -4676,7 +4562,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:DE42">
+  <conditionalFormatting sqref="B38:DE38">
     <cfRule type="expression" dxfId="43" priority="26">
       <formula>TRUE</formula>
     </cfRule>
@@ -4686,7 +4572,7 @@
       <formula>J$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DM41:DO41">
+  <conditionalFormatting sqref="DM37:DO37">
     <cfRule type="expression" dxfId="41" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -4773,7 +4659,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:122" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="196" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="26"/>
@@ -4791,7 +4677,7 @@
       </c>
     </row>
     <row r="2" spans="1:122" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="198"/>
+      <c r="B2" s="196"/>
       <c r="C2" s="26"/>
       <c r="D2" s="30" t="s">
         <v>39</v>
@@ -5287,7 +5173,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="104" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="3">
@@ -5831,409 +5717,409 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="62">
         <v>23</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="62">
         <v>10</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="62">
         <v>23</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="62">
         <v>10</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="66">
         <v>18</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="66">
         <v>20</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="66">
         <v>18</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="66">
         <v>20</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="66">
         <v>13</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="66">
         <v>12</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="66">
         <v>20</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="66">
         <v>16</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="69">
         <v>14</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="66">
         <v>32</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="66">
         <v>14</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="66">
         <v>32</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="71">
         <v>10</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="71">
         <v>36</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="71">
         <v>12</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="71">
         <v>34</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="75">
         <v>31</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="75">
         <v>15</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="75">
         <v>31</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="75">
         <v>22</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="76">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="79">
         <v>41</v>
       </c>
-      <c r="D23" s="80">
+      <c r="D23" s="79">
         <v>14</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="79">
         <v>45</v>
       </c>
-      <c r="F23" s="80">
+      <c r="F23" s="79">
         <v>15</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="80">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="79">
         <v>36</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="79">
         <v>15</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="79">
         <v>36</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="79">
         <v>20</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="80">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="80">
+      <c r="C25" s="79">
         <v>37</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="79">
         <v>14</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="79">
         <v>37</v>
       </c>
-      <c r="F25" s="80">
+      <c r="F25" s="79">
         <v>14</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="80">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="79">
         <v>83</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="79">
         <v>15</v>
       </c>
-      <c r="E26" s="80">
+      <c r="E26" s="79">
         <v>83</v>
       </c>
-      <c r="F26" s="80">
+      <c r="F26" s="79">
         <v>15</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="83">
         <v>43</v>
       </c>
-      <c r="D27" s="84">
+      <c r="D27" s="83">
         <v>21</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="83">
         <v>43</v>
       </c>
-      <c r="F27" s="84">
+      <c r="F27" s="83">
         <v>21</v>
       </c>
-      <c r="G27" s="85">
+      <c r="G27" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="90">
+      <c r="C28" s="89">
         <v>46</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="89">
         <v>12</v>
       </c>
-      <c r="E28" s="90">
+      <c r="E28" s="89">
         <v>51</v>
       </c>
-      <c r="F28" s="90">
+      <c r="F28" s="89">
         <v>13</v>
       </c>
-      <c r="G28" s="91">
+      <c r="G28" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="90">
+      <c r="C29" s="89">
         <v>34</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="89">
         <v>23</v>
       </c>
-      <c r="E29" s="90">
+      <c r="E29" s="89">
         <v>34</v>
       </c>
-      <c r="F29" s="90">
+      <c r="F29" s="89">
         <v>23</v>
       </c>
-      <c r="G29" s="91">
+      <c r="G29" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="90">
+      <c r="C30" s="89">
         <v>43</v>
       </c>
-      <c r="D30" s="90">
+      <c r="D30" s="89">
         <v>15</v>
       </c>
-      <c r="E30" s="90">
+      <c r="E30" s="89">
         <v>43</v>
       </c>
-      <c r="F30" s="90">
+      <c r="F30" s="89">
         <v>29</v>
       </c>
-      <c r="G30" s="91">
+      <c r="G30" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="90">
+      <c r="C31" s="89">
         <v>59</v>
       </c>
-      <c r="D31" s="90">
+      <c r="D31" s="89">
         <v>6</v>
       </c>
-      <c r="E31" s="90">
+      <c r="E31" s="89">
         <v>59</v>
       </c>
-      <c r="F31" s="90">
+      <c r="F31" s="89">
         <v>9</v>
       </c>
-      <c r="G31" s="91">
+      <c r="G31" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="94">
+      <c r="C32" s="93">
         <v>83</v>
       </c>
-      <c r="D32" s="94">
+      <c r="D32" s="93">
         <v>10</v>
       </c>
-      <c r="E32" s="94">
+      <c r="E32" s="93">
         <v>83</v>
       </c>
-      <c r="F32" s="94">
-        <v>1</v>
-      </c>
-      <c r="G32" s="95">
+      <c r="F32" s="93">
+        <v>1</v>
+      </c>
+      <c r="G32" s="94">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="98">
+      <c r="C33" s="97">
         <v>84</v>
       </c>
-      <c r="D33" s="98">
+      <c r="D33" s="97">
         <v>18</v>
       </c>
-      <c r="E33" s="98">
+      <c r="E33" s="97">
         <v>84</v>
       </c>
-      <c r="F33" s="98">
-        <v>1</v>
-      </c>
-      <c r="G33" s="99">
+      <c r="F33" s="97">
+        <v>1</v>
+      </c>
+      <c r="G33" s="98">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="98">
+      <c r="C34" s="97">
         <v>84</v>
       </c>
-      <c r="D34" s="98">
+      <c r="D34" s="97">
         <v>9</v>
       </c>
-      <c r="E34" s="98">
+      <c r="E34" s="97">
         <v>84</v>
       </c>
-      <c r="F34" s="98">
-        <v>1</v>
-      </c>
-      <c r="G34" s="99">
+      <c r="F34" s="97">
+        <v>1</v>
+      </c>
+      <c r="G34" s="98">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="98">
+      <c r="C35" s="97">
         <v>84</v>
       </c>
-      <c r="D35" s="98">
+      <c r="D35" s="97">
         <v>18</v>
       </c>
-      <c r="E35" s="98">
+      <c r="E35" s="97">
         <v>84</v>
       </c>
-      <c r="F35" s="98">
-        <v>1</v>
-      </c>
-      <c r="G35" s="99">
+      <c r="F35" s="97">
+        <v>1</v>
+      </c>
+      <c r="G35" s="98">
         <v>0</v>
       </c>
-      <c r="DD35" s="87"/>
+      <c r="DD35" s="86"/>
     </row>
     <row r="36" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="101" t="s">
+      <c r="B36" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="102">
+      <c r="C36" s="101">
         <v>84</v>
       </c>
-      <c r="D36" s="102">
+      <c r="D36" s="101">
         <v>18</v>
       </c>
-      <c r="E36" s="102">
+      <c r="E36" s="101">
         <v>84</v>
       </c>
-      <c r="F36" s="102">
-        <v>1</v>
-      </c>
-      <c r="G36" s="103">
+      <c r="F36" s="101">
+        <v>1</v>
+      </c>
+      <c r="G36" s="102">
         <v>0</v>
       </c>
-      <c r="DD36" s="87"/>
+      <c r="DD36" s="86"/>
     </row>
     <row r="37" spans="2:108" x14ac:dyDescent="0.3">
-      <c r="DD37" s="88"/>
+      <c r="DD37" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Fieldroid_Gantt.xlsx
+++ b/Fieldroid_Gantt.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="120">
   <si>
     <t>Plan</t>
   </si>
@@ -412,9 +412,6 @@
     <t>Wireless E-Stop</t>
   </si>
   <si>
-    <t>Integrate Last PCB Design</t>
-  </si>
-  <si>
     <t>Full Field Outline</t>
   </si>
   <si>
@@ -464,9 +461,6 @@
   </si>
   <si>
     <t>Cleaning Code</t>
-  </si>
-  <si>
-    <t>Connected Points - Quadratic Progr.</t>
   </si>
   <si>
     <t>Code Integration (new control)</t>
@@ -959,7 +953,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,9 +1185,6 @@
     <xf numFmtId="9" fontId="15" fillId="13" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1294,9 +1285,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2330,7 +2318,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="32"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="49"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2668,12 +2656,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DT38"/>
+  <dimension ref="A1:DT36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="H29" sqref="H29"/>
+      <selection pane="topRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2694,7 +2682,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:124" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="194" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="26"/>
@@ -2714,7 +2702,7 @@
       <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:124" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="196"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="30" t="s">
@@ -2727,33 +2715,33 @@
         <v>75</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="120">
-        <v>32</v>
-      </c>
-      <c r="P2" s="119"/>
-      <c r="R2" s="121"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="118">
+        <v>49</v>
+      </c>
+      <c r="P2" s="117"/>
+      <c r="R2" s="119"/>
       <c r="S2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="122"/>
+      <c r="U2" s="120"/>
       <c r="V2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="123"/>
+      <c r="Y2" s="121"/>
       <c r="Z2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="130"/>
+      <c r="AD2" s="128"/>
       <c r="AE2" s="24" t="s">
         <v>27</v>
       </c>
@@ -2761,29 +2749,29 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="131"/>
+      <c r="AL2" s="129"/>
       <c r="AM2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="121"/>
+      <c r="AU2" s="119"/>
       <c r="AV2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="122"/>
+      <c r="AX2" s="120"/>
       <c r="AY2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="123"/>
+      <c r="BB2" s="121"/>
       <c r="BC2" s="24" t="s">
         <v>26</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="130"/>
+      <c r="BG2" s="128"/>
       <c r="BH2" s="24" t="s">
         <v>27</v>
       </c>
@@ -2791,7 +2779,7 @@
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
-      <c r="BO2" s="131"/>
+      <c r="BO2" s="129"/>
       <c r="BP2" s="24" t="s">
         <v>28</v>
       </c>
@@ -2815,279 +2803,279 @@
         <v>6</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="164" t="s">
+      <c r="J3" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166" t="s">
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="166" t="s">
+      <c r="P3" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="166" t="s">
+      <c r="Q3" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="166" t="s">
+      <c r="R3" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="165" t="s">
+      <c r="S3" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="165" t="s">
+      <c r="T3" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="166" t="s">
+      <c r="U3" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="166" t="s">
+      <c r="V3" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="166" t="s">
+      <c r="W3" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="X3" s="166" t="s">
+      <c r="X3" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="166" t="s">
+      <c r="Y3" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="166" t="s">
+      <c r="Z3" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="166" t="s">
+      <c r="AA3" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="167" t="s">
+      <c r="AB3" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="169" t="s">
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170" t="s">
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="AJ3" s="170" t="s">
+      <c r="AJ3" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="AK3" s="170" t="s">
+      <c r="AK3" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="AL3" s="170" t="s">
+      <c r="AL3" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="AM3" s="170" t="s">
+      <c r="AM3" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="AN3" s="170" t="s">
+      <c r="AN3" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="AO3" s="170" t="s">
+      <c r="AO3" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="AP3" s="171" t="s">
+      <c r="AP3" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="AQ3" s="172" t="s">
+      <c r="AQ3" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="AR3" s="173" t="s">
+      <c r="AR3" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="AS3" s="173" t="s">
+      <c r="AS3" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" s="173" t="s">
+      <c r="AT3" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="AU3" s="173" t="s">
+      <c r="AU3" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="AV3" s="173" t="s">
+      <c r="AV3" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="AW3" s="173" t="s">
+      <c r="AW3" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="AX3" s="173" t="s">
+      <c r="AX3" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="AY3" s="173" t="s">
+      <c r="AY3" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="AZ3" s="173" t="s">
+      <c r="AZ3" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="BA3" s="173" t="s">
+      <c r="BA3" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="BB3" s="173" t="s">
+      <c r="BB3" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="BC3" s="173" t="s">
+      <c r="BC3" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="BD3" s="174" t="s">
+      <c r="BD3" s="172" t="s">
         <v>68</v>
       </c>
-      <c r="BE3" s="185"/>
-      <c r="BF3" s="186" t="s">
+      <c r="BE3" s="183"/>
+      <c r="BF3" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="BG3" s="186"/>
-      <c r="BH3" s="186"/>
-      <c r="BI3" s="187"/>
-      <c r="BJ3" s="175" t="s">
+      <c r="BG3" s="184"/>
+      <c r="BH3" s="184"/>
+      <c r="BI3" s="185"/>
+      <c r="BJ3" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="BK3" s="176" t="s">
+      <c r="BK3" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="BL3" s="176" t="s">
+      <c r="BL3" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="BM3" s="176" t="s">
+      <c r="BM3" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="BN3" s="176" t="s">
+      <c r="BN3" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="BO3" s="176" t="s">
+      <c r="BO3" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="BP3" s="176" t="s">
+      <c r="BP3" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="BQ3" s="176" t="s">
+      <c r="BQ3" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="BR3" s="176" t="s">
+      <c r="BR3" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="BS3" s="176" t="s">
+      <c r="BS3" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="BT3" s="176" t="s">
+      <c r="BT3" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="BU3" s="176" t="s">
+      <c r="BU3" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="BV3" s="176" t="s">
+      <c r="BV3" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="BW3" s="176" t="s">
+      <c r="BW3" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="BX3" s="176" t="s">
+      <c r="BX3" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="BY3" s="177" t="s">
+      <c r="BY3" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="BZ3" s="178" t="s">
+      <c r="BZ3" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="CA3" s="179" t="s">
+      <c r="CA3" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="CB3" s="179" t="s">
+      <c r="CB3" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="CC3" s="179" t="s">
+      <c r="CC3" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="CD3" s="179" t="s">
+      <c r="CD3" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="CE3" s="179" t="s">
+      <c r="CE3" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="CF3" s="179" t="s">
+      <c r="CF3" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="CG3" s="179" t="s">
+      <c r="CG3" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="CH3" s="179" t="s">
+      <c r="CH3" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="CI3" s="179" t="s">
+      <c r="CI3" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="CJ3" s="179"/>
-      <c r="CK3" s="179" t="s">
+      <c r="CJ3" s="177"/>
+      <c r="CK3" s="177" t="s">
         <v>81</v>
       </c>
-      <c r="CL3" s="179"/>
-      <c r="CM3" s="179"/>
-      <c r="CN3" s="179"/>
-      <c r="CO3" s="179" t="s">
+      <c r="CL3" s="177"/>
+      <c r="CM3" s="177"/>
+      <c r="CN3" s="177"/>
+      <c r="CO3" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="CP3" s="179" t="s">
+      <c r="CP3" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="CQ3" s="179" t="s">
+      <c r="CQ3" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="CR3" s="179" t="s">
+      <c r="CR3" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="CS3" s="179" t="s">
+      <c r="CS3" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="CT3" s="179" t="s">
+      <c r="CT3" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="CU3" s="179" t="s">
+      <c r="CU3" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="CV3" s="179" t="s">
+      <c r="CV3" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="CW3" s="179" t="s">
+      <c r="CW3" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="CX3" s="179" t="s">
+      <c r="CX3" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="CY3" s="180" t="s">
+      <c r="CY3" s="178" t="s">
         <v>66</v>
       </c>
-      <c r="CZ3" s="181" t="s">
+      <c r="CZ3" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="DA3" s="182" t="s">
+      <c r="DA3" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="DB3" s="182" t="s">
+      <c r="DB3" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="DC3" s="182" t="s">
+      <c r="DC3" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="DD3" s="182" t="s">
+      <c r="DD3" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="DE3" s="182" t="s">
+      <c r="DE3" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="DF3" s="182" t="s">
+      <c r="DF3" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="DG3" s="182" t="s">
+      <c r="DG3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="DH3" s="183" t="s">
+      <c r="DH3" s="181" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3115,313 +3103,313 @@
         <v>7</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="124">
+      <c r="J4" s="122">
         <v>12</v>
       </c>
-      <c r="K4" s="125">
+      <c r="K4" s="123">
         <v>13</v>
       </c>
-      <c r="L4" s="125">
+      <c r="L4" s="123">
         <v>14</v>
       </c>
-      <c r="M4" s="125">
+      <c r="M4" s="123">
         <v>15</v>
       </c>
-      <c r="N4" s="125">
+      <c r="N4" s="123">
         <v>16</v>
       </c>
-      <c r="O4" s="125">
+      <c r="O4" s="123">
         <v>17</v>
       </c>
-      <c r="P4" s="125">
+      <c r="P4" s="123">
         <v>18</v>
       </c>
-      <c r="Q4" s="125">
+      <c r="Q4" s="123">
         <v>19</v>
       </c>
-      <c r="R4" s="125">
+      <c r="R4" s="123">
         <v>20</v>
       </c>
-      <c r="S4" s="125">
+      <c r="S4" s="123">
         <v>21</v>
       </c>
-      <c r="T4" s="125">
+      <c r="T4" s="123">
         <v>22</v>
       </c>
-      <c r="U4" s="125">
+      <c r="U4" s="123">
         <v>23</v>
       </c>
-      <c r="V4" s="125">
+      <c r="V4" s="123">
         <v>24</v>
       </c>
-      <c r="W4" s="125">
+      <c r="W4" s="123">
         <v>25</v>
       </c>
-      <c r="X4" s="125">
+      <c r="X4" s="123">
         <v>26</v>
       </c>
-      <c r="Y4" s="125">
+      <c r="Y4" s="123">
         <v>27</v>
       </c>
-      <c r="Z4" s="125">
+      <c r="Z4" s="123">
         <v>28</v>
       </c>
-      <c r="AA4" s="125">
+      <c r="AA4" s="123">
         <v>29</v>
       </c>
-      <c r="AB4" s="126">
+      <c r="AB4" s="124">
         <v>30</v>
       </c>
-      <c r="AC4" s="132">
+      <c r="AC4" s="130">
         <v>31</v>
       </c>
-      <c r="AD4" s="133">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="133">
+      <c r="AD4" s="131">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="131">
         <v>2</v>
       </c>
-      <c r="AF4" s="133">
+      <c r="AF4" s="131">
         <v>3</v>
       </c>
-      <c r="AG4" s="133">
+      <c r="AG4" s="131">
         <v>4</v>
       </c>
-      <c r="AH4" s="133">
+      <c r="AH4" s="131">
         <v>5</v>
       </c>
-      <c r="AI4" s="133">
+      <c r="AI4" s="131">
         <v>6</v>
       </c>
-      <c r="AJ4" s="133">
+      <c r="AJ4" s="131">
         <v>7</v>
       </c>
-      <c r="AK4" s="133">
+      <c r="AK4" s="131">
         <v>8</v>
       </c>
-      <c r="AL4" s="133">
+      <c r="AL4" s="131">
         <v>9</v>
       </c>
-      <c r="AM4" s="133">
+      <c r="AM4" s="131">
         <v>10</v>
       </c>
-      <c r="AN4" s="133">
+      <c r="AN4" s="131">
         <v>11</v>
       </c>
-      <c r="AO4" s="133">
+      <c r="AO4" s="131">
         <v>12</v>
       </c>
-      <c r="AP4" s="134">
+      <c r="AP4" s="132">
         <v>13</v>
       </c>
-      <c r="AQ4" s="138">
+      <c r="AQ4" s="136">
         <v>14</v>
       </c>
-      <c r="AR4" s="139">
+      <c r="AR4" s="137">
         <v>15</v>
       </c>
-      <c r="AS4" s="139">
+      <c r="AS4" s="137">
         <v>16</v>
       </c>
-      <c r="AT4" s="139">
+      <c r="AT4" s="137">
         <v>17</v>
       </c>
-      <c r="AU4" s="139">
+      <c r="AU4" s="137">
         <v>18</v>
       </c>
-      <c r="AV4" s="139">
+      <c r="AV4" s="137">
         <v>19</v>
       </c>
-      <c r="AW4" s="139">
+      <c r="AW4" s="137">
         <v>20</v>
       </c>
-      <c r="AX4" s="139">
+      <c r="AX4" s="137">
         <v>21</v>
       </c>
-      <c r="AY4" s="139">
+      <c r="AY4" s="137">
         <v>22</v>
       </c>
-      <c r="AZ4" s="139">
+      <c r="AZ4" s="137">
         <v>23</v>
       </c>
-      <c r="BA4" s="139">
+      <c r="BA4" s="137">
         <v>24</v>
       </c>
-      <c r="BB4" s="139">
+      <c r="BB4" s="137">
         <v>25</v>
       </c>
-      <c r="BC4" s="139">
+      <c r="BC4" s="137">
         <v>26</v>
       </c>
-      <c r="BD4" s="140">
+      <c r="BD4" s="138">
         <v>27</v>
       </c>
-      <c r="BE4" s="188">
+      <c r="BE4" s="186">
         <v>28</v>
       </c>
-      <c r="BF4" s="189">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="189">
+      <c r="BF4" s="187">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="187">
         <v>2</v>
       </c>
-      <c r="BH4" s="189">
+      <c r="BH4" s="187">
         <v>3</v>
       </c>
-      <c r="BI4" s="190">
+      <c r="BI4" s="188">
         <v>4</v>
       </c>
-      <c r="BJ4" s="144">
+      <c r="BJ4" s="142">
         <v>5</v>
       </c>
-      <c r="BK4" s="145">
+      <c r="BK4" s="143">
         <v>6</v>
       </c>
-      <c r="BL4" s="145">
+      <c r="BL4" s="143">
         <v>7</v>
       </c>
-      <c r="BM4" s="145">
+      <c r="BM4" s="143">
         <v>8</v>
       </c>
-      <c r="BN4" s="145">
+      <c r="BN4" s="143">
         <v>9</v>
       </c>
-      <c r="BO4" s="145">
+      <c r="BO4" s="143">
         <v>10</v>
       </c>
-      <c r="BP4" s="145">
+      <c r="BP4" s="143">
         <v>11</v>
       </c>
-      <c r="BQ4" s="145">
+      <c r="BQ4" s="143">
         <v>12</v>
       </c>
-      <c r="BR4" s="145">
+      <c r="BR4" s="143">
         <v>13</v>
       </c>
-      <c r="BS4" s="145">
+      <c r="BS4" s="143">
         <v>14</v>
       </c>
-      <c r="BT4" s="145">
+      <c r="BT4" s="143">
         <v>15</v>
       </c>
-      <c r="BU4" s="145">
+      <c r="BU4" s="143">
         <v>16</v>
       </c>
-      <c r="BV4" s="145">
+      <c r="BV4" s="143">
         <v>17</v>
       </c>
-      <c r="BW4" s="145">
+      <c r="BW4" s="143">
         <v>18</v>
       </c>
-      <c r="BX4" s="145">
+      <c r="BX4" s="143">
         <v>19</v>
       </c>
-      <c r="BY4" s="146">
+      <c r="BY4" s="144">
         <v>20</v>
       </c>
-      <c r="BZ4" s="150">
+      <c r="BZ4" s="148">
         <v>21</v>
       </c>
-      <c r="CA4" s="151">
+      <c r="CA4" s="149">
         <v>22</v>
       </c>
-      <c r="CB4" s="151">
+      <c r="CB4" s="149">
         <v>23</v>
       </c>
-      <c r="CC4" s="151">
+      <c r="CC4" s="149">
         <v>24</v>
       </c>
-      <c r="CD4" s="151">
+      <c r="CD4" s="149">
         <v>25</v>
       </c>
-      <c r="CE4" s="151">
+      <c r="CE4" s="149">
         <v>26</v>
       </c>
-      <c r="CF4" s="151">
+      <c r="CF4" s="149">
         <v>27</v>
       </c>
-      <c r="CG4" s="151">
+      <c r="CG4" s="149">
         <v>28</v>
       </c>
-      <c r="CH4" s="151">
+      <c r="CH4" s="149">
         <v>29</v>
       </c>
-      <c r="CI4" s="151">
+      <c r="CI4" s="149">
         <v>30</v>
       </c>
-      <c r="CJ4" s="151">
+      <c r="CJ4" s="149">
         <v>31</v>
       </c>
-      <c r="CK4" s="151">
-        <v>1</v>
-      </c>
-      <c r="CL4" s="151">
+      <c r="CK4" s="149">
+        <v>1</v>
+      </c>
+      <c r="CL4" s="149">
         <v>2</v>
       </c>
-      <c r="CM4" s="151">
+      <c r="CM4" s="149">
         <v>3</v>
       </c>
-      <c r="CN4" s="152">
+      <c r="CN4" s="150">
         <v>4</v>
       </c>
-      <c r="CO4" s="151">
+      <c r="CO4" s="149">
         <v>5</v>
       </c>
-      <c r="CP4" s="151">
+      <c r="CP4" s="149">
         <v>6</v>
       </c>
-      <c r="CQ4" s="151">
+      <c r="CQ4" s="149">
         <v>7</v>
       </c>
-      <c r="CR4" s="152">
+      <c r="CR4" s="150">
         <v>8</v>
       </c>
-      <c r="CS4" s="151">
+      <c r="CS4" s="149">
         <v>9</v>
       </c>
-      <c r="CT4" s="151">
+      <c r="CT4" s="149">
         <v>10</v>
       </c>
-      <c r="CU4" s="151">
+      <c r="CU4" s="149">
         <v>11</v>
       </c>
-      <c r="CV4" s="152">
+      <c r="CV4" s="150">
         <v>12</v>
       </c>
-      <c r="CW4" s="151">
+      <c r="CW4" s="149">
         <v>13</v>
       </c>
-      <c r="CX4" s="151">
+      <c r="CX4" s="149">
         <v>14</v>
       </c>
-      <c r="CY4" s="153">
+      <c r="CY4" s="151">
         <v>15</v>
       </c>
-      <c r="CZ4" s="157">
+      <c r="CZ4" s="155">
         <v>16</v>
       </c>
-      <c r="DA4" s="158">
+      <c r="DA4" s="156">
         <v>17</v>
       </c>
-      <c r="DB4" s="158">
+      <c r="DB4" s="156">
         <v>18</v>
       </c>
-      <c r="DC4" s="158">
+      <c r="DC4" s="156">
         <v>19</v>
       </c>
-      <c r="DD4" s="159">
+      <c r="DD4" s="157">
         <v>20</v>
       </c>
-      <c r="DE4" s="158">
+      <c r="DE4" s="156">
         <v>21</v>
       </c>
-      <c r="DF4" s="158">
+      <c r="DF4" s="156">
         <v>22</v>
       </c>
-      <c r="DG4" s="158">
+      <c r="DG4" s="156">
         <v>23</v>
       </c>
-      <c r="DH4" s="160">
+      <c r="DH4" s="158">
         <v>24</v>
       </c>
       <c r="DL4" s="20"/>
@@ -3433,317 +3421,317 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="197" t="s">
+      <c r="H5" s="195" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="197"/>
-      <c r="J5" s="127">
-        <v>1</v>
-      </c>
-      <c r="K5" s="128">
+      <c r="I5" s="195"/>
+      <c r="J5" s="125">
+        <v>1</v>
+      </c>
+      <c r="K5" s="126">
         <v>2</v>
       </c>
-      <c r="L5" s="128">
+      <c r="L5" s="126">
         <v>3</v>
       </c>
-      <c r="M5" s="128">
+      <c r="M5" s="126">
         <v>4</v>
       </c>
-      <c r="N5" s="128">
+      <c r="N5" s="126">
         <v>5</v>
       </c>
-      <c r="O5" s="128">
+      <c r="O5" s="126">
         <v>6</v>
       </c>
-      <c r="P5" s="128">
+      <c r="P5" s="126">
         <v>7</v>
       </c>
-      <c r="Q5" s="128">
+      <c r="Q5" s="126">
         <v>8</v>
       </c>
-      <c r="R5" s="128">
+      <c r="R5" s="126">
         <v>9</v>
       </c>
-      <c r="S5" s="128">
+      <c r="S5" s="126">
         <v>10</v>
       </c>
-      <c r="T5" s="128">
+      <c r="T5" s="126">
         <v>11</v>
       </c>
-      <c r="U5" s="128">
+      <c r="U5" s="126">
         <v>12</v>
       </c>
-      <c r="V5" s="128">
+      <c r="V5" s="126">
         <v>13</v>
       </c>
-      <c r="W5" s="128">
+      <c r="W5" s="126">
         <v>14</v>
       </c>
-      <c r="X5" s="128">
+      <c r="X5" s="126">
         <v>15</v>
       </c>
-      <c r="Y5" s="128">
+      <c r="Y5" s="126">
         <v>16</v>
       </c>
-      <c r="Z5" s="128">
+      <c r="Z5" s="126">
         <v>17</v>
       </c>
-      <c r="AA5" s="128">
+      <c r="AA5" s="126">
         <v>18</v>
       </c>
-      <c r="AB5" s="129">
+      <c r="AB5" s="127">
         <v>19</v>
       </c>
-      <c r="AC5" s="135">
+      <c r="AC5" s="133">
         <v>20</v>
       </c>
-      <c r="AD5" s="136">
+      <c r="AD5" s="134">
         <v>21</v>
       </c>
-      <c r="AE5" s="136">
+      <c r="AE5" s="134">
         <v>22</v>
       </c>
-      <c r="AF5" s="136">
+      <c r="AF5" s="134">
         <v>23</v>
       </c>
-      <c r="AG5" s="136">
+      <c r="AG5" s="134">
         <v>24</v>
       </c>
-      <c r="AH5" s="136">
+      <c r="AH5" s="134">
         <v>25</v>
       </c>
-      <c r="AI5" s="136">
+      <c r="AI5" s="134">
         <v>26</v>
       </c>
-      <c r="AJ5" s="136">
+      <c r="AJ5" s="134">
         <v>27</v>
       </c>
-      <c r="AK5" s="136">
+      <c r="AK5" s="134">
         <v>28</v>
       </c>
-      <c r="AL5" s="136">
+      <c r="AL5" s="134">
         <v>29</v>
       </c>
-      <c r="AM5" s="136">
+      <c r="AM5" s="134">
         <v>30</v>
       </c>
-      <c r="AN5" s="136">
+      <c r="AN5" s="134">
         <v>31</v>
       </c>
-      <c r="AO5" s="136">
+      <c r="AO5" s="134">
         <v>32</v>
       </c>
-      <c r="AP5" s="137">
+      <c r="AP5" s="135">
         <v>33</v>
       </c>
-      <c r="AQ5" s="141">
+      <c r="AQ5" s="139">
         <v>34</v>
       </c>
-      <c r="AR5" s="142">
+      <c r="AR5" s="140">
         <v>35</v>
       </c>
-      <c r="AS5" s="142">
+      <c r="AS5" s="140">
         <v>36</v>
       </c>
-      <c r="AT5" s="142">
+      <c r="AT5" s="140">
         <v>37</v>
       </c>
-      <c r="AU5" s="142">
+      <c r="AU5" s="140">
         <v>38</v>
       </c>
-      <c r="AV5" s="142">
+      <c r="AV5" s="140">
         <v>39</v>
       </c>
-      <c r="AW5" s="142">
+      <c r="AW5" s="140">
         <v>40</v>
       </c>
-      <c r="AX5" s="142">
+      <c r="AX5" s="140">
         <v>41</v>
       </c>
-      <c r="AY5" s="142">
+      <c r="AY5" s="140">
         <v>42</v>
       </c>
-      <c r="AZ5" s="142">
+      <c r="AZ5" s="140">
         <v>43</v>
       </c>
-      <c r="BA5" s="142">
+      <c r="BA5" s="140">
         <v>44</v>
       </c>
-      <c r="BB5" s="142">
+      <c r="BB5" s="140">
         <v>45</v>
       </c>
-      <c r="BC5" s="142">
+      <c r="BC5" s="140">
         <v>46</v>
       </c>
-      <c r="BD5" s="143">
+      <c r="BD5" s="141">
         <v>47</v>
       </c>
-      <c r="BE5" s="191">
+      <c r="BE5" s="189">
         <v>48</v>
       </c>
-      <c r="BF5" s="192">
+      <c r="BF5" s="190">
         <v>49</v>
       </c>
-      <c r="BG5" s="192">
+      <c r="BG5" s="190">
         <v>50</v>
       </c>
-      <c r="BH5" s="192">
+      <c r="BH5" s="190">
         <v>51</v>
       </c>
-      <c r="BI5" s="193">
+      <c r="BI5" s="191">
         <v>52</v>
       </c>
-      <c r="BJ5" s="147">
+      <c r="BJ5" s="145">
         <v>53</v>
       </c>
-      <c r="BK5" s="148">
+      <c r="BK5" s="146">
         <v>54</v>
       </c>
-      <c r="BL5" s="148">
+      <c r="BL5" s="146">
         <v>55</v>
       </c>
-      <c r="BM5" s="148">
+      <c r="BM5" s="146">
         <v>56</v>
       </c>
-      <c r="BN5" s="148">
+      <c r="BN5" s="146">
         <v>57</v>
       </c>
-      <c r="BO5" s="148">
+      <c r="BO5" s="146">
         <v>58</v>
       </c>
-      <c r="BP5" s="148">
+      <c r="BP5" s="146">
         <v>59</v>
       </c>
-      <c r="BQ5" s="148">
+      <c r="BQ5" s="146">
         <v>60</v>
       </c>
-      <c r="BR5" s="148">
+      <c r="BR5" s="146">
         <v>61</v>
       </c>
-      <c r="BS5" s="148">
+      <c r="BS5" s="146">
         <v>62</v>
       </c>
-      <c r="BT5" s="148">
+      <c r="BT5" s="146">
         <v>63</v>
       </c>
-      <c r="BU5" s="148">
+      <c r="BU5" s="146">
         <v>64</v>
       </c>
-      <c r="BV5" s="148">
+      <c r="BV5" s="146">
         <v>65</v>
       </c>
-      <c r="BW5" s="148">
+      <c r="BW5" s="146">
         <v>66</v>
       </c>
-      <c r="BX5" s="148">
+      <c r="BX5" s="146">
         <v>67</v>
       </c>
-      <c r="BY5" s="149">
+      <c r="BY5" s="147">
         <v>68</v>
       </c>
-      <c r="BZ5" s="154">
+      <c r="BZ5" s="152">
         <v>69</v>
       </c>
-      <c r="CA5" s="155">
+      <c r="CA5" s="153">
         <v>70</v>
       </c>
-      <c r="CB5" s="155">
+      <c r="CB5" s="153">
         <v>71</v>
       </c>
-      <c r="CC5" s="155">
+      <c r="CC5" s="153">
         <v>72</v>
       </c>
-      <c r="CD5" s="155">
+      <c r="CD5" s="153">
         <v>73</v>
       </c>
-      <c r="CE5" s="155">
+      <c r="CE5" s="153">
         <v>74</v>
       </c>
-      <c r="CF5" s="155">
+      <c r="CF5" s="153">
         <v>75</v>
       </c>
-      <c r="CG5" s="155">
+      <c r="CG5" s="153">
         <v>76</v>
       </c>
-      <c r="CH5" s="155">
+      <c r="CH5" s="153">
         <v>77</v>
       </c>
-      <c r="CI5" s="155">
+      <c r="CI5" s="153">
         <v>78</v>
       </c>
-      <c r="CJ5" s="155">
+      <c r="CJ5" s="153">
         <v>79</v>
       </c>
-      <c r="CK5" s="155">
+      <c r="CK5" s="153">
         <v>80</v>
       </c>
-      <c r="CL5" s="155">
+      <c r="CL5" s="153">
         <v>81</v>
       </c>
-      <c r="CM5" s="155">
+      <c r="CM5" s="153">
         <v>82</v>
       </c>
-      <c r="CN5" s="155">
+      <c r="CN5" s="153">
         <v>83</v>
       </c>
-      <c r="CO5" s="155">
+      <c r="CO5" s="153">
         <v>84</v>
       </c>
-      <c r="CP5" s="155">
+      <c r="CP5" s="153">
         <v>85</v>
       </c>
-      <c r="CQ5" s="155">
+      <c r="CQ5" s="153">
         <v>86</v>
       </c>
-      <c r="CR5" s="155">
+      <c r="CR5" s="153">
         <v>87</v>
       </c>
-      <c r="CS5" s="155">
+      <c r="CS5" s="153">
         <v>88</v>
       </c>
-      <c r="CT5" s="155">
+      <c r="CT5" s="153">
         <v>89</v>
       </c>
-      <c r="CU5" s="155">
+      <c r="CU5" s="153">
         <v>90</v>
       </c>
-      <c r="CV5" s="155">
+      <c r="CV5" s="153">
         <v>91</v>
       </c>
-      <c r="CW5" s="155">
+      <c r="CW5" s="153">
         <v>92</v>
       </c>
-      <c r="CX5" s="155">
+      <c r="CX5" s="153">
         <v>93</v>
       </c>
-      <c r="CY5" s="156">
+      <c r="CY5" s="154">
         <v>94</v>
       </c>
-      <c r="CZ5" s="161">
+      <c r="CZ5" s="159">
         <v>95</v>
       </c>
-      <c r="DA5" s="162">
+      <c r="DA5" s="160">
         <v>96</v>
       </c>
-      <c r="DB5" s="162">
+      <c r="DB5" s="160">
         <v>97</v>
       </c>
-      <c r="DC5" s="162">
+      <c r="DC5" s="160">
         <v>98</v>
       </c>
-      <c r="DD5" s="162">
+      <c r="DD5" s="160">
         <v>99</v>
       </c>
-      <c r="DE5" s="162">
+      <c r="DE5" s="160">
         <v>100</v>
       </c>
-      <c r="DF5" s="162">
+      <c r="DF5" s="160">
         <v>101</v>
       </c>
-      <c r="DG5" s="162">
+      <c r="DG5" s="160">
         <v>102</v>
       </c>
-      <c r="DH5" s="163">
+      <c r="DH5" s="161">
         <v>103</v>
       </c>
       <c r="DI5" s="3"/>
@@ -3763,7 +3751,7 @@
       <c r="B6" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="104" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="39">
@@ -3787,7 +3775,7 @@
       <c r="B7" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="105" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="42">
@@ -3811,7 +3799,7 @@
       <c r="B8" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="105" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="42">
@@ -3835,7 +3823,7 @@
       <c r="B9" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="105" t="s">
         <v>88</v>
       </c>
       <c r="D9" s="42">
@@ -3859,7 +3847,7 @@
       <c r="B10" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="105" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="42">
@@ -3883,7 +3871,7 @@
       <c r="B11" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="105" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="42">
@@ -3907,7 +3895,7 @@
       <c r="B12" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="106" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="52">
@@ -3920,10 +3908,10 @@
         <v>11</v>
       </c>
       <c r="G12" s="52">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H12" s="53">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I12" s="54"/>
     </row>
@@ -3931,7 +3919,7 @@
       <c r="B13" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="107" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="47">
@@ -3953,9 +3941,9 @@
     </row>
     <row r="14" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="107" t="s">
         <v>88</v>
       </c>
       <c r="D14" s="47">
@@ -3977,9 +3965,9 @@
     </row>
     <row r="15" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="107" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="47">
@@ -4001,9 +3989,9 @@
     </row>
     <row r="16" spans="1:124" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="107" t="s">
         <v>85</v>
       </c>
       <c r="D16" s="47">
@@ -4027,7 +4015,7 @@
       <c r="B17" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="107" t="s">
         <v>84</v>
       </c>
       <c r="D17" s="47">
@@ -4040,18 +4028,18 @@
         <v>15</v>
       </c>
       <c r="G17" s="47">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H17" s="48">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I17" s="56"/>
     </row>
     <row r="18" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="107" t="s">
         <v>86</v>
       </c>
       <c r="D18" s="47">
@@ -4073,9 +4061,9 @@
     </row>
     <row r="19" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="107" t="s">
         <v>88</v>
       </c>
       <c r="D19" s="47">
@@ -4097,25 +4085,25 @@
     </row>
     <row r="20" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="107" t="s">
         <v>88</v>
       </c>
       <c r="D20" s="47">
         <v>11</v>
       </c>
       <c r="E20" s="47">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F20" s="47">
         <v>11</v>
       </c>
       <c r="G20" s="47">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H20" s="48">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I20" s="56"/>
     </row>
@@ -4123,7 +4111,7 @@
       <c r="B21" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="107" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="47">
@@ -4136,55 +4124,55 @@
         <v>23</v>
       </c>
       <c r="G21" s="47">
-        <v>9</v>
-      </c>
-      <c r="H21" s="48">
-        <v>0.5</v>
+        <v>17</v>
+      </c>
+      <c r="H21" s="60">
+        <v>1</v>
       </c>
       <c r="I21" s="56"/>
     </row>
     <row r="22" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="108" t="s">
         <v>84</v>
       </c>
       <c r="D22" s="62">
         <v>5</v>
       </c>
       <c r="E22" s="62">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F22" s="62">
         <v>34</v>
       </c>
       <c r="G22" s="62">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H22" s="67">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="64"/>
     </row>
     <row r="23" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="109" t="s">
         <v>88</v>
       </c>
       <c r="D23" s="66">
         <v>30</v>
       </c>
       <c r="E23" s="66">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F23" s="66">
         <v>32</v>
       </c>
       <c r="G23" s="66">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H23" s="67">
         <v>0.1</v>
@@ -4195,7 +4183,7 @@
       <c r="B24" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="109" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="66">
@@ -4211,332 +4199,284 @@
         <v>22</v>
       </c>
       <c r="H24" s="67">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="68"/>
     </row>
     <row r="25" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="110" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="109" t="s">
         <v>88</v>
       </c>
       <c r="D25" s="66">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25" s="66">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F25" s="66">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" s="66">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H25" s="67">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I25" s="68"/>
     </row>
     <row r="26" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="69">
+        <v>10</v>
+      </c>
+      <c r="E26" s="66">
+        <v>33</v>
+      </c>
+      <c r="F26" s="66">
+        <v>33</v>
+      </c>
+      <c r="G26" s="66">
+        <v>14</v>
+      </c>
+      <c r="H26" s="67">
+        <v>1</v>
+      </c>
+      <c r="I26" s="68"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="71">
+        <v>8</v>
+      </c>
+      <c r="E27" s="71">
+        <v>60</v>
+      </c>
+      <c r="F27" s="71">
+        <v>28</v>
+      </c>
+      <c r="G27" s="71">
+        <v>40</v>
+      </c>
+      <c r="H27" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="73"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="78">
+        <v>40</v>
+      </c>
+      <c r="E28" s="78">
+        <v>29</v>
+      </c>
+      <c r="F28" s="78">
+        <v>40</v>
+      </c>
+      <c r="G28" s="78">
+        <v>29</v>
+      </c>
+      <c r="H28" s="79">
+        <v>0</v>
+      </c>
+      <c r="I28" s="80"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="66">
-        <v>32</v>
-      </c>
-      <c r="E26" s="66">
+      <c r="D29" s="78">
+        <v>34</v>
+      </c>
+      <c r="E29" s="78">
+        <v>35</v>
+      </c>
+      <c r="F29" s="78">
+        <v>34</v>
+      </c>
+      <c r="G29" s="78">
+        <v>35</v>
+      </c>
+      <c r="H29" s="79">
+        <v>0.6</v>
+      </c>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="111" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="78">
+        <v>40</v>
+      </c>
+      <c r="E30" s="78">
+        <v>29</v>
+      </c>
+      <c r="F30" s="78">
+        <v>40</v>
+      </c>
+      <c r="G30" s="78">
+        <v>29</v>
+      </c>
+      <c r="H30" s="182">
+        <v>0.3</v>
+      </c>
+      <c r="I30" s="80"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="82">
+        <v>40</v>
+      </c>
+      <c r="E31" s="82">
+        <v>29</v>
+      </c>
+      <c r="F31" s="82">
+        <v>40</v>
+      </c>
+      <c r="G31" s="82">
+        <v>29</v>
+      </c>
+      <c r="H31" s="83">
+        <v>0</v>
+      </c>
+      <c r="I31" s="84"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="88">
+        <v>48</v>
+      </c>
+      <c r="E32" s="88">
+        <v>21</v>
+      </c>
+      <c r="F32" s="88">
+        <v>48</v>
+      </c>
+      <c r="G32" s="88">
+        <v>21</v>
+      </c>
+      <c r="H32" s="89">
+        <v>0</v>
+      </c>
+      <c r="I32" s="90"/>
+    </row>
+    <row r="33" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="88">
+        <v>54</v>
+      </c>
+      <c r="E33" s="88">
         <v>12</v>
       </c>
-      <c r="F26" s="66">
-        <v>32</v>
-      </c>
-      <c r="G26" s="66">
+      <c r="F33" s="88">
+        <v>54</v>
+      </c>
+      <c r="G33" s="88">
         <v>12</v>
       </c>
-      <c r="H26" s="67">
-        <v>0.1</v>
-      </c>
-      <c r="I26" s="68"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="110" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="69">
-        <v>10</v>
-      </c>
-      <c r="E27" s="66">
-        <v>33</v>
-      </c>
-      <c r="F27" s="66">
-        <v>33</v>
-      </c>
-      <c r="G27" s="66">
-        <v>18</v>
-      </c>
-      <c r="H27" s="67">
+      <c r="H33" s="192">
         <v>0</v>
       </c>
-      <c r="I27" s="68"/>
-    </row>
-    <row r="28" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="71">
-        <v>8</v>
-      </c>
-      <c r="E28" s="71">
-        <v>35</v>
-      </c>
-      <c r="F28" s="71">
-        <v>28</v>
-      </c>
-      <c r="G28" s="71">
-        <v>16</v>
-      </c>
-      <c r="H28" s="72">
-        <v>0.1</v>
-      </c>
-      <c r="I28" s="73"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="75">
-        <v>34</v>
-      </c>
-      <c r="E29" s="75">
-        <v>19</v>
-      </c>
-      <c r="F29" s="75">
-        <v>34</v>
-      </c>
-      <c r="G29" s="75">
-        <v>19</v>
-      </c>
-      <c r="H29" s="76">
+      <c r="I33" s="90"/>
+    </row>
+    <row r="34" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="92">
+        <v>69</v>
+      </c>
+      <c r="E34" s="92">
+        <v>26</v>
+      </c>
+      <c r="F34" s="92">
+        <v>69</v>
+      </c>
+      <c r="G34" s="92">
+        <v>26</v>
+      </c>
+      <c r="H34" s="193">
         <v>0</v>
       </c>
-      <c r="I29" s="77"/>
-    </row>
-    <row r="30" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="79">
-        <v>40</v>
-      </c>
-      <c r="E30" s="79">
-        <v>14</v>
-      </c>
-      <c r="F30" s="79">
-        <v>40</v>
-      </c>
-      <c r="G30" s="79">
-        <v>14</v>
-      </c>
-      <c r="H30" s="80">
+      <c r="I34" s="94"/>
+    </row>
+    <row r="35" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="100">
+        <v>95</v>
+      </c>
+      <c r="E35" s="100">
+        <v>9</v>
+      </c>
+      <c r="F35" s="100">
+        <v>95</v>
+      </c>
+      <c r="G35" s="100">
+        <v>9</v>
+      </c>
+      <c r="H35" s="101">
         <v>0</v>
       </c>
-      <c r="I30" s="81"/>
-    </row>
-    <row r="31" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="113" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="79">
-        <v>34</v>
-      </c>
-      <c r="E31" s="79">
-        <v>16</v>
-      </c>
-      <c r="F31" s="79">
-        <v>34</v>
-      </c>
-      <c r="G31" s="79">
-        <v>16</v>
-      </c>
-      <c r="H31" s="80">
-        <v>0</v>
-      </c>
-      <c r="I31" s="81"/>
-    </row>
-    <row r="32" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="79">
-        <v>40</v>
-      </c>
-      <c r="E32" s="79">
-        <v>14</v>
-      </c>
-      <c r="F32" s="79">
-        <v>40</v>
-      </c>
-      <c r="G32" s="79">
-        <v>14</v>
-      </c>
-      <c r="H32" s="184">
-        <v>0</v>
-      </c>
-      <c r="I32" s="81"/>
-    </row>
-    <row r="33" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="114" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="83">
-        <v>40</v>
-      </c>
-      <c r="E33" s="83">
-        <v>29</v>
-      </c>
-      <c r="F33" s="83">
-        <v>40</v>
-      </c>
-      <c r="G33" s="83">
-        <v>29</v>
-      </c>
-      <c r="H33" s="84">
-        <v>0</v>
-      </c>
-      <c r="I33" s="85"/>
-    </row>
-    <row r="34" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="115" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="89">
-        <v>48</v>
-      </c>
-      <c r="E34" s="89">
-        <v>21</v>
-      </c>
-      <c r="F34" s="89">
-        <v>48</v>
-      </c>
-      <c r="G34" s="89">
-        <v>21</v>
-      </c>
-      <c r="H34" s="90">
-        <v>0</v>
-      </c>
-      <c r="I34" s="91"/>
-    </row>
-    <row r="35" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="89">
-        <v>54</v>
-      </c>
-      <c r="E35" s="89">
-        <v>12</v>
-      </c>
-      <c r="F35" s="89">
-        <v>54</v>
-      </c>
-      <c r="G35" s="89">
-        <v>12</v>
-      </c>
-      <c r="H35" s="194">
-        <v>0</v>
-      </c>
-      <c r="I35" s="91"/>
-    </row>
-    <row r="36" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="93">
-        <v>69</v>
-      </c>
-      <c r="E36" s="93">
-        <v>26</v>
-      </c>
-      <c r="F36" s="93">
-        <v>69</v>
-      </c>
-      <c r="G36" s="93">
-        <v>26</v>
-      </c>
-      <c r="H36" s="195">
-        <v>0</v>
-      </c>
-      <c r="I36" s="95"/>
-    </row>
-    <row r="37" spans="2:110" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="101">
-        <v>95</v>
-      </c>
-      <c r="E37" s="101">
-        <v>9</v>
-      </c>
-      <c r="F37" s="101">
-        <v>95</v>
-      </c>
-      <c r="G37" s="101">
-        <v>9</v>
-      </c>
-      <c r="H37" s="102">
-        <v>0</v>
-      </c>
-      <c r="I37" s="103"/>
-      <c r="DF37" s="86"/>
-    </row>
-    <row r="38" spans="2:110" x14ac:dyDescent="0.3">
-      <c r="DF38" s="87"/>
+      <c r="I35" s="102"/>
+      <c r="DF35" s="85"/>
+    </row>
+    <row r="36" spans="2:110" x14ac:dyDescent="0.3">
+      <c r="DF36" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <conditionalFormatting sqref="DP37:DT37 J37:DL37 J6:DT36">
+  <conditionalFormatting sqref="DP35:DT35 J35:DL35 J6:DT34">
     <cfRule type="expression" dxfId="51" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -4562,7 +4502,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:DE38">
+  <conditionalFormatting sqref="B36:DE36">
     <cfRule type="expression" dxfId="43" priority="26">
       <formula>TRUE</formula>
     </cfRule>
@@ -4572,7 +4512,7 @@
       <formula>J$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DM37:DO37">
+  <conditionalFormatting sqref="DM35:DO35">
     <cfRule type="expression" dxfId="41" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -4659,7 +4599,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:122" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="194" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="26"/>
@@ -4677,7 +4617,7 @@
       </c>
     </row>
     <row r="2" spans="1:122" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="196"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="26"/>
       <c r="D2" s="30" t="s">
         <v>39</v>
@@ -5173,7 +5113,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="103" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="3">
@@ -5837,289 +5777,289 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="78">
         <v>41</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="78">
         <v>14</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="78">
         <v>45</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="78">
         <v>15</v>
       </c>
-      <c r="G23" s="80">
+      <c r="G23" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="78">
         <v>36</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="78">
         <v>15</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="78">
         <v>36</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="78">
         <v>20</v>
       </c>
-      <c r="G24" s="80">
+      <c r="G24" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="78">
         <v>37</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="78">
         <v>14</v>
       </c>
-      <c r="E25" s="79">
+      <c r="E25" s="78">
         <v>37</v>
       </c>
-      <c r="F25" s="79">
+      <c r="F25" s="78">
         <v>14</v>
       </c>
-      <c r="G25" s="80">
+      <c r="G25" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="78">
         <v>83</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="78">
         <v>15</v>
       </c>
-      <c r="E26" s="79">
+      <c r="E26" s="78">
         <v>83</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="78">
         <v>15</v>
       </c>
-      <c r="G26" s="80">
+      <c r="G26" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="83">
+      <c r="C27" s="82">
         <v>43</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="82">
         <v>21</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="82">
         <v>43</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="82">
         <v>21</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="83">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="89">
+      <c r="C28" s="88">
         <v>46</v>
       </c>
-      <c r="D28" s="89">
+      <c r="D28" s="88">
         <v>12</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="88">
         <v>51</v>
       </c>
-      <c r="F28" s="89">
+      <c r="F28" s="88">
         <v>13</v>
       </c>
-      <c r="G28" s="90">
+      <c r="G28" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="89">
+      <c r="C29" s="88">
         <v>34</v>
       </c>
-      <c r="D29" s="89">
+      <c r="D29" s="88">
         <v>23</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="88">
         <v>34</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="88">
         <v>23</v>
       </c>
-      <c r="G29" s="90">
+      <c r="G29" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="89">
+      <c r="C30" s="88">
         <v>43</v>
       </c>
-      <c r="D30" s="89">
+      <c r="D30" s="88">
         <v>15</v>
       </c>
-      <c r="E30" s="89">
+      <c r="E30" s="88">
         <v>43</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F30" s="88">
         <v>29</v>
       </c>
-      <c r="G30" s="90">
+      <c r="G30" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="89">
+      <c r="C31" s="88">
         <v>59</v>
       </c>
-      <c r="D31" s="89">
+      <c r="D31" s="88">
         <v>6</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31" s="88">
         <v>59</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="88">
         <v>9</v>
       </c>
-      <c r="G31" s="90">
+      <c r="G31" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="93">
+      <c r="C32" s="92">
         <v>83</v>
       </c>
-      <c r="D32" s="93">
+      <c r="D32" s="92">
         <v>10</v>
       </c>
-      <c r="E32" s="93">
+      <c r="E32" s="92">
         <v>83</v>
       </c>
-      <c r="F32" s="93">
-        <v>1</v>
-      </c>
-      <c r="G32" s="94">
+      <c r="F32" s="92">
+        <v>1</v>
+      </c>
+      <c r="G32" s="93">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="97">
+      <c r="C33" s="96">
         <v>84</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="96">
         <v>18</v>
       </c>
-      <c r="E33" s="97">
+      <c r="E33" s="96">
         <v>84</v>
       </c>
-      <c r="F33" s="97">
-        <v>1</v>
-      </c>
-      <c r="G33" s="98">
+      <c r="F33" s="96">
+        <v>1</v>
+      </c>
+      <c r="G33" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="97">
+      <c r="C34" s="96">
         <v>84</v>
       </c>
-      <c r="D34" s="97">
+      <c r="D34" s="96">
         <v>9</v>
       </c>
-      <c r="E34" s="97">
+      <c r="E34" s="96">
         <v>84</v>
       </c>
-      <c r="F34" s="97">
-        <v>1</v>
-      </c>
-      <c r="G34" s="98">
+      <c r="F34" s="96">
+        <v>1</v>
+      </c>
+      <c r="G34" s="97">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="97">
+      <c r="C35" s="96">
         <v>84</v>
       </c>
-      <c r="D35" s="97">
+      <c r="D35" s="96">
         <v>18</v>
       </c>
-      <c r="E35" s="97">
+      <c r="E35" s="96">
         <v>84</v>
       </c>
-      <c r="F35" s="97">
-        <v>1</v>
-      </c>
-      <c r="G35" s="98">
+      <c r="F35" s="96">
+        <v>1</v>
+      </c>
+      <c r="G35" s="97">
         <v>0</v>
       </c>
-      <c r="DD35" s="86"/>
+      <c r="DD35" s="85"/>
     </row>
     <row r="36" spans="2:108" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="101">
+      <c r="C36" s="100">
         <v>84</v>
       </c>
-      <c r="D36" s="101">
+      <c r="D36" s="100">
         <v>18</v>
       </c>
-      <c r="E36" s="101">
+      <c r="E36" s="100">
         <v>84</v>
       </c>
-      <c r="F36" s="101">
-        <v>1</v>
-      </c>
-      <c r="G36" s="102">
+      <c r="F36" s="100">
+        <v>1</v>
+      </c>
+      <c r="G36" s="101">
         <v>0</v>
       </c>
-      <c r="DD36" s="86"/>
+      <c r="DD36" s="85"/>
     </row>
     <row r="37" spans="2:108" x14ac:dyDescent="0.3">
-      <c r="DD37" s="87"/>
+      <c r="DD37" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
